--- a/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>202800</v>
+        <v>197800</v>
       </c>
       <c r="E8" s="3">
-        <v>83500</v>
+        <v>81400</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>147000</v>
+        <v>143400</v>
       </c>
       <c r="E9" s="3">
-        <v>69200</v>
+        <v>67500</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>55800</v>
+        <v>54400</v>
       </c>
       <c r="E10" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>60300</v>
+        <v>58800</v>
       </c>
       <c r="E12" s="3">
-        <v>72200</v>
+        <v>70400</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -887,10 +887,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>18100</v>
+        <v>17700</v>
       </c>
       <c r="E15" s="3">
-        <v>12800</v>
+        <v>12500</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>362700</v>
+        <v>353800</v>
       </c>
       <c r="E17" s="3">
-        <v>211200</v>
+        <v>206100</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-159900</v>
+        <v>-156000</v>
       </c>
       <c r="E18" s="3">
-        <v>-127700</v>
+        <v>-124600</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -991,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16000</v>
+        <v>15600</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-93200</v>
+        <v>-91000</v>
       </c>
       <c r="E21" s="3">
-        <v>-86600</v>
+        <v>-84600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23100</v>
+        <v>22500</v>
       </c>
       <c r="E22" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-167000</v>
+        <v>-162900</v>
       </c>
       <c r="E23" s="3">
-        <v>-140100</v>
+        <v>-136700</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1099,10 +1099,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E24" s="3">
-        <v>-53000</v>
+        <v>-51700</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-170800</v>
+        <v>-166600</v>
       </c>
       <c r="E26" s="3">
-        <v>-87100</v>
+        <v>-84900</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-171600</v>
+        <v>-167400</v>
       </c>
       <c r="E27" s="3">
-        <v>-87100</v>
+        <v>-84900</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1315,7 +1315,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16000</v>
+        <v>-15600</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-171600</v>
+        <v>-167400</v>
       </c>
       <c r="E33" s="3">
-        <v>-87100</v>
+        <v>-84900</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-171600</v>
+        <v>-167400</v>
       </c>
       <c r="E35" s="3">
-        <v>-87100</v>
+        <v>-84900</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>81100</v>
+        <v>79200</v>
       </c>
       <c r="E41" s="3">
-        <v>121600</v>
+        <v>118800</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1508,10 +1508,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>364600</v>
+        <v>356100</v>
       </c>
       <c r="E42" s="3">
-        <v>123900</v>
+        <v>121000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>87000</v>
+        <v>85000</v>
       </c>
       <c r="E43" s="3">
-        <v>37100</v>
+        <v>36200</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>594900</v>
+        <v>581100</v>
       </c>
       <c r="E45" s="3">
-        <v>13700</v>
+        <v>13400</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1127600</v>
+        <v>1101500</v>
       </c>
       <c r="E46" s="3">
-        <v>296300</v>
+        <v>289400</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1643,10 +1643,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14000</v>
+        <v>13700</v>
       </c>
       <c r="E47" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>45900</v>
+        <v>44800</v>
       </c>
       <c r="E48" s="3">
-        <v>23100</v>
+        <v>22600</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>108800</v>
+        <v>106300</v>
       </c>
       <c r="E49" s="3">
-        <v>52700</v>
+        <v>51400</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1778,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>50000</v>
+        <v>48900</v>
       </c>
       <c r="E52" s="3">
-        <v>53100</v>
+        <v>51900</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1346200</v>
+        <v>1315100</v>
       </c>
       <c r="E54" s="3">
-        <v>432700</v>
+        <v>422700</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45400</v>
+        <v>44400</v>
       </c>
       <c r="E57" s="3">
-        <v>29900</v>
+        <v>29200</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>485800</v>
+        <v>474600</v>
       </c>
       <c r="E58" s="3">
-        <v>215500</v>
+        <v>210600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>203700</v>
+        <v>199000</v>
       </c>
       <c r="E59" s="3">
-        <v>165100</v>
+        <v>161300</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>735000</v>
+        <v>718000</v>
       </c>
       <c r="E60" s="3">
-        <v>410600</v>
+        <v>401100</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61600</v>
+        <v>60100</v>
       </c>
       <c r="E62" s="3">
-        <v>27100</v>
+        <v>26500</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>812400</v>
+        <v>793600</v>
       </c>
       <c r="E66" s="3">
-        <v>437700</v>
+        <v>427500</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>533800</v>
+        <v>521500</v>
       </c>
       <c r="E72" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>533800</v>
+        <v>521500</v>
       </c>
       <c r="E76" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-171600</v>
+        <v>-167400</v>
       </c>
       <c r="E81" s="3">
-        <v>-87100</v>
+        <v>-84900</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,10 +2510,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50800</v>
+        <v>49500</v>
       </c>
       <c r="E83" s="3">
-        <v>41300</v>
+        <v>40200</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-70200</v>
+        <v>-68500</v>
       </c>
       <c r="E89" s="3">
-        <v>-32800</v>
+        <v>-32000</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12200</v>
+        <v>-11900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-833000</v>
+        <v>-812500</v>
       </c>
       <c r="E94" s="3">
-        <v>-18200</v>
+        <v>-17800</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>860800</v>
+        <v>839700</v>
       </c>
       <c r="E100" s="3">
-        <v>161400</v>
+        <v>157500</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-40600</v>
+        <v>-39600</v>
       </c>
       <c r="E102" s="3">
-        <v>110400</v>
+        <v>107700</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>OCFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,34 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,20 +705,23 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>197800</v>
+        <v>338100</v>
       </c>
       <c r="E8" s="3">
-        <v>81400</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>205300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>84500</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -732,20 +735,23 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>143400</v>
+        <v>226700</v>
       </c>
       <c r="E9" s="3">
-        <v>67500</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>148800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>70100</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -759,20 +765,23 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>54400</v>
+        <v>111400</v>
       </c>
       <c r="E10" s="3">
-        <v>13900</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>56400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>14400</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,19 +812,20 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>58800</v>
+        <v>134100</v>
       </c>
       <c r="E12" s="3">
-        <v>70400</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+        <v>61000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>73100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,47 +869,53 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>17700</v>
+        <v>21600</v>
       </c>
       <c r="E15" s="3">
-        <v>12500</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+        <v>18300</v>
+      </c>
+      <c r="F15" s="3">
+        <v>13000</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,19 +943,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>353800</v>
+        <v>585100</v>
       </c>
       <c r="E17" s="3">
-        <v>206100</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>367100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>213800</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -944,20 +970,23 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-156000</v>
+        <v>-247000</v>
       </c>
       <c r="E18" s="3">
-        <v>-124600</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-161800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-129300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,20 +1017,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15600</v>
+        <v>16200</v>
       </c>
       <c r="E20" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,20 +1044,23 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-91000</v>
+        <v>-164300</v>
       </c>
       <c r="E21" s="3">
-        <v>-84600</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-94500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-87800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1038,20 +1074,23 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22500</v>
+        <v>25100</v>
       </c>
       <c r="E22" s="3">
-        <v>12000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+        <v>23300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>12400</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1065,20 +1104,23 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-162900</v>
+        <v>-256000</v>
       </c>
       <c r="E23" s="3">
-        <v>-136700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>-169000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-141800</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1092,20 +1134,23 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3700</v>
+        <v>-10900</v>
       </c>
       <c r="E24" s="3">
-        <v>-51700</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-53700</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,20 +1194,23 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-166600</v>
+        <v>-245100</v>
       </c>
       <c r="E26" s="3">
-        <v>-84900</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-172900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-88100</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1173,20 +1224,23 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-167400</v>
+        <v>-241200</v>
       </c>
       <c r="E27" s="3">
-        <v>-84900</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-173700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-88100</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,21 +1374,24 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15600</v>
+        <v>-16200</v>
       </c>
       <c r="E32" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,20 +1404,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-167400</v>
+        <v>-241200</v>
       </c>
       <c r="E33" s="3">
-        <v>-84900</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-173700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-88100</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,20 +1464,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-167400</v>
+        <v>-241200</v>
       </c>
       <c r="E35" s="3">
-        <v>-84900</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-173700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-88100</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1416,26 +1494,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,19 +1560,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>79200</v>
+        <v>156500</v>
       </c>
       <c r="E41" s="3">
-        <v>118800</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>82100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>123100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1501,20 +1587,23 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>356100</v>
+        <v>245600</v>
       </c>
       <c r="E42" s="3">
-        <v>121000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>369000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>125400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1528,20 +1617,23 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>85000</v>
+        <v>166200</v>
       </c>
       <c r="E43" s="3">
-        <v>36200</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>88100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>37500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,20 +1677,23 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>581100</v>
+        <v>543900</v>
       </c>
       <c r="E45" s="3">
-        <v>13400</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>602200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>13900</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,20 +1707,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1101500</v>
+        <v>1112300</v>
       </c>
       <c r="E46" s="3">
-        <v>289400</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>1141300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>299900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1636,20 +1737,23 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13700</v>
+        <v>80400</v>
       </c>
       <c r="E47" s="3">
-        <v>7400</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>14200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>7600</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1663,20 +1767,23 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>44800</v>
+        <v>45700</v>
       </c>
       <c r="E48" s="3">
-        <v>22600</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>46400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>23400</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1690,20 +1797,23 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>106300</v>
+        <v>141900</v>
       </c>
       <c r="E49" s="3">
-        <v>51400</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>110100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>53300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,20 +1887,23 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>48900</v>
+        <v>61500</v>
       </c>
       <c r="E52" s="3">
-        <v>51900</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>50600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>53700</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1315100</v>
+        <v>1441700</v>
       </c>
       <c r="E54" s="3">
-        <v>422700</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>1362600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>437900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,19 +2008,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44400</v>
+        <v>50400</v>
       </c>
       <c r="E57" s="3">
-        <v>29200</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>46000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>30300</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1905,20 +2035,23 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>474600</v>
+        <v>482200</v>
       </c>
       <c r="E58" s="3">
-        <v>210600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>491800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>218200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1932,20 +2065,23 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>199000</v>
+        <v>184800</v>
       </c>
       <c r="E59" s="3">
-        <v>161300</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>206200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>167100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1959,20 +2095,23 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>718000</v>
+        <v>717400</v>
       </c>
       <c r="E60" s="3">
-        <v>401100</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>743900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>415600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1986,14 +2125,17 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2013,20 +2155,23 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>60100</v>
+        <v>55100</v>
       </c>
       <c r="E62" s="3">
-        <v>26500</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>62300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>27400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,20 +2275,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>793600</v>
+        <v>807100</v>
       </c>
       <c r="E66" s="3">
-        <v>427500</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>822300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>443000</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>521500</v>
+        <v>634700</v>
       </c>
       <c r="E72" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>540300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-5100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>521500</v>
+        <v>634700</v>
       </c>
       <c r="E76" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>540300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-5100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2619,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,20 +2654,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-167400</v>
+        <v>-241200</v>
       </c>
       <c r="E81" s="3">
-        <v>-84900</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-173700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-88100</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,19 +2701,20 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>49500</v>
+        <v>66800</v>
       </c>
       <c r="E83" s="3">
-        <v>40200</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+        <v>51400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>41800</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,20 +2878,23 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-68500</v>
+        <v>-263900</v>
       </c>
       <c r="E89" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-71100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-33200</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,19 +2925,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11900</v>
+        <v>-14200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+        <v>-12300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2300</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,20 +3012,23 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-812500</v>
+        <v>82900</v>
       </c>
       <c r="E94" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>-843100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-18400</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,20 +3176,23 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>839700</v>
+        <v>254800</v>
       </c>
       <c r="E100" s="3">
-        <v>157500</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>871300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>163400</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2961,20 +3206,23 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -2988,20 +3236,23 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-39600</v>
+        <v>74500</v>
       </c>
       <c r="E102" s="3">
-        <v>107700</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>-41100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>111800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>338100</v>
+        <v>354100</v>
       </c>
       <c r="E8" s="3">
-        <v>205300</v>
+        <v>215000</v>
       </c>
       <c r="F8" s="3">
-        <v>84500</v>
+        <v>88500</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>226700</v>
+        <v>237500</v>
       </c>
       <c r="E9" s="3">
-        <v>148800</v>
+        <v>155900</v>
       </c>
       <c r="F9" s="3">
-        <v>70100</v>
+        <v>73400</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>111400</v>
+        <v>116700</v>
       </c>
       <c r="E10" s="3">
-        <v>56400</v>
+        <v>59100</v>
       </c>
       <c r="F10" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>134100</v>
+        <v>140400</v>
       </c>
       <c r="E12" s="3">
-        <v>61000</v>
+        <v>63900</v>
       </c>
       <c r="F12" s="3">
-        <v>73100</v>
+        <v>76500</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -909,13 +909,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21600</v>
+        <v>22700</v>
       </c>
       <c r="E15" s="3">
-        <v>18300</v>
+        <v>19200</v>
       </c>
       <c r="F15" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>585100</v>
+        <v>612900</v>
       </c>
       <c r="E17" s="3">
-        <v>367100</v>
+        <v>384500</v>
       </c>
       <c r="F17" s="3">
-        <v>213800</v>
+        <v>224000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-247000</v>
+        <v>-258800</v>
       </c>
       <c r="E18" s="3">
-        <v>-161800</v>
+        <v>-169500</v>
       </c>
       <c r="F18" s="3">
-        <v>-129300</v>
+        <v>-135400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,10 +1024,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16200</v>
+        <v>16900</v>
       </c>
       <c r="E20" s="3">
-        <v>16200</v>
+        <v>16900</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-164300</v>
+        <v>-171900</v>
       </c>
       <c r="E21" s="3">
-        <v>-94500</v>
+        <v>-98700</v>
       </c>
       <c r="F21" s="3">
-        <v>-87800</v>
+        <v>-91800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25100</v>
+        <v>26300</v>
       </c>
       <c r="E22" s="3">
-        <v>23300</v>
+        <v>24400</v>
       </c>
       <c r="F22" s="3">
-        <v>12400</v>
+        <v>13000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-256000</v>
+        <v>-268100</v>
       </c>
       <c r="E23" s="3">
-        <v>-169000</v>
+        <v>-177000</v>
       </c>
       <c r="F23" s="3">
-        <v>-141800</v>
+        <v>-148600</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1144,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-10900</v>
+        <v>-11400</v>
       </c>
       <c r="E24" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="F24" s="3">
-        <v>-53700</v>
+        <v>-56200</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-245100</v>
+        <v>-256700</v>
       </c>
       <c r="E26" s="3">
-        <v>-172900</v>
+        <v>-181100</v>
       </c>
       <c r="F26" s="3">
-        <v>-88100</v>
+        <v>-92300</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-241200</v>
+        <v>-252600</v>
       </c>
       <c r="E27" s="3">
-        <v>-173700</v>
+        <v>-181900</v>
       </c>
       <c r="F27" s="3">
-        <v>-88100</v>
+        <v>-92300</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,10 +1384,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16200</v>
+        <v>-16900</v>
       </c>
       <c r="E32" s="3">
-        <v>-16200</v>
+        <v>-16900</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-241200</v>
+        <v>-252600</v>
       </c>
       <c r="E33" s="3">
-        <v>-173700</v>
+        <v>-181900</v>
       </c>
       <c r="F33" s="3">
-        <v>-88100</v>
+        <v>-92300</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-241200</v>
+        <v>-252600</v>
       </c>
       <c r="E35" s="3">
-        <v>-173700</v>
+        <v>-181900</v>
       </c>
       <c r="F35" s="3">
-        <v>-88100</v>
+        <v>-92300</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>156500</v>
+        <v>164000</v>
       </c>
       <c r="E41" s="3">
-        <v>82100</v>
+        <v>86000</v>
       </c>
       <c r="F41" s="3">
-        <v>123100</v>
+        <v>129000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>245600</v>
+        <v>257200</v>
       </c>
       <c r="E42" s="3">
-        <v>369000</v>
+        <v>386500</v>
       </c>
       <c r="F42" s="3">
-        <v>125400</v>
+        <v>131300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>166200</v>
+        <v>174100</v>
       </c>
       <c r="E43" s="3">
-        <v>88100</v>
+        <v>92200</v>
       </c>
       <c r="F43" s="3">
-        <v>37500</v>
+        <v>39300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>543900</v>
+        <v>569700</v>
       </c>
       <c r="E45" s="3">
-        <v>602200</v>
+        <v>630700</v>
       </c>
       <c r="F45" s="3">
-        <v>13900</v>
+        <v>14600</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1112300</v>
+        <v>1165100</v>
       </c>
       <c r="E46" s="3">
-        <v>1141300</v>
+        <v>1195500</v>
       </c>
       <c r="F46" s="3">
-        <v>299900</v>
+        <v>314100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>80400</v>
+        <v>84200</v>
       </c>
       <c r="E47" s="3">
-        <v>14200</v>
+        <v>14800</v>
       </c>
       <c r="F47" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>45700</v>
+        <v>47800</v>
       </c>
       <c r="E48" s="3">
-        <v>46400</v>
+        <v>48600</v>
       </c>
       <c r="F48" s="3">
-        <v>23400</v>
+        <v>24500</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>141900</v>
+        <v>148600</v>
       </c>
       <c r="E49" s="3">
-        <v>110100</v>
+        <v>115300</v>
       </c>
       <c r="F49" s="3">
-        <v>53300</v>
+        <v>55800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>61500</v>
+        <v>64500</v>
       </c>
       <c r="E52" s="3">
-        <v>50600</v>
+        <v>53000</v>
       </c>
       <c r="F52" s="3">
-        <v>53700</v>
+        <v>56300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1441700</v>
+        <v>1510100</v>
       </c>
       <c r="E54" s="3">
-        <v>1362600</v>
+        <v>1427300</v>
       </c>
       <c r="F54" s="3">
-        <v>437900</v>
+        <v>458700</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>50400</v>
+        <v>52800</v>
       </c>
       <c r="E57" s="3">
-        <v>46000</v>
+        <v>48100</v>
       </c>
       <c r="F57" s="3">
-        <v>30300</v>
+        <v>31700</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>482200</v>
+        <v>505100</v>
       </c>
       <c r="E58" s="3">
-        <v>491800</v>
+        <v>515100</v>
       </c>
       <c r="F58" s="3">
-        <v>218200</v>
+        <v>228500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>184800</v>
+        <v>193600</v>
       </c>
       <c r="E59" s="3">
-        <v>206200</v>
+        <v>216000</v>
       </c>
       <c r="F59" s="3">
-        <v>167100</v>
+        <v>175000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>717400</v>
+        <v>751500</v>
       </c>
       <c r="E60" s="3">
-        <v>743900</v>
+        <v>779200</v>
       </c>
       <c r="F60" s="3">
-        <v>415600</v>
+        <v>435300</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,7 +2135,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12800</v>
+        <v>13400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55100</v>
+        <v>57700</v>
       </c>
       <c r="E62" s="3">
-        <v>62300</v>
+        <v>65300</v>
       </c>
       <c r="F62" s="3">
-        <v>27400</v>
+        <v>28700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>807100</v>
+        <v>845400</v>
       </c>
       <c r="E66" s="3">
-        <v>822300</v>
+        <v>861300</v>
       </c>
       <c r="F66" s="3">
-        <v>443000</v>
+        <v>464000</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>634700</v>
+        <v>664800</v>
       </c>
       <c r="E72" s="3">
-        <v>540300</v>
+        <v>566000</v>
       </c>
       <c r="F72" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>634700</v>
+        <v>664800</v>
       </c>
       <c r="E76" s="3">
-        <v>540300</v>
+        <v>566000</v>
       </c>
       <c r="F76" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-241200</v>
+        <v>-252600</v>
       </c>
       <c r="E81" s="3">
-        <v>-173700</v>
+        <v>-181900</v>
       </c>
       <c r="F81" s="3">
-        <v>-88100</v>
+        <v>-92300</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>66800</v>
+        <v>70000</v>
       </c>
       <c r="E83" s="3">
-        <v>51400</v>
+        <v>53900</v>
       </c>
       <c r="F83" s="3">
-        <v>41800</v>
+        <v>43700</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-263900</v>
+        <v>-276500</v>
       </c>
       <c r="E89" s="3">
-        <v>-71100</v>
+        <v>-74400</v>
       </c>
       <c r="F89" s="3">
-        <v>-33200</v>
+        <v>-34800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14200</v>
+        <v>-14900</v>
       </c>
       <c r="E91" s="3">
-        <v>-12300</v>
+        <v>-12900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>82900</v>
+        <v>86800</v>
       </c>
       <c r="E94" s="3">
-        <v>-843100</v>
+        <v>-883100</v>
       </c>
       <c r="F94" s="3">
-        <v>-18400</v>
+        <v>-19300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>254800</v>
+        <v>266900</v>
       </c>
       <c r="E100" s="3">
-        <v>871300</v>
+        <v>912600</v>
       </c>
       <c r="F100" s="3">
-        <v>163400</v>
+        <v>171200</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3219,7 +3219,7 @@
         <v>700</v>
       </c>
       <c r="E101" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>74500</v>
+        <v>78000</v>
       </c>
       <c r="E102" s="3">
-        <v>-41100</v>
+        <v>-43000</v>
       </c>
       <c r="F102" s="3">
-        <v>111800</v>
+        <v>117100</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>354100</v>
+        <v>355600</v>
       </c>
       <c r="E8" s="3">
-        <v>215000</v>
+        <v>216000</v>
       </c>
       <c r="F8" s="3">
-        <v>88500</v>
+        <v>88900</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>237500</v>
+        <v>238500</v>
       </c>
       <c r="E9" s="3">
-        <v>155900</v>
+        <v>156600</v>
       </c>
       <c r="F9" s="3">
-        <v>73400</v>
+        <v>73700</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>116700</v>
+        <v>117200</v>
       </c>
       <c r="E10" s="3">
-        <v>59100</v>
+        <v>59400</v>
       </c>
       <c r="F10" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>140400</v>
+        <v>141000</v>
       </c>
       <c r="E12" s="3">
-        <v>63900</v>
+        <v>64200</v>
       </c>
       <c r="F12" s="3">
-        <v>76500</v>
+        <v>76900</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -909,13 +909,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="E15" s="3">
-        <v>19200</v>
+        <v>19300</v>
       </c>
       <c r="F15" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>612900</v>
+        <v>615500</v>
       </c>
       <c r="E17" s="3">
-        <v>384500</v>
+        <v>386200</v>
       </c>
       <c r="F17" s="3">
-        <v>224000</v>
+        <v>224900</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-258800</v>
+        <v>-259900</v>
       </c>
       <c r="E18" s="3">
-        <v>-169500</v>
+        <v>-170300</v>
       </c>
       <c r="F18" s="3">
-        <v>-135400</v>
+        <v>-136000</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,10 +1024,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="E20" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-171900</v>
+        <v>-172400</v>
       </c>
       <c r="E21" s="3">
-        <v>-98700</v>
+        <v>-99000</v>
       </c>
       <c r="F21" s="3">
-        <v>-91800</v>
+        <v>-92100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="E22" s="3">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="F22" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-268100</v>
+        <v>-269300</v>
       </c>
       <c r="E23" s="3">
-        <v>-177000</v>
+        <v>-177800</v>
       </c>
       <c r="F23" s="3">
-        <v>-148600</v>
+        <v>-149200</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>4000</v>
       </c>
       <c r="F24" s="3">
-        <v>-56200</v>
+        <v>-56500</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-256700</v>
+        <v>-257800</v>
       </c>
       <c r="E26" s="3">
-        <v>-181100</v>
+        <v>-181900</v>
       </c>
       <c r="F26" s="3">
-        <v>-92300</v>
+        <v>-92700</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-252600</v>
+        <v>-253700</v>
       </c>
       <c r="E27" s="3">
-        <v>-181900</v>
+        <v>-182700</v>
       </c>
       <c r="F27" s="3">
-        <v>-92300</v>
+        <v>-92700</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,10 +1384,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16900</v>
+        <v>-17000</v>
       </c>
       <c r="E32" s="3">
-        <v>-16900</v>
+        <v>-17000</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-252600</v>
+        <v>-253700</v>
       </c>
       <c r="E33" s="3">
-        <v>-181900</v>
+        <v>-182700</v>
       </c>
       <c r="F33" s="3">
-        <v>-92300</v>
+        <v>-92700</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-252600</v>
+        <v>-253700</v>
       </c>
       <c r="E35" s="3">
-        <v>-181900</v>
+        <v>-182700</v>
       </c>
       <c r="F35" s="3">
-        <v>-92300</v>
+        <v>-92700</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>164000</v>
+        <v>164700</v>
       </c>
       <c r="E41" s="3">
-        <v>86000</v>
+        <v>86300</v>
       </c>
       <c r="F41" s="3">
-        <v>129000</v>
+        <v>129500</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>257200</v>
+        <v>258300</v>
       </c>
       <c r="E42" s="3">
-        <v>386500</v>
+        <v>388200</v>
       </c>
       <c r="F42" s="3">
-        <v>131300</v>
+        <v>131900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>174100</v>
+        <v>174900</v>
       </c>
       <c r="E43" s="3">
-        <v>92200</v>
+        <v>92600</v>
       </c>
       <c r="F43" s="3">
-        <v>39300</v>
+        <v>39500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1687,10 +1687,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>569700</v>
+        <v>572200</v>
       </c>
       <c r="E45" s="3">
-        <v>630700</v>
+        <v>633500</v>
       </c>
       <c r="F45" s="3">
         <v>14600</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1165100</v>
+        <v>1170100</v>
       </c>
       <c r="E46" s="3">
-        <v>1195500</v>
+        <v>1200600</v>
       </c>
       <c r="F46" s="3">
-        <v>314100</v>
+        <v>315500</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,10 +1747,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>84200</v>
+        <v>84500</v>
       </c>
       <c r="E47" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="F47" s="3">
         <v>8000</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47800</v>
+        <v>48100</v>
       </c>
       <c r="E48" s="3">
-        <v>48600</v>
+        <v>48800</v>
       </c>
       <c r="F48" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>148600</v>
+        <v>149300</v>
       </c>
       <c r="E49" s="3">
-        <v>115300</v>
+        <v>115800</v>
       </c>
       <c r="F49" s="3">
-        <v>55800</v>
+        <v>56100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>64500</v>
+        <v>64700</v>
       </c>
       <c r="E52" s="3">
-        <v>53000</v>
+        <v>53300</v>
       </c>
       <c r="F52" s="3">
-        <v>56300</v>
+        <v>56500</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1510100</v>
+        <v>1516700</v>
       </c>
       <c r="E54" s="3">
-        <v>1427300</v>
+        <v>1433500</v>
       </c>
       <c r="F54" s="3">
-        <v>458700</v>
+        <v>460700</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>52800</v>
+        <v>53000</v>
       </c>
       <c r="E57" s="3">
-        <v>48100</v>
+        <v>48400</v>
       </c>
       <c r="F57" s="3">
-        <v>31700</v>
+        <v>31900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>505100</v>
+        <v>507300</v>
       </c>
       <c r="E58" s="3">
-        <v>515100</v>
+        <v>517300</v>
       </c>
       <c r="F58" s="3">
-        <v>228500</v>
+        <v>229500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>193600</v>
+        <v>194400</v>
       </c>
       <c r="E59" s="3">
-        <v>216000</v>
+        <v>216900</v>
       </c>
       <c r="F59" s="3">
-        <v>175000</v>
+        <v>175800</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>751500</v>
+        <v>754700</v>
       </c>
       <c r="E60" s="3">
-        <v>779200</v>
+        <v>782600</v>
       </c>
       <c r="F60" s="3">
-        <v>435300</v>
+        <v>437200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>57700</v>
+        <v>57900</v>
       </c>
       <c r="E62" s="3">
-        <v>65300</v>
+        <v>65600</v>
       </c>
       <c r="F62" s="3">
-        <v>28700</v>
+        <v>28900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>845400</v>
+        <v>849000</v>
       </c>
       <c r="E66" s="3">
-        <v>861300</v>
+        <v>865100</v>
       </c>
       <c r="F66" s="3">
-        <v>464000</v>
+        <v>466000</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,10 +2449,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>664800</v>
+        <v>667700</v>
       </c>
       <c r="E72" s="3">
-        <v>566000</v>
+        <v>568400</v>
       </c>
       <c r="F72" s="3">
         <v>-5300</v>
@@ -2569,10 +2569,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>664800</v>
+        <v>667700</v>
       </c>
       <c r="E76" s="3">
-        <v>566000</v>
+        <v>568400</v>
       </c>
       <c r="F76" s="3">
         <v>-5300</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-252600</v>
+        <v>-253700</v>
       </c>
       <c r="E81" s="3">
-        <v>-181900</v>
+        <v>-182700</v>
       </c>
       <c r="F81" s="3">
-        <v>-92300</v>
+        <v>-92700</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>70000</v>
+        <v>70300</v>
       </c>
       <c r="E83" s="3">
-        <v>53900</v>
+        <v>54100</v>
       </c>
       <c r="F83" s="3">
-        <v>43700</v>
+        <v>43900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-276500</v>
+        <v>-277700</v>
       </c>
       <c r="E89" s="3">
-        <v>-74400</v>
+        <v>-74700</v>
       </c>
       <c r="F89" s="3">
-        <v>-34800</v>
+        <v>-34900</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2935,7 +2935,7 @@
         <v>-14900</v>
       </c>
       <c r="E91" s="3">
-        <v>-12900</v>
+        <v>-13000</v>
       </c>
       <c r="F91" s="3">
         <v>-2400</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>86800</v>
+        <v>87200</v>
       </c>
       <c r="E94" s="3">
-        <v>-883100</v>
+        <v>-887000</v>
       </c>
       <c r="F94" s="3">
-        <v>-19300</v>
+        <v>-19400</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>266900</v>
+        <v>268100</v>
       </c>
       <c r="E100" s="3">
-        <v>912600</v>
+        <v>916600</v>
       </c>
       <c r="F100" s="3">
-        <v>171200</v>
+        <v>171900</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>78000</v>
+        <v>78400</v>
       </c>
       <c r="E102" s="3">
-        <v>-43000</v>
+        <v>-43200</v>
       </c>
       <c r="F102" s="3">
-        <v>117100</v>
+        <v>117600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,23 +708,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>355600</v>
+        <v>516800</v>
       </c>
       <c r="E8" s="3">
-        <v>216000</v>
+        <v>363200</v>
       </c>
       <c r="F8" s="3">
-        <v>88900</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>220500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>90800</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -738,23 +741,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>238500</v>
+        <v>322800</v>
       </c>
       <c r="E9" s="3">
-        <v>156600</v>
+        <v>243500</v>
       </c>
       <c r="F9" s="3">
-        <v>73700</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>159900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>75300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -768,23 +774,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>117200</v>
+        <v>194000</v>
       </c>
       <c r="E10" s="3">
-        <v>59400</v>
+        <v>119600</v>
       </c>
       <c r="F10" s="3">
-        <v>15200</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>60600</v>
+      </c>
+      <c r="G10" s="3">
+        <v>15500</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,22 +825,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>141000</v>
+        <v>176400</v>
       </c>
       <c r="E12" s="3">
-        <v>64200</v>
+        <v>144000</v>
       </c>
       <c r="F12" s="3">
-        <v>76900</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>65500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>78500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,17 +888,20 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>21000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -899,26 +918,29 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>22800</v>
+        <v>69300</v>
       </c>
       <c r="E15" s="3">
-        <v>19300</v>
+        <v>23200</v>
       </c>
       <c r="F15" s="3">
-        <v>13700</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+        <v>19700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>14000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>615500</v>
+        <v>746100</v>
       </c>
       <c r="E17" s="3">
-        <v>386200</v>
+        <v>628500</v>
       </c>
       <c r="F17" s="3">
-        <v>224900</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>394400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>229700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,23 +999,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-259900</v>
+        <v>-229400</v>
       </c>
       <c r="E18" s="3">
-        <v>-170300</v>
+        <v>-265400</v>
       </c>
       <c r="F18" s="3">
-        <v>-136000</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-173900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-138900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,23 +1050,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17000</v>
+        <v>10700</v>
       </c>
       <c r="E20" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="F20" s="3">
+        <v>17300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,23 +1080,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-172400</v>
+        <v>-153000</v>
       </c>
       <c r="E21" s="3">
-        <v>-99000</v>
+        <v>-176400</v>
       </c>
       <c r="F21" s="3">
-        <v>-92100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-101300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-94200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,23 +1113,26 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26400</v>
+        <v>23300</v>
       </c>
       <c r="E22" s="3">
-        <v>24500</v>
+        <v>26900</v>
       </c>
       <c r="F22" s="3">
-        <v>13100</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>25100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>13400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1107,23 +1146,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-269300</v>
+        <v>-242000</v>
       </c>
       <c r="E23" s="3">
-        <v>-177800</v>
+        <v>-275000</v>
       </c>
       <c r="F23" s="3">
-        <v>-149200</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-181600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-152400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1137,23 +1179,26 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-11400</v>
+        <v>-21400</v>
       </c>
       <c r="E24" s="3">
-        <v>4000</v>
+        <v>-11700</v>
       </c>
       <c r="F24" s="3">
-        <v>-56500</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>4100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-57700</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,23 +1245,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-257800</v>
+        <v>-220600</v>
       </c>
       <c r="E26" s="3">
-        <v>-181900</v>
+        <v>-263300</v>
       </c>
       <c r="F26" s="3">
-        <v>-92700</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-185700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-94700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1227,23 +1278,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-253700</v>
+        <v>-211200</v>
       </c>
       <c r="E27" s="3">
-        <v>-182700</v>
+        <v>-259100</v>
       </c>
       <c r="F27" s="3">
-        <v>-92700</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-186500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-94700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,24 +1443,27 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17000</v>
+        <v>-10700</v>
       </c>
       <c r="E32" s="3">
-        <v>-17000</v>
+        <v>-17400</v>
       </c>
       <c r="F32" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-253700</v>
+        <v>-211200</v>
       </c>
       <c r="E33" s="3">
-        <v>-182700</v>
+        <v>-259100</v>
       </c>
       <c r="F33" s="3">
-        <v>-92700</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-186500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-94700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-253700</v>
+        <v>-211200</v>
       </c>
       <c r="E35" s="3">
-        <v>-182700</v>
+        <v>-259100</v>
       </c>
       <c r="F35" s="3">
-        <v>-92700</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-186500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-94700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>164700</v>
+        <v>476600</v>
       </c>
       <c r="E41" s="3">
-        <v>86300</v>
+        <v>168200</v>
       </c>
       <c r="F41" s="3">
-        <v>129500</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>88100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>132300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,23 +1676,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>258300</v>
+        <v>322000</v>
       </c>
       <c r="E42" s="3">
-        <v>388200</v>
+        <v>263800</v>
       </c>
       <c r="F42" s="3">
-        <v>131900</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>396400</v>
+      </c>
+      <c r="G42" s="3">
+        <v>134700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>174900</v>
+        <v>189400</v>
       </c>
       <c r="E43" s="3">
-        <v>92600</v>
+        <v>178600</v>
       </c>
       <c r="F43" s="3">
-        <v>39500</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>94600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>40300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,23 +1775,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>572200</v>
+        <v>406600</v>
       </c>
       <c r="E45" s="3">
-        <v>633500</v>
+        <v>584300</v>
       </c>
       <c r="F45" s="3">
-        <v>14600</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>646900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>14900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1170100</v>
+        <v>1394700</v>
       </c>
       <c r="E46" s="3">
-        <v>1200600</v>
+        <v>1194900</v>
       </c>
       <c r="F46" s="3">
-        <v>315500</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>1226000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>322200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,23 +1841,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>84500</v>
+        <v>37400</v>
       </c>
       <c r="E47" s="3">
-        <v>14900</v>
+        <v>86300</v>
       </c>
       <c r="F47" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>15200</v>
+      </c>
+      <c r="G47" s="3">
+        <v>8200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1770,23 +1874,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>48100</v>
+        <v>35000</v>
       </c>
       <c r="E48" s="3">
-        <v>48800</v>
+        <v>49100</v>
       </c>
       <c r="F48" s="3">
-        <v>24600</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>49900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>25100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,23 +1907,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>149300</v>
+        <v>143100</v>
       </c>
       <c r="E49" s="3">
-        <v>115800</v>
+        <v>152400</v>
       </c>
       <c r="F49" s="3">
-        <v>56100</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>118300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>57300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,23 +2006,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>64700</v>
+        <v>88100</v>
       </c>
       <c r="E52" s="3">
-        <v>53300</v>
+        <v>66100</v>
       </c>
       <c r="F52" s="3">
-        <v>56500</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>54400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>57700</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1516700</v>
+        <v>1698200</v>
       </c>
       <c r="E54" s="3">
-        <v>1433500</v>
+        <v>1548800</v>
       </c>
       <c r="F54" s="3">
-        <v>460700</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>1463800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>470500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,22 +2138,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>53000</v>
+        <v>143600</v>
       </c>
       <c r="E57" s="3">
-        <v>48400</v>
+        <v>54100</v>
       </c>
       <c r="F57" s="3">
-        <v>31900</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>49400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>32500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2038,23 +2168,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>507300</v>
+        <v>369700</v>
       </c>
       <c r="E58" s="3">
-        <v>517300</v>
+        <v>518000</v>
       </c>
       <c r="F58" s="3">
-        <v>229500</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>528300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>234400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2068,23 +2201,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>194400</v>
+        <v>292800</v>
       </c>
       <c r="E59" s="3">
-        <v>216900</v>
+        <v>198500</v>
       </c>
       <c r="F59" s="3">
-        <v>175800</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>221500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>179500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>754700</v>
+        <v>806100</v>
       </c>
       <c r="E60" s="3">
-        <v>782600</v>
+        <v>770700</v>
       </c>
       <c r="F60" s="3">
-        <v>437200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>799100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>446400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,17 +2267,20 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13400</v>
+        <v>7500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>13700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2158,23 +2300,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>57900</v>
+        <v>60100</v>
       </c>
       <c r="E62" s="3">
-        <v>65600</v>
+        <v>59100</v>
       </c>
       <c r="F62" s="3">
-        <v>28900</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>66900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>29500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>849000</v>
+        <v>887700</v>
       </c>
       <c r="E66" s="3">
-        <v>865100</v>
+        <v>867000</v>
       </c>
       <c r="F66" s="3">
-        <v>466000</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>883300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>475900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>667700</v>
+        <v>810500</v>
       </c>
       <c r="E72" s="3">
-        <v>568400</v>
+        <v>681800</v>
       </c>
       <c r="F72" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>580400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-5500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>667700</v>
+        <v>810500</v>
       </c>
       <c r="E76" s="3">
-        <v>568400</v>
+        <v>681800</v>
       </c>
       <c r="F76" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>580400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-5400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-253700</v>
+        <v>-211200</v>
       </c>
       <c r="E81" s="3">
-        <v>-182700</v>
+        <v>-259100</v>
       </c>
       <c r="F81" s="3">
-        <v>-92700</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-186500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-94700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,22 +2899,23 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>70300</v>
+        <v>65700</v>
       </c>
       <c r="E83" s="3">
-        <v>54100</v>
+        <v>71700</v>
       </c>
       <c r="F83" s="3">
-        <v>43900</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>55200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>44900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-277700</v>
+        <v>-109900</v>
       </c>
       <c r="E89" s="3">
-        <v>-74700</v>
+        <v>-283500</v>
       </c>
       <c r="F89" s="3">
-        <v>-34900</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-76300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-35700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,22 +3145,23 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14900</v>
+        <v>-2700</v>
       </c>
       <c r="E91" s="3">
-        <v>-13000</v>
+        <v>-15300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-13200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-2500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,23 +3241,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>87200</v>
+        <v>205300</v>
       </c>
       <c r="E94" s="3">
-        <v>-887000</v>
+        <v>89100</v>
       </c>
       <c r="F94" s="3">
-        <v>-19400</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-905700</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-19800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,23 +3421,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>268100</v>
+        <v>239300</v>
       </c>
       <c r="E100" s="3">
-        <v>916600</v>
+        <v>273700</v>
       </c>
       <c r="F100" s="3">
-        <v>171900</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>936000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>175500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3209,23 +3454,26 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>700</v>
+        <v>-26200</v>
       </c>
       <c r="E101" s="3">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+        <v>2000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3239,23 +3487,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>78400</v>
+        <v>308500</v>
       </c>
       <c r="E102" s="3">
-        <v>-43200</v>
+        <v>80000</v>
       </c>
       <c r="F102" s="3">
-        <v>117600</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>-44100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>120100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>516800</v>
+        <v>510000</v>
       </c>
       <c r="E8" s="3">
-        <v>363200</v>
+        <v>358400</v>
       </c>
       <c r="F8" s="3">
-        <v>220500</v>
+        <v>217600</v>
       </c>
       <c r="G8" s="3">
-        <v>90800</v>
+        <v>89600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>322800</v>
+        <v>318600</v>
       </c>
       <c r="E9" s="3">
-        <v>243500</v>
+        <v>240400</v>
       </c>
       <c r="F9" s="3">
-        <v>159900</v>
+        <v>157800</v>
       </c>
       <c r="G9" s="3">
-        <v>75300</v>
+        <v>74300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>194000</v>
+        <v>191500</v>
       </c>
       <c r="E10" s="3">
-        <v>119600</v>
+        <v>118100</v>
       </c>
       <c r="F10" s="3">
-        <v>60600</v>
+        <v>59800</v>
       </c>
       <c r="G10" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>176400</v>
+        <v>174100</v>
       </c>
       <c r="E12" s="3">
-        <v>144000</v>
+        <v>142100</v>
       </c>
       <c r="F12" s="3">
-        <v>65500</v>
+        <v>64700</v>
       </c>
       <c r="G12" s="3">
-        <v>78500</v>
+        <v>77500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>21000</v>
+        <v>20700</v>
       </c>
       <c r="E14" s="3">
         <v>7000</v>
@@ -931,16 +931,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>69300</v>
+        <v>68400</v>
       </c>
       <c r="E15" s="3">
-        <v>23200</v>
+        <v>22900</v>
       </c>
       <c r="F15" s="3">
-        <v>19700</v>
+        <v>19400</v>
       </c>
       <c r="G15" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>746100</v>
+        <v>736400</v>
       </c>
       <c r="E17" s="3">
-        <v>628500</v>
+        <v>620400</v>
       </c>
       <c r="F17" s="3">
-        <v>394400</v>
+        <v>389200</v>
       </c>
       <c r="G17" s="3">
-        <v>229700</v>
+        <v>226700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-229400</v>
+        <v>-226400</v>
       </c>
       <c r="E18" s="3">
-        <v>-265400</v>
+        <v>-261900</v>
       </c>
       <c r="F18" s="3">
-        <v>-173900</v>
+        <v>-171600</v>
       </c>
       <c r="G18" s="3">
-        <v>-138900</v>
+        <v>-137100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="E20" s="3">
-        <v>17400</v>
+        <v>17100</v>
       </c>
       <c r="F20" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-153000</v>
+        <v>-150900</v>
       </c>
       <c r="E21" s="3">
-        <v>-176400</v>
+        <v>-173900</v>
       </c>
       <c r="F21" s="3">
-        <v>-101300</v>
+        <v>-99900</v>
       </c>
       <c r="G21" s="3">
-        <v>-94200</v>
+        <v>-92900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23300</v>
+        <v>23000</v>
       </c>
       <c r="E22" s="3">
-        <v>26900</v>
+        <v>26600</v>
       </c>
       <c r="F22" s="3">
-        <v>25100</v>
+        <v>24700</v>
       </c>
       <c r="G22" s="3">
-        <v>13400</v>
+        <v>13200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-242000</v>
+        <v>-238900</v>
       </c>
       <c r="E23" s="3">
-        <v>-275000</v>
+        <v>-271400</v>
       </c>
       <c r="F23" s="3">
-        <v>-181600</v>
+        <v>-179200</v>
       </c>
       <c r="G23" s="3">
-        <v>-152400</v>
+        <v>-150400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-21400</v>
+        <v>-21100</v>
       </c>
       <c r="E24" s="3">
-        <v>-11700</v>
+        <v>-11500</v>
       </c>
       <c r="F24" s="3">
         <v>4100</v>
       </c>
       <c r="G24" s="3">
-        <v>-57700</v>
+        <v>-56900</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-220600</v>
+        <v>-217700</v>
       </c>
       <c r="E26" s="3">
-        <v>-263300</v>
+        <v>-259800</v>
       </c>
       <c r="F26" s="3">
-        <v>-185700</v>
+        <v>-183300</v>
       </c>
       <c r="G26" s="3">
-        <v>-94700</v>
+        <v>-93500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-211200</v>
+        <v>-208400</v>
       </c>
       <c r="E27" s="3">
-        <v>-259100</v>
+        <v>-255700</v>
       </c>
       <c r="F27" s="3">
-        <v>-186500</v>
+        <v>-184100</v>
       </c>
       <c r="G27" s="3">
-        <v>-94700</v>
+        <v>-93500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10700</v>
+        <v>-10600</v>
       </c>
       <c r="E32" s="3">
-        <v>-17400</v>
+        <v>-17100</v>
       </c>
       <c r="F32" s="3">
-        <v>-17300</v>
+        <v>-17100</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-211200</v>
+        <v>-208400</v>
       </c>
       <c r="E33" s="3">
-        <v>-259100</v>
+        <v>-255700</v>
       </c>
       <c r="F33" s="3">
-        <v>-186500</v>
+        <v>-184100</v>
       </c>
       <c r="G33" s="3">
-        <v>-94700</v>
+        <v>-93500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-211200</v>
+        <v>-208400</v>
       </c>
       <c r="E35" s="3">
-        <v>-259100</v>
+        <v>-255700</v>
       </c>
       <c r="F35" s="3">
-        <v>-186500</v>
+        <v>-184100</v>
       </c>
       <c r="G35" s="3">
-        <v>-94700</v>
+        <v>-93500</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>476600</v>
+        <v>470400</v>
       </c>
       <c r="E41" s="3">
-        <v>168200</v>
+        <v>166000</v>
       </c>
       <c r="F41" s="3">
-        <v>88100</v>
+        <v>87000</v>
       </c>
       <c r="G41" s="3">
-        <v>132300</v>
+        <v>130500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>322000</v>
+        <v>317800</v>
       </c>
       <c r="E42" s="3">
-        <v>263800</v>
+        <v>260400</v>
       </c>
       <c r="F42" s="3">
-        <v>396400</v>
+        <v>391300</v>
       </c>
       <c r="G42" s="3">
-        <v>134700</v>
+        <v>132900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>189400</v>
+        <v>187000</v>
       </c>
       <c r="E43" s="3">
-        <v>178600</v>
+        <v>176300</v>
       </c>
       <c r="F43" s="3">
-        <v>94600</v>
+        <v>93400</v>
       </c>
       <c r="G43" s="3">
-        <v>40300</v>
+        <v>39800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>406600</v>
+        <v>401300</v>
       </c>
       <c r="E45" s="3">
-        <v>584300</v>
+        <v>576700</v>
       </c>
       <c r="F45" s="3">
-        <v>646900</v>
+        <v>638400</v>
       </c>
       <c r="G45" s="3">
-        <v>14900</v>
+        <v>14700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1394700</v>
+        <v>1376500</v>
       </c>
       <c r="E46" s="3">
-        <v>1194900</v>
+        <v>1179300</v>
       </c>
       <c r="F46" s="3">
-        <v>1226000</v>
+        <v>1210100</v>
       </c>
       <c r="G46" s="3">
-        <v>322200</v>
+        <v>318000</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>37400</v>
+        <v>36900</v>
       </c>
       <c r="E47" s="3">
-        <v>86300</v>
+        <v>85200</v>
       </c>
       <c r="F47" s="3">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="G47" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35000</v>
+        <v>34500</v>
       </c>
       <c r="E48" s="3">
-        <v>49100</v>
+        <v>48400</v>
       </c>
       <c r="F48" s="3">
-        <v>49900</v>
+        <v>49200</v>
       </c>
       <c r="G48" s="3">
-        <v>25100</v>
+        <v>24800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>143100</v>
+        <v>141200</v>
       </c>
       <c r="E49" s="3">
-        <v>152400</v>
+        <v>150400</v>
       </c>
       <c r="F49" s="3">
-        <v>118300</v>
+        <v>116700</v>
       </c>
       <c r="G49" s="3">
-        <v>57300</v>
+        <v>56500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>88100</v>
+        <v>86900</v>
       </c>
       <c r="E52" s="3">
-        <v>66100</v>
+        <v>65300</v>
       </c>
       <c r="F52" s="3">
-        <v>54400</v>
+        <v>53700</v>
       </c>
       <c r="G52" s="3">
-        <v>57700</v>
+        <v>57000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1698200</v>
+        <v>1676100</v>
       </c>
       <c r="E54" s="3">
-        <v>1548800</v>
+        <v>1528600</v>
       </c>
       <c r="F54" s="3">
-        <v>1463800</v>
+        <v>1444700</v>
       </c>
       <c r="G54" s="3">
-        <v>470500</v>
+        <v>464300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>143600</v>
+        <v>141700</v>
       </c>
       <c r="E57" s="3">
-        <v>54100</v>
+        <v>53400</v>
       </c>
       <c r="F57" s="3">
-        <v>49400</v>
+        <v>48700</v>
       </c>
       <c r="G57" s="3">
-        <v>32500</v>
+        <v>32100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>369700</v>
+        <v>364800</v>
       </c>
       <c r="E58" s="3">
-        <v>518000</v>
+        <v>511300</v>
       </c>
       <c r="F58" s="3">
-        <v>528300</v>
+        <v>521400</v>
       </c>
       <c r="G58" s="3">
-        <v>234400</v>
+        <v>231300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>292800</v>
+        <v>289000</v>
       </c>
       <c r="E59" s="3">
-        <v>198500</v>
+        <v>195900</v>
       </c>
       <c r="F59" s="3">
-        <v>221500</v>
+        <v>218600</v>
       </c>
       <c r="G59" s="3">
-        <v>179500</v>
+        <v>177200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>806100</v>
+        <v>795600</v>
       </c>
       <c r="E60" s="3">
-        <v>770700</v>
+        <v>760600</v>
       </c>
       <c r="F60" s="3">
-        <v>799100</v>
+        <v>788700</v>
       </c>
       <c r="G60" s="3">
-        <v>446400</v>
+        <v>440600</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,10 +2277,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="E61" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>60100</v>
+        <v>59300</v>
       </c>
       <c r="E62" s="3">
-        <v>59100</v>
+        <v>58400</v>
       </c>
       <c r="F62" s="3">
-        <v>66900</v>
+        <v>66100</v>
       </c>
       <c r="G62" s="3">
-        <v>29500</v>
+        <v>29100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>887700</v>
+        <v>876100</v>
       </c>
       <c r="E66" s="3">
-        <v>867000</v>
+        <v>855700</v>
       </c>
       <c r="F66" s="3">
-        <v>883300</v>
+        <v>871900</v>
       </c>
       <c r="G66" s="3">
-        <v>475900</v>
+        <v>469700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>810500</v>
+        <v>800000</v>
       </c>
       <c r="E72" s="3">
-        <v>681800</v>
+        <v>672900</v>
       </c>
       <c r="F72" s="3">
-        <v>580400</v>
+        <v>572900</v>
       </c>
       <c r="G72" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,13 +2754,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>810500</v>
+        <v>800000</v>
       </c>
       <c r="E76" s="3">
-        <v>681800</v>
+        <v>672900</v>
       </c>
       <c r="F76" s="3">
-        <v>580400</v>
+        <v>572900</v>
       </c>
       <c r="G76" s="3">
         <v>-5400</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-211200</v>
+        <v>-208400</v>
       </c>
       <c r="E81" s="3">
-        <v>-259100</v>
+        <v>-255700</v>
       </c>
       <c r="F81" s="3">
-        <v>-186500</v>
+        <v>-184100</v>
       </c>
       <c r="G81" s="3">
-        <v>-94700</v>
+        <v>-93500</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>65700</v>
+        <v>64900</v>
       </c>
       <c r="E83" s="3">
-        <v>71700</v>
+        <v>70800</v>
       </c>
       <c r="F83" s="3">
-        <v>55200</v>
+        <v>54500</v>
       </c>
       <c r="G83" s="3">
-        <v>44900</v>
+        <v>44300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-109900</v>
+        <v>-108400</v>
       </c>
       <c r="E89" s="3">
-        <v>-283500</v>
+        <v>-279900</v>
       </c>
       <c r="F89" s="3">
-        <v>-76300</v>
+        <v>-75300</v>
       </c>
       <c r="G89" s="3">
-        <v>-35700</v>
+        <v>-35200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="E91" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="F91" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>205300</v>
+        <v>202600</v>
       </c>
       <c r="E94" s="3">
-        <v>89100</v>
+        <v>87900</v>
       </c>
       <c r="F94" s="3">
-        <v>-905700</v>
+        <v>-893900</v>
       </c>
       <c r="G94" s="3">
-        <v>-19800</v>
+        <v>-19500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>239300</v>
+        <v>236200</v>
       </c>
       <c r="E100" s="3">
-        <v>273700</v>
+        <v>270200</v>
       </c>
       <c r="F100" s="3">
-        <v>936000</v>
+        <v>923800</v>
       </c>
       <c r="G100" s="3">
-        <v>175500</v>
+        <v>173200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="E101" s="3">
         <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>308500</v>
+        <v>304500</v>
       </c>
       <c r="E102" s="3">
-        <v>80000</v>
+        <v>79000</v>
       </c>
       <c r="F102" s="3">
-        <v>-44100</v>
+        <v>-43500</v>
       </c>
       <c r="G102" s="3">
-        <v>120100</v>
+        <v>118500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>510000</v>
+        <v>518600</v>
       </c>
       <c r="E8" s="3">
-        <v>358400</v>
+        <v>364400</v>
       </c>
       <c r="F8" s="3">
-        <v>217600</v>
+        <v>221300</v>
       </c>
       <c r="G8" s="3">
-        <v>89600</v>
+        <v>91100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>318600</v>
+        <v>323900</v>
       </c>
       <c r="E9" s="3">
-        <v>240400</v>
+        <v>244400</v>
       </c>
       <c r="F9" s="3">
-        <v>157800</v>
+        <v>160500</v>
       </c>
       <c r="G9" s="3">
-        <v>74300</v>
+        <v>75500</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>191500</v>
+        <v>194700</v>
       </c>
       <c r="E10" s="3">
-        <v>118100</v>
+        <v>120100</v>
       </c>
       <c r="F10" s="3">
-        <v>59800</v>
+        <v>60800</v>
       </c>
       <c r="G10" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>174100</v>
+        <v>177000</v>
       </c>
       <c r="E12" s="3">
-        <v>142100</v>
+        <v>144500</v>
       </c>
       <c r="F12" s="3">
-        <v>64700</v>
+        <v>65800</v>
       </c>
       <c r="G12" s="3">
-        <v>77500</v>
+        <v>78800</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>20700</v>
+        <v>21100</v>
       </c>
       <c r="E14" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -931,16 +931,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>68400</v>
+        <v>69500</v>
       </c>
       <c r="E15" s="3">
-        <v>22900</v>
+        <v>23300</v>
       </c>
       <c r="F15" s="3">
-        <v>19400</v>
+        <v>19800</v>
       </c>
       <c r="G15" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>736400</v>
+        <v>748800</v>
       </c>
       <c r="E17" s="3">
-        <v>620400</v>
+        <v>630800</v>
       </c>
       <c r="F17" s="3">
-        <v>389200</v>
+        <v>395800</v>
       </c>
       <c r="G17" s="3">
-        <v>226700</v>
+        <v>230500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-226400</v>
+        <v>-230200</v>
       </c>
       <c r="E18" s="3">
-        <v>-261900</v>
+        <v>-266300</v>
       </c>
       <c r="F18" s="3">
-        <v>-171600</v>
+        <v>-174500</v>
       </c>
       <c r="G18" s="3">
-        <v>-137100</v>
+        <v>-139400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="E20" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="F20" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-150900</v>
+        <v>-153500</v>
       </c>
       <c r="E21" s="3">
-        <v>-173900</v>
+        <v>-177000</v>
       </c>
       <c r="F21" s="3">
-        <v>-99900</v>
+        <v>-101700</v>
       </c>
       <c r="G21" s="3">
-        <v>-92900</v>
+        <v>-94500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23000</v>
+        <v>23400</v>
       </c>
       <c r="E22" s="3">
-        <v>26600</v>
+        <v>27000</v>
       </c>
       <c r="F22" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="G22" s="3">
-        <v>13200</v>
+        <v>13400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-238900</v>
+        <v>-242900</v>
       </c>
       <c r="E23" s="3">
-        <v>-271400</v>
+        <v>-275900</v>
       </c>
       <c r="F23" s="3">
-        <v>-179200</v>
+        <v>-182200</v>
       </c>
       <c r="G23" s="3">
-        <v>-150400</v>
+        <v>-152900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-21100</v>
+        <v>-21500</v>
       </c>
       <c r="E24" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="F24" s="3">
         <v>4100</v>
       </c>
       <c r="G24" s="3">
-        <v>-56900</v>
+        <v>-57900</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-217700</v>
+        <v>-221400</v>
       </c>
       <c r="E26" s="3">
-        <v>-259800</v>
+        <v>-264200</v>
       </c>
       <c r="F26" s="3">
-        <v>-183300</v>
+        <v>-186400</v>
       </c>
       <c r="G26" s="3">
-        <v>-93500</v>
+        <v>-95000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-208400</v>
+        <v>-211900</v>
       </c>
       <c r="E27" s="3">
-        <v>-255700</v>
+        <v>-260000</v>
       </c>
       <c r="F27" s="3">
-        <v>-184100</v>
+        <v>-187200</v>
       </c>
       <c r="G27" s="3">
-        <v>-93500</v>
+        <v>-95000</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10600</v>
+        <v>-10800</v>
       </c>
       <c r="E32" s="3">
-        <v>-17100</v>
+        <v>-17400</v>
       </c>
       <c r="F32" s="3">
-        <v>-17100</v>
+        <v>-17400</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-208400</v>
+        <v>-211900</v>
       </c>
       <c r="E33" s="3">
-        <v>-255700</v>
+        <v>-260000</v>
       </c>
       <c r="F33" s="3">
-        <v>-184100</v>
+        <v>-187200</v>
       </c>
       <c r="G33" s="3">
-        <v>-93500</v>
+        <v>-95000</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-208400</v>
+        <v>-211900</v>
       </c>
       <c r="E35" s="3">
-        <v>-255700</v>
+        <v>-260000</v>
       </c>
       <c r="F35" s="3">
-        <v>-184100</v>
+        <v>-187200</v>
       </c>
       <c r="G35" s="3">
-        <v>-93500</v>
+        <v>-95000</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>470400</v>
+        <v>478300</v>
       </c>
       <c r="E41" s="3">
-        <v>166000</v>
+        <v>168800</v>
       </c>
       <c r="F41" s="3">
-        <v>87000</v>
+        <v>88500</v>
       </c>
       <c r="G41" s="3">
-        <v>130500</v>
+        <v>132700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>317800</v>
+        <v>323200</v>
       </c>
       <c r="E42" s="3">
-        <v>260400</v>
+        <v>264700</v>
       </c>
       <c r="F42" s="3">
-        <v>391300</v>
+        <v>397800</v>
       </c>
       <c r="G42" s="3">
-        <v>132900</v>
+        <v>135200</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>187000</v>
+        <v>190100</v>
       </c>
       <c r="E43" s="3">
-        <v>176300</v>
+        <v>179200</v>
       </c>
       <c r="F43" s="3">
-        <v>93400</v>
+        <v>94900</v>
       </c>
       <c r="G43" s="3">
-        <v>39800</v>
+        <v>40400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>401300</v>
+        <v>408000</v>
       </c>
       <c r="E45" s="3">
-        <v>576700</v>
+        <v>586400</v>
       </c>
       <c r="F45" s="3">
-        <v>638400</v>
+        <v>649100</v>
       </c>
       <c r="G45" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1376500</v>
+        <v>1399600</v>
       </c>
       <c r="E46" s="3">
-        <v>1179300</v>
+        <v>1199100</v>
       </c>
       <c r="F46" s="3">
-        <v>1210100</v>
+        <v>1230300</v>
       </c>
       <c r="G46" s="3">
-        <v>318000</v>
+        <v>323300</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36900</v>
+        <v>37500</v>
       </c>
       <c r="E47" s="3">
-        <v>85200</v>
+        <v>86600</v>
       </c>
       <c r="F47" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="G47" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34500</v>
+        <v>35100</v>
       </c>
       <c r="E48" s="3">
-        <v>48400</v>
+        <v>49200</v>
       </c>
       <c r="F48" s="3">
-        <v>49200</v>
+        <v>50000</v>
       </c>
       <c r="G48" s="3">
-        <v>24800</v>
+        <v>25200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>141200</v>
+        <v>143600</v>
       </c>
       <c r="E49" s="3">
-        <v>150400</v>
+        <v>153000</v>
       </c>
       <c r="F49" s="3">
-        <v>116700</v>
+        <v>118700</v>
       </c>
       <c r="G49" s="3">
-        <v>56500</v>
+        <v>57500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>86900</v>
+        <v>88400</v>
       </c>
       <c r="E52" s="3">
-        <v>65300</v>
+        <v>66300</v>
       </c>
       <c r="F52" s="3">
-        <v>53700</v>
+        <v>54600</v>
       </c>
       <c r="G52" s="3">
-        <v>57000</v>
+        <v>57900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1676100</v>
+        <v>1704200</v>
       </c>
       <c r="E54" s="3">
-        <v>1528600</v>
+        <v>1554200</v>
       </c>
       <c r="F54" s="3">
-        <v>1444700</v>
+        <v>1468900</v>
       </c>
       <c r="G54" s="3">
-        <v>464300</v>
+        <v>472100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>141700</v>
+        <v>144100</v>
       </c>
       <c r="E57" s="3">
-        <v>53400</v>
+        <v>54300</v>
       </c>
       <c r="F57" s="3">
-        <v>48700</v>
+        <v>49600</v>
       </c>
       <c r="G57" s="3">
-        <v>32100</v>
+        <v>32600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>364800</v>
+        <v>371000</v>
       </c>
       <c r="E58" s="3">
-        <v>511300</v>
+        <v>519900</v>
       </c>
       <c r="F58" s="3">
-        <v>521400</v>
+        <v>530100</v>
       </c>
       <c r="G58" s="3">
-        <v>231300</v>
+        <v>235200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>289000</v>
+        <v>293900</v>
       </c>
       <c r="E59" s="3">
-        <v>195900</v>
+        <v>199200</v>
       </c>
       <c r="F59" s="3">
-        <v>218600</v>
+        <v>222300</v>
       </c>
       <c r="G59" s="3">
-        <v>177200</v>
+        <v>180200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>795600</v>
+        <v>808900</v>
       </c>
       <c r="E60" s="3">
-        <v>760600</v>
+        <v>773400</v>
       </c>
       <c r="F60" s="3">
-        <v>788700</v>
+        <v>802000</v>
       </c>
       <c r="G60" s="3">
-        <v>440600</v>
+        <v>448000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,10 +2277,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="E61" s="3">
-        <v>13500</v>
+        <v>13700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E62" s="3">
         <v>59300</v>
       </c>
-      <c r="E62" s="3">
-        <v>58400</v>
-      </c>
       <c r="F62" s="3">
-        <v>66100</v>
+        <v>67200</v>
       </c>
       <c r="G62" s="3">
-        <v>29100</v>
+        <v>29600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>876100</v>
+        <v>890800</v>
       </c>
       <c r="E66" s="3">
-        <v>855700</v>
+        <v>870000</v>
       </c>
       <c r="F66" s="3">
-        <v>871900</v>
+        <v>886500</v>
       </c>
       <c r="G66" s="3">
-        <v>469700</v>
+        <v>477600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>800000</v>
+        <v>813400</v>
       </c>
       <c r="E72" s="3">
-        <v>672900</v>
+        <v>684200</v>
       </c>
       <c r="F72" s="3">
-        <v>572900</v>
+        <v>582500</v>
       </c>
       <c r="G72" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>800000</v>
+        <v>813400</v>
       </c>
       <c r="E76" s="3">
-        <v>672900</v>
+        <v>684200</v>
       </c>
       <c r="F76" s="3">
-        <v>572900</v>
+        <v>582500</v>
       </c>
       <c r="G76" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-208400</v>
+        <v>-211900</v>
       </c>
       <c r="E81" s="3">
-        <v>-255700</v>
+        <v>-260000</v>
       </c>
       <c r="F81" s="3">
-        <v>-184100</v>
+        <v>-187200</v>
       </c>
       <c r="G81" s="3">
-        <v>-93500</v>
+        <v>-95000</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>64900</v>
+        <v>65900</v>
       </c>
       <c r="E83" s="3">
-        <v>70800</v>
+        <v>72000</v>
       </c>
       <c r="F83" s="3">
-        <v>54500</v>
+        <v>55400</v>
       </c>
       <c r="G83" s="3">
-        <v>44300</v>
+        <v>45000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-108400</v>
+        <v>-110200</v>
       </c>
       <c r="E89" s="3">
-        <v>-279900</v>
+        <v>-284500</v>
       </c>
       <c r="F89" s="3">
-        <v>-75300</v>
+        <v>-76600</v>
       </c>
       <c r="G89" s="3">
-        <v>-35200</v>
+        <v>-35800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E91" s="3">
-        <v>-15100</v>
+        <v>-15300</v>
       </c>
       <c r="F91" s="3">
-        <v>-13100</v>
+        <v>-13300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>202600</v>
+        <v>206000</v>
       </c>
       <c r="E94" s="3">
-        <v>87900</v>
+        <v>89400</v>
       </c>
       <c r="F94" s="3">
-        <v>-893900</v>
+        <v>-908900</v>
       </c>
       <c r="G94" s="3">
-        <v>-19500</v>
+        <v>-19900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>236200</v>
+        <v>240100</v>
       </c>
       <c r="E100" s="3">
-        <v>270200</v>
+        <v>274700</v>
       </c>
       <c r="F100" s="3">
-        <v>923800</v>
+        <v>939300</v>
       </c>
       <c r="G100" s="3">
-        <v>173200</v>
+        <v>176200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-25900</v>
+        <v>-26300</v>
       </c>
       <c r="E101" s="3">
         <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>304500</v>
+        <v>309600</v>
       </c>
       <c r="E102" s="3">
-        <v>79000</v>
+        <v>80300</v>
       </c>
       <c r="F102" s="3">
-        <v>-43500</v>
+        <v>-44300</v>
       </c>
       <c r="G102" s="3">
-        <v>118500</v>
+        <v>120500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
   <si>
     <t>OCFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +711,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>518600</v>
+        <v>651900</v>
       </c>
       <c r="E8" s="3">
-        <v>364400</v>
+        <v>522500</v>
       </c>
       <c r="F8" s="3">
-        <v>221300</v>
+        <v>367200</v>
       </c>
       <c r="G8" s="3">
-        <v>91100</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>223000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>91800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -744,26 +747,29 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>323900</v>
+        <v>425300</v>
       </c>
       <c r="E9" s="3">
-        <v>244400</v>
+        <v>326400</v>
       </c>
       <c r="F9" s="3">
-        <v>160500</v>
+        <v>246300</v>
       </c>
       <c r="G9" s="3">
-        <v>75500</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>161700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>76100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -777,26 +783,29 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>194700</v>
+        <v>226600</v>
       </c>
       <c r="E10" s="3">
-        <v>120100</v>
+        <v>196200</v>
       </c>
       <c r="F10" s="3">
-        <v>60800</v>
+        <v>121000</v>
       </c>
       <c r="G10" s="3">
-        <v>15600</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>61300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>15700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,25 +838,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>177000</v>
+        <v>213500</v>
       </c>
       <c r="E12" s="3">
-        <v>144500</v>
+        <v>178400</v>
       </c>
       <c r="F12" s="3">
-        <v>65800</v>
+        <v>145600</v>
       </c>
       <c r="G12" s="3">
-        <v>78800</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>66300</v>
+      </c>
+      <c r="H12" s="3">
+        <v>79400</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,21 +907,24 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>21100</v>
+        <v>11400</v>
       </c>
       <c r="E14" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F14" s="3">
         <v>7100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -921,29 +940,32 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>69500</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>23300</v>
+        <v>70100</v>
       </c>
       <c r="F15" s="3">
-        <v>19800</v>
+        <v>23500</v>
       </c>
       <c r="G15" s="3">
-        <v>14000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+        <v>19900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>14100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,25 +995,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>748800</v>
+        <v>873500</v>
       </c>
       <c r="E17" s="3">
-        <v>630800</v>
+        <v>754500</v>
       </c>
       <c r="F17" s="3">
-        <v>395800</v>
+        <v>635600</v>
       </c>
       <c r="G17" s="3">
-        <v>230500</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>398800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>232300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,26 +1028,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-230200</v>
+        <v>-221600</v>
       </c>
       <c r="E18" s="3">
-        <v>-266300</v>
+        <v>-232000</v>
       </c>
       <c r="F18" s="3">
-        <v>-174500</v>
+        <v>-268400</v>
       </c>
       <c r="G18" s="3">
-        <v>-139400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-175800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-140500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,26 +1083,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>10800</v>
       </c>
-      <c r="E20" s="3">
-        <v>17400</v>
-      </c>
       <c r="F20" s="3">
-        <v>17400</v>
+        <v>17600</v>
       </c>
       <c r="G20" s="3">
+        <v>17500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,26 +1116,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-153500</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-177000</v>
+        <v>-154400</v>
       </c>
       <c r="F21" s="3">
-        <v>-101700</v>
+        <v>-178000</v>
       </c>
       <c r="G21" s="3">
-        <v>-94500</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-102200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-95100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1116,26 +1152,29 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>23400</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>27000</v>
+        <v>23600</v>
       </c>
       <c r="F22" s="3">
-        <v>25200</v>
+        <v>27200</v>
       </c>
       <c r="G22" s="3">
-        <v>13400</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>25300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>13500</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1149,26 +1188,29 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-242900</v>
+        <v>-227600</v>
       </c>
       <c r="E23" s="3">
-        <v>-275900</v>
+        <v>-244700</v>
       </c>
       <c r="F23" s="3">
-        <v>-182200</v>
+        <v>-278000</v>
       </c>
       <c r="G23" s="3">
-        <v>-152900</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-183600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-154100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1182,26 +1224,29 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-21500</v>
+        <v>-17700</v>
       </c>
       <c r="E24" s="3">
-        <v>-11700</v>
+        <v>-21600</v>
       </c>
       <c r="F24" s="3">
-        <v>4100</v>
+        <v>-11800</v>
       </c>
       <c r="G24" s="3">
-        <v>-57900</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>4200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-58300</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,26 +1296,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-221400</v>
+        <v>-209900</v>
       </c>
       <c r="E26" s="3">
-        <v>-264200</v>
+        <v>-223100</v>
       </c>
       <c r="F26" s="3">
-        <v>-186400</v>
+        <v>-266200</v>
       </c>
       <c r="G26" s="3">
-        <v>-95000</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-187800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-95800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1281,26 +1332,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-211900</v>
+        <v>-202200</v>
       </c>
       <c r="E27" s="3">
-        <v>-260000</v>
+        <v>-213500</v>
       </c>
       <c r="F27" s="3">
-        <v>-187200</v>
+        <v>-262000</v>
       </c>
       <c r="G27" s="3">
-        <v>-95000</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-188600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-95800</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,27 +1512,30 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10800</v>
       </c>
-      <c r="E32" s="3">
-        <v>-17400</v>
-      </c>
       <c r="F32" s="3">
-        <v>-17400</v>
+        <v>-17600</v>
       </c>
       <c r="G32" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,26 +1548,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-211900</v>
+        <v>-202200</v>
       </c>
       <c r="E33" s="3">
-        <v>-260000</v>
+        <v>-213500</v>
       </c>
       <c r="F33" s="3">
-        <v>-187200</v>
+        <v>-262000</v>
       </c>
       <c r="G33" s="3">
-        <v>-95000</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-188600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-95800</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,26 +1620,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-211900</v>
+        <v>-202200</v>
       </c>
       <c r="E35" s="3">
-        <v>-260000</v>
+        <v>-213500</v>
       </c>
       <c r="F35" s="3">
-        <v>-187200</v>
+        <v>-262000</v>
       </c>
       <c r="G35" s="3">
-        <v>-95000</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-188600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-95800</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>478300</v>
+        <v>220800</v>
       </c>
       <c r="E41" s="3">
-        <v>168800</v>
+        <v>482000</v>
       </c>
       <c r="F41" s="3">
-        <v>88500</v>
+        <v>170000</v>
       </c>
       <c r="G41" s="3">
-        <v>132700</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>89100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>133700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,26 +1765,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>323200</v>
+        <v>405500</v>
       </c>
       <c r="E42" s="3">
-        <v>264700</v>
+        <v>325600</v>
       </c>
       <c r="F42" s="3">
-        <v>397800</v>
+        <v>266800</v>
       </c>
       <c r="G42" s="3">
-        <v>135200</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>400900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>136200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1712,26 +1801,29 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>190100</v>
+        <v>176500</v>
       </c>
       <c r="E43" s="3">
-        <v>179200</v>
+        <v>191500</v>
       </c>
       <c r="F43" s="3">
-        <v>94900</v>
+        <v>180600</v>
       </c>
       <c r="G43" s="3">
-        <v>40400</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>95700</v>
+      </c>
+      <c r="H43" s="3">
+        <v>40700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,26 +1873,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>408000</v>
+        <v>285500</v>
       </c>
       <c r="E45" s="3">
-        <v>586400</v>
+        <v>411200</v>
       </c>
       <c r="F45" s="3">
-        <v>649100</v>
+        <v>590900</v>
       </c>
       <c r="G45" s="3">
-        <v>15000</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>654100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>15100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1399600</v>
+        <v>1088300</v>
       </c>
       <c r="E46" s="3">
-        <v>1199100</v>
+        <v>1410300</v>
       </c>
       <c r="F46" s="3">
-        <v>1230300</v>
+        <v>1208300</v>
       </c>
       <c r="G46" s="3">
-        <v>323300</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>1239800</v>
+      </c>
+      <c r="H46" s="3">
+        <v>325800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,26 +1945,29 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>37500</v>
+        <v>130500</v>
       </c>
       <c r="E47" s="3">
-        <v>86600</v>
+        <v>37800</v>
       </c>
       <c r="F47" s="3">
-        <v>15300</v>
+        <v>87300</v>
       </c>
       <c r="G47" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>15400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>8300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1877,26 +1981,29 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35100</v>
+        <v>38600</v>
       </c>
       <c r="E48" s="3">
-        <v>49200</v>
+        <v>35400</v>
       </c>
       <c r="F48" s="3">
-        <v>50000</v>
+        <v>49600</v>
       </c>
       <c r="G48" s="3">
-        <v>25200</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>50400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>25400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1910,26 +2017,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>143600</v>
+        <v>108400</v>
       </c>
       <c r="E49" s="3">
-        <v>153000</v>
+        <v>144700</v>
       </c>
       <c r="F49" s="3">
-        <v>118700</v>
+        <v>154100</v>
       </c>
       <c r="G49" s="3">
-        <v>57500</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>119600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>57900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,26 +2125,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>88400</v>
+        <v>107800</v>
       </c>
       <c r="E52" s="3">
-        <v>66300</v>
+        <v>89100</v>
       </c>
       <c r="F52" s="3">
-        <v>54600</v>
+        <v>66900</v>
       </c>
       <c r="G52" s="3">
-        <v>57900</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>55000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>58400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1704200</v>
+        <v>1473600</v>
       </c>
       <c r="E54" s="3">
-        <v>1554200</v>
+        <v>1717300</v>
       </c>
       <c r="F54" s="3">
-        <v>1468900</v>
+        <v>1566100</v>
       </c>
       <c r="G54" s="3">
-        <v>472100</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>1480200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>475700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,25 +2268,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>144100</v>
+        <v>337100</v>
       </c>
       <c r="E57" s="3">
-        <v>54300</v>
+        <v>145200</v>
       </c>
       <c r="F57" s="3">
-        <v>49600</v>
+        <v>54700</v>
       </c>
       <c r="G57" s="3">
-        <v>32600</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>49900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>32900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2171,26 +2301,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>371000</v>
+        <v>128600</v>
       </c>
       <c r="E58" s="3">
-        <v>519900</v>
+        <v>373800</v>
       </c>
       <c r="F58" s="3">
-        <v>530100</v>
+        <v>523800</v>
       </c>
       <c r="G58" s="3">
-        <v>235200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>534200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>237000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2204,26 +2337,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>293900</v>
+        <v>348700</v>
       </c>
       <c r="E59" s="3">
-        <v>199200</v>
+        <v>296100</v>
       </c>
       <c r="F59" s="3">
-        <v>222300</v>
+        <v>200700</v>
       </c>
       <c r="G59" s="3">
-        <v>180200</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>224000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>181500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>808900</v>
+        <v>814400</v>
       </c>
       <c r="E60" s="3">
-        <v>773400</v>
+        <v>815100</v>
       </c>
       <c r="F60" s="3">
-        <v>802000</v>
+        <v>779300</v>
       </c>
       <c r="G60" s="3">
-        <v>448000</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>808100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>451400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,20 +2409,23 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>13700</v>
+        <v>7600</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>13900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2303,26 +2445,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>60300</v>
+        <v>54100</v>
       </c>
       <c r="E62" s="3">
-        <v>59300</v>
+        <v>60800</v>
       </c>
       <c r="F62" s="3">
-        <v>67200</v>
+        <v>59800</v>
       </c>
       <c r="G62" s="3">
-        <v>29600</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>67700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>29800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>890800</v>
+        <v>875000</v>
       </c>
       <c r="E66" s="3">
-        <v>870000</v>
+        <v>897600</v>
       </c>
       <c r="F66" s="3">
-        <v>886500</v>
+        <v>876700</v>
       </c>
       <c r="G66" s="3">
-        <v>477600</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>893300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>481200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,27 +2785,30 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>813400</v>
+        <v>598500</v>
       </c>
       <c r="E72" s="3">
-        <v>684200</v>
+        <v>819600</v>
       </c>
       <c r="F72" s="3">
-        <v>582500</v>
+        <v>689400</v>
       </c>
       <c r="G72" s="3">
+        <v>586900</v>
+      </c>
+      <c r="H72" s="3">
         <v>-5500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,27 +2929,30 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>813400</v>
+        <v>598500</v>
       </c>
       <c r="E76" s="3">
-        <v>684200</v>
+        <v>819600</v>
       </c>
       <c r="F76" s="3">
-        <v>582500</v>
+        <v>689400</v>
       </c>
       <c r="G76" s="3">
+        <v>586900</v>
+      </c>
+      <c r="H76" s="3">
         <v>-5500</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,26 +3042,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-211900</v>
+        <v>-202200</v>
       </c>
       <c r="E81" s="3">
-        <v>-260000</v>
+        <v>-213500</v>
       </c>
       <c r="F81" s="3">
-        <v>-187200</v>
+        <v>-262000</v>
       </c>
       <c r="G81" s="3">
-        <v>-95000</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-188600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-95800</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,25 +3097,26 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>65900</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>72000</v>
+        <v>66500</v>
       </c>
       <c r="F83" s="3">
-        <v>55400</v>
+        <v>72500</v>
       </c>
       <c r="G83" s="3">
-        <v>45000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>55900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>45400</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-110200</v>
+        <v>-63800</v>
       </c>
       <c r="E89" s="3">
-        <v>-284500</v>
+        <v>-111100</v>
       </c>
       <c r="F89" s="3">
-        <v>-76600</v>
+        <v>-286700</v>
       </c>
       <c r="G89" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-77200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-36100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,26 +3365,27 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
-        <v>-15300</v>
-      </c>
       <c r="F91" s="3">
-        <v>-13300</v>
+        <v>-15400</v>
       </c>
       <c r="G91" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,26 +3470,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>206000</v>
+        <v>61300</v>
       </c>
       <c r="E94" s="3">
-        <v>89400</v>
+        <v>207600</v>
       </c>
       <c r="F94" s="3">
-        <v>-908900</v>
+        <v>90100</v>
       </c>
       <c r="G94" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-915900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-20000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,26 +3666,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>240100</v>
+        <v>-254300</v>
       </c>
       <c r="E100" s="3">
-        <v>274700</v>
+        <v>242000</v>
       </c>
       <c r="F100" s="3">
-        <v>939300</v>
+        <v>276800</v>
       </c>
       <c r="G100" s="3">
-        <v>176200</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>946500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>177500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3457,26 +3702,29 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26300</v>
+        <v>-4400</v>
       </c>
       <c r="E101" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3490,26 +3738,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>309600</v>
+        <v>-261200</v>
       </c>
       <c r="E102" s="3">
-        <v>80300</v>
+        <v>311900</v>
       </c>
       <c r="F102" s="3">
-        <v>-44300</v>
+        <v>80900</v>
       </c>
       <c r="G102" s="3">
-        <v>120500</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>-44600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>121400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>OCFT</t>
   </si>
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>651900</v>
+        <v>608900</v>
       </c>
       <c r="E8" s="3">
-        <v>522500</v>
+        <v>488100</v>
       </c>
       <c r="F8" s="3">
-        <v>367200</v>
+        <v>343000</v>
       </c>
       <c r="G8" s="3">
-        <v>223000</v>
+        <v>208300</v>
       </c>
       <c r="H8" s="3">
-        <v>91800</v>
+        <v>85800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>425300</v>
+        <v>397200</v>
       </c>
       <c r="E9" s="3">
-        <v>326400</v>
+        <v>304900</v>
       </c>
       <c r="F9" s="3">
-        <v>246300</v>
+        <v>230000</v>
       </c>
       <c r="G9" s="3">
-        <v>161700</v>
+        <v>151000</v>
       </c>
       <c r="H9" s="3">
-        <v>76100</v>
+        <v>71100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>226600</v>
+        <v>211700</v>
       </c>
       <c r="E10" s="3">
-        <v>196200</v>
+        <v>183200</v>
       </c>
       <c r="F10" s="3">
-        <v>121000</v>
+        <v>113000</v>
       </c>
       <c r="G10" s="3">
-        <v>61300</v>
+        <v>57300</v>
       </c>
       <c r="H10" s="3">
-        <v>15700</v>
+        <v>14600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>213500</v>
+        <v>196700</v>
       </c>
       <c r="E12" s="3">
-        <v>178400</v>
+        <v>166600</v>
       </c>
       <c r="F12" s="3">
-        <v>145600</v>
+        <v>136000</v>
       </c>
       <c r="G12" s="3">
-        <v>66300</v>
+        <v>61900</v>
       </c>
       <c r="H12" s="3">
-        <v>79400</v>
+        <v>74100</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -917,13 +917,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="E14" s="3">
-        <v>21200</v>
+        <v>19800</v>
       </c>
       <c r="F14" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -952,20 +952,20 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>20300</v>
       </c>
       <c r="E15" s="3">
-        <v>70100</v>
+        <v>65400</v>
       </c>
       <c r="F15" s="3">
-        <v>23500</v>
+        <v>21900</v>
       </c>
       <c r="G15" s="3">
-        <v>19900</v>
+        <v>18600</v>
       </c>
       <c r="H15" s="3">
-        <v>14100</v>
+        <v>13200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>873500</v>
+        <v>815900</v>
       </c>
       <c r="E17" s="3">
-        <v>754500</v>
+        <v>704800</v>
       </c>
       <c r="F17" s="3">
-        <v>635600</v>
+        <v>593700</v>
       </c>
       <c r="G17" s="3">
-        <v>398800</v>
+        <v>372500</v>
       </c>
       <c r="H17" s="3">
-        <v>232300</v>
+        <v>216900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-221600</v>
+        <v>-207000</v>
       </c>
       <c r="E18" s="3">
-        <v>-232000</v>
+        <v>-216700</v>
       </c>
       <c r="F18" s="3">
-        <v>-268400</v>
+        <v>-250700</v>
       </c>
       <c r="G18" s="3">
-        <v>-175800</v>
+        <v>-164200</v>
       </c>
       <c r="H18" s="3">
-        <v>-140500</v>
+        <v>-131200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6000</v>
+        <v>5400</v>
       </c>
       <c r="E20" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="F20" s="3">
-        <v>17600</v>
+        <v>16400</v>
       </c>
       <c r="G20" s="3">
-        <v>17500</v>
+        <v>16400</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1125,20 +1125,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-136300</v>
       </c>
       <c r="E21" s="3">
-        <v>-154400</v>
+        <v>-143800</v>
       </c>
       <c r="F21" s="3">
-        <v>-178000</v>
+        <v>-165800</v>
       </c>
       <c r="G21" s="3">
-        <v>-102200</v>
+        <v>-95100</v>
       </c>
       <c r="H21" s="3">
-        <v>-95100</v>
+        <v>-88500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1161,20 +1161,20 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>11000</v>
       </c>
       <c r="E22" s="3">
-        <v>23600</v>
+        <v>22100</v>
       </c>
       <c r="F22" s="3">
-        <v>27200</v>
+        <v>25400</v>
       </c>
       <c r="G22" s="3">
-        <v>25300</v>
+        <v>23700</v>
       </c>
       <c r="H22" s="3">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-227600</v>
+        <v>-212600</v>
       </c>
       <c r="E23" s="3">
-        <v>-244700</v>
+        <v>-228600</v>
       </c>
       <c r="F23" s="3">
-        <v>-278000</v>
+        <v>-259700</v>
       </c>
       <c r="G23" s="3">
-        <v>-183600</v>
+        <v>-171500</v>
       </c>
       <c r="H23" s="3">
-        <v>-154100</v>
+        <v>-143900</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-17700</v>
+        <v>-16500</v>
       </c>
       <c r="E24" s="3">
-        <v>-21600</v>
+        <v>-20200</v>
       </c>
       <c r="F24" s="3">
-        <v>-11800</v>
+        <v>-11000</v>
       </c>
       <c r="G24" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="H24" s="3">
-        <v>-58300</v>
+        <v>-54500</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-209900</v>
+        <v>-196100</v>
       </c>
       <c r="E26" s="3">
-        <v>-223100</v>
+        <v>-208400</v>
       </c>
       <c r="F26" s="3">
-        <v>-266200</v>
+        <v>-248700</v>
       </c>
       <c r="G26" s="3">
-        <v>-187800</v>
+        <v>-175400</v>
       </c>
       <c r="H26" s="3">
-        <v>-95800</v>
+        <v>-89400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-202200</v>
+        <v>-188900</v>
       </c>
       <c r="E27" s="3">
-        <v>-213500</v>
+        <v>-199500</v>
       </c>
       <c r="F27" s="3">
-        <v>-262000</v>
+        <v>-244700</v>
       </c>
       <c r="G27" s="3">
-        <v>-188600</v>
+        <v>-176200</v>
       </c>
       <c r="H27" s="3">
-        <v>-95800</v>
+        <v>-89400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6000</v>
+        <v>-5400</v>
       </c>
       <c r="E32" s="3">
-        <v>-10800</v>
+        <v>-10100</v>
       </c>
       <c r="F32" s="3">
-        <v>-17600</v>
+        <v>-16400</v>
       </c>
       <c r="G32" s="3">
-        <v>-17500</v>
+        <v>-16400</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-202200</v>
+        <v>-188900</v>
       </c>
       <c r="E33" s="3">
-        <v>-213500</v>
+        <v>-199500</v>
       </c>
       <c r="F33" s="3">
-        <v>-262000</v>
+        <v>-244700</v>
       </c>
       <c r="G33" s="3">
-        <v>-188600</v>
+        <v>-176200</v>
       </c>
       <c r="H33" s="3">
-        <v>-95800</v>
+        <v>-89400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-202200</v>
+        <v>-188900</v>
       </c>
       <c r="E35" s="3">
-        <v>-213500</v>
+        <v>-199500</v>
       </c>
       <c r="F35" s="3">
-        <v>-262000</v>
+        <v>-244700</v>
       </c>
       <c r="G35" s="3">
-        <v>-188600</v>
+        <v>-176200</v>
       </c>
       <c r="H35" s="3">
-        <v>-95800</v>
+        <v>-89400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>220800</v>
+        <v>206200</v>
       </c>
       <c r="E41" s="3">
-        <v>482000</v>
+        <v>450200</v>
       </c>
       <c r="F41" s="3">
-        <v>170000</v>
+        <v>158800</v>
       </c>
       <c r="G41" s="3">
-        <v>89100</v>
+        <v>83300</v>
       </c>
       <c r="H41" s="3">
-        <v>133700</v>
+        <v>124900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>405500</v>
+        <v>378300</v>
       </c>
       <c r="E42" s="3">
-        <v>325600</v>
+        <v>304200</v>
       </c>
       <c r="F42" s="3">
-        <v>266800</v>
+        <v>249200</v>
       </c>
       <c r="G42" s="3">
-        <v>400900</v>
+        <v>374400</v>
       </c>
       <c r="H42" s="3">
-        <v>136200</v>
+        <v>127200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>176500</v>
+        <v>173400</v>
       </c>
       <c r="E43" s="3">
-        <v>191500</v>
+        <v>178900</v>
       </c>
       <c r="F43" s="3">
-        <v>180600</v>
+        <v>168700</v>
       </c>
       <c r="G43" s="3">
-        <v>95700</v>
+        <v>89400</v>
       </c>
       <c r="H43" s="3">
-        <v>40700</v>
+        <v>38100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>285500</v>
+        <v>258700</v>
       </c>
       <c r="E45" s="3">
-        <v>411200</v>
+        <v>384100</v>
       </c>
       <c r="F45" s="3">
-        <v>590900</v>
+        <v>551900</v>
       </c>
       <c r="G45" s="3">
-        <v>654100</v>
+        <v>611000</v>
       </c>
       <c r="H45" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1088300</v>
+        <v>1016500</v>
       </c>
       <c r="E46" s="3">
-        <v>1410300</v>
+        <v>1317400</v>
       </c>
       <c r="F46" s="3">
-        <v>1208300</v>
+        <v>1128600</v>
       </c>
       <c r="G46" s="3">
-        <v>1239800</v>
+        <v>1158000</v>
       </c>
       <c r="H46" s="3">
-        <v>325800</v>
+        <v>304300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>130500</v>
+        <v>121900</v>
       </c>
       <c r="E47" s="3">
-        <v>37800</v>
+        <v>35300</v>
       </c>
       <c r="F47" s="3">
-        <v>87300</v>
+        <v>81500</v>
       </c>
       <c r="G47" s="3">
-        <v>15400</v>
+        <v>14400</v>
       </c>
       <c r="H47" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38600</v>
+        <v>36000</v>
       </c>
       <c r="E48" s="3">
-        <v>35400</v>
+        <v>33100</v>
       </c>
       <c r="F48" s="3">
-        <v>49600</v>
+        <v>46300</v>
       </c>
       <c r="G48" s="3">
-        <v>50400</v>
+        <v>47100</v>
       </c>
       <c r="H48" s="3">
-        <v>25400</v>
+        <v>23700</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>108400</v>
+        <v>101300</v>
       </c>
       <c r="E49" s="3">
-        <v>144700</v>
+        <v>135100</v>
       </c>
       <c r="F49" s="3">
-        <v>154100</v>
+        <v>144000</v>
       </c>
       <c r="G49" s="3">
-        <v>119600</v>
+        <v>111700</v>
       </c>
       <c r="H49" s="3">
-        <v>57900</v>
+        <v>54100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>107800</v>
+        <v>100700</v>
       </c>
       <c r="E52" s="3">
-        <v>89100</v>
+        <v>83200</v>
       </c>
       <c r="F52" s="3">
-        <v>66900</v>
+        <v>62400</v>
       </c>
       <c r="G52" s="3">
-        <v>55000</v>
+        <v>51400</v>
       </c>
       <c r="H52" s="3">
-        <v>58400</v>
+        <v>54500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1473600</v>
+        <v>1376400</v>
       </c>
       <c r="E54" s="3">
-        <v>1717300</v>
+        <v>1604100</v>
       </c>
       <c r="F54" s="3">
-        <v>1566100</v>
+        <v>1462900</v>
       </c>
       <c r="G54" s="3">
-        <v>1480200</v>
+        <v>1382600</v>
       </c>
       <c r="H54" s="3">
-        <v>475700</v>
+        <v>444400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>337100</v>
+        <v>162400</v>
       </c>
       <c r="E57" s="3">
-        <v>145200</v>
+        <v>135600</v>
       </c>
       <c r="F57" s="3">
-        <v>54700</v>
+        <v>51100</v>
       </c>
       <c r="G57" s="3">
-        <v>49900</v>
+        <v>46600</v>
       </c>
       <c r="H57" s="3">
-        <v>32900</v>
+        <v>30700</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2314,16 +2314,16 @@
         <v>128600</v>
       </c>
       <c r="E58" s="3">
-        <v>373800</v>
+        <v>349200</v>
       </c>
       <c r="F58" s="3">
-        <v>523800</v>
+        <v>489300</v>
       </c>
       <c r="G58" s="3">
-        <v>534200</v>
+        <v>499000</v>
       </c>
       <c r="H58" s="3">
-        <v>237000</v>
+        <v>221400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>348700</v>
+        <v>469800</v>
       </c>
       <c r="E59" s="3">
-        <v>296100</v>
+        <v>276600</v>
       </c>
       <c r="F59" s="3">
-        <v>200700</v>
+        <v>187500</v>
       </c>
       <c r="G59" s="3">
-        <v>224000</v>
+        <v>209200</v>
       </c>
       <c r="H59" s="3">
-        <v>181500</v>
+        <v>169600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>814400</v>
+        <v>760700</v>
       </c>
       <c r="E60" s="3">
-        <v>815100</v>
+        <v>761400</v>
       </c>
       <c r="F60" s="3">
-        <v>779300</v>
+        <v>727900</v>
       </c>
       <c r="G60" s="3">
-        <v>808100</v>
+        <v>754800</v>
       </c>
       <c r="H60" s="3">
-        <v>451400</v>
+        <v>421700</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,13 +2419,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>14400</v>
       </c>
       <c r="E61" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="F61" s="3">
-        <v>13900</v>
+        <v>12900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>54100</v>
+        <v>36200</v>
       </c>
       <c r="E62" s="3">
-        <v>60800</v>
+        <v>56800</v>
       </c>
       <c r="F62" s="3">
-        <v>59800</v>
+        <v>55900</v>
       </c>
       <c r="G62" s="3">
-        <v>67700</v>
+        <v>63200</v>
       </c>
       <c r="H62" s="3">
-        <v>29800</v>
+        <v>27800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>875000</v>
+        <v>817400</v>
       </c>
       <c r="E66" s="3">
-        <v>897600</v>
+        <v>838500</v>
       </c>
       <c r="F66" s="3">
-        <v>876700</v>
+        <v>818900</v>
       </c>
       <c r="G66" s="3">
-        <v>893300</v>
+        <v>834400</v>
       </c>
       <c r="H66" s="3">
-        <v>481200</v>
+        <v>449500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>598500</v>
+        <v>559100</v>
       </c>
       <c r="E72" s="3">
-        <v>819600</v>
+        <v>765600</v>
       </c>
       <c r="F72" s="3">
-        <v>689400</v>
+        <v>644000</v>
       </c>
       <c r="G72" s="3">
-        <v>586900</v>
+        <v>548200</v>
       </c>
       <c r="H72" s="3">
-        <v>-5500</v>
+        <v>-5100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>598500</v>
+        <v>559100</v>
       </c>
       <c r="E76" s="3">
-        <v>819600</v>
+        <v>765600</v>
       </c>
       <c r="F76" s="3">
-        <v>689400</v>
+        <v>644000</v>
       </c>
       <c r="G76" s="3">
-        <v>586900</v>
+        <v>548300</v>
       </c>
       <c r="H76" s="3">
-        <v>-5500</v>
+        <v>-5100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-202200</v>
+        <v>-188900</v>
       </c>
       <c r="E81" s="3">
-        <v>-213500</v>
+        <v>-199500</v>
       </c>
       <c r="F81" s="3">
-        <v>-262000</v>
+        <v>-244700</v>
       </c>
       <c r="G81" s="3">
-        <v>-188600</v>
+        <v>-176200</v>
       </c>
       <c r="H81" s="3">
-        <v>-95800</v>
+        <v>-89400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3103,20 +3103,20 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>64700</v>
       </c>
       <c r="E83" s="3">
-        <v>66500</v>
+        <v>62100</v>
       </c>
       <c r="F83" s="3">
-        <v>72500</v>
+        <v>67800</v>
       </c>
       <c r="G83" s="3">
-        <v>55900</v>
+        <v>52200</v>
       </c>
       <c r="H83" s="3">
-        <v>45400</v>
+        <v>42400</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-63800</v>
+        <v>-59600</v>
       </c>
       <c r="E89" s="3">
-        <v>-111100</v>
+        <v>-103800</v>
       </c>
       <c r="F89" s="3">
-        <v>-286700</v>
+        <v>-267800</v>
       </c>
       <c r="G89" s="3">
-        <v>-77200</v>
+        <v>-72100</v>
       </c>
       <c r="H89" s="3">
-        <v>-36100</v>
+        <v>-33700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3371,20 +3371,20 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-6700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="F91" s="3">
-        <v>-15400</v>
+        <v>-14400</v>
       </c>
       <c r="G91" s="3">
-        <v>-13400</v>
+        <v>-12500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>61300</v>
+        <v>57200</v>
       </c>
       <c r="E94" s="3">
-        <v>207600</v>
+        <v>193900</v>
       </c>
       <c r="F94" s="3">
-        <v>90100</v>
+        <v>84100</v>
       </c>
       <c r="G94" s="3">
-        <v>-915900</v>
+        <v>-855500</v>
       </c>
       <c r="H94" s="3">
-        <v>-20000</v>
+        <v>-18700</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-254300</v>
+        <v>-237500</v>
       </c>
       <c r="E100" s="3">
-        <v>242000</v>
+        <v>226000</v>
       </c>
       <c r="F100" s="3">
-        <v>276800</v>
+        <v>258600</v>
       </c>
       <c r="G100" s="3">
-        <v>946500</v>
+        <v>884100</v>
       </c>
       <c r="H100" s="3">
-        <v>177500</v>
+        <v>165800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="E101" s="3">
-        <v>-26500</v>
+        <v>-24800</v>
       </c>
       <c r="F101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G101" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-261200</v>
+        <v>-244000</v>
       </c>
       <c r="E102" s="3">
-        <v>311900</v>
+        <v>291400</v>
       </c>
       <c r="F102" s="3">
-        <v>80900</v>
+        <v>75600</v>
       </c>
       <c r="G102" s="3">
-        <v>-44600</v>
+        <v>-41700</v>
       </c>
       <c r="H102" s="3">
-        <v>121400</v>
+        <v>113400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>608900</v>
+        <v>603400</v>
       </c>
       <c r="E8" s="3">
-        <v>488100</v>
+        <v>483700</v>
       </c>
       <c r="F8" s="3">
-        <v>343000</v>
+        <v>339900</v>
       </c>
       <c r="G8" s="3">
-        <v>208300</v>
+        <v>206400</v>
       </c>
       <c r="H8" s="3">
-        <v>85800</v>
+        <v>85000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>397200</v>
+        <v>393700</v>
       </c>
       <c r="E9" s="3">
-        <v>304900</v>
+        <v>302100</v>
       </c>
       <c r="F9" s="3">
-        <v>230000</v>
+        <v>228000</v>
       </c>
       <c r="G9" s="3">
-        <v>151000</v>
+        <v>149700</v>
       </c>
       <c r="H9" s="3">
-        <v>71100</v>
+        <v>70500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>211700</v>
+        <v>209800</v>
       </c>
       <c r="E10" s="3">
-        <v>183200</v>
+        <v>181600</v>
       </c>
       <c r="F10" s="3">
-        <v>113000</v>
+        <v>112000</v>
       </c>
       <c r="G10" s="3">
-        <v>57300</v>
+        <v>56800</v>
       </c>
       <c r="H10" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>196700</v>
+        <v>194900</v>
       </c>
       <c r="E12" s="3">
-        <v>166600</v>
+        <v>165100</v>
       </c>
       <c r="F12" s="3">
-        <v>136000</v>
+        <v>134800</v>
       </c>
       <c r="G12" s="3">
-        <v>61900</v>
+        <v>61300</v>
       </c>
       <c r="H12" s="3">
-        <v>74100</v>
+        <v>73500</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -917,13 +917,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="E14" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="F14" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -953,19 +953,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E15" s="3">
-        <v>65400</v>
+        <v>64900</v>
       </c>
       <c r="F15" s="3">
-        <v>21900</v>
+        <v>21800</v>
       </c>
       <c r="G15" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="H15" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>815900</v>
+        <v>808600</v>
       </c>
       <c r="E17" s="3">
-        <v>704800</v>
+        <v>698400</v>
       </c>
       <c r="F17" s="3">
-        <v>593700</v>
+        <v>588300</v>
       </c>
       <c r="G17" s="3">
-        <v>372500</v>
+        <v>369100</v>
       </c>
       <c r="H17" s="3">
-        <v>216900</v>
+        <v>215000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-207000</v>
+        <v>-205100</v>
       </c>
       <c r="E18" s="3">
-        <v>-216700</v>
+        <v>-214700</v>
       </c>
       <c r="F18" s="3">
-        <v>-250700</v>
+        <v>-248400</v>
       </c>
       <c r="G18" s="3">
-        <v>-164200</v>
+        <v>-162700</v>
       </c>
       <c r="H18" s="3">
-        <v>-131200</v>
+        <v>-130000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1093,13 +1093,13 @@
         <v>5400</v>
       </c>
       <c r="E20" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="F20" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="G20" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-136300</v>
+        <v>-135800</v>
       </c>
       <c r="E21" s="3">
-        <v>-143800</v>
+        <v>-143300</v>
       </c>
       <c r="F21" s="3">
-        <v>-165800</v>
+        <v>-165100</v>
       </c>
       <c r="G21" s="3">
-        <v>-95100</v>
+        <v>-94900</v>
       </c>
       <c r="H21" s="3">
-        <v>-88500</v>
+        <v>-88200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,19 +1162,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="E22" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="F22" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="G22" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="H22" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-212600</v>
+        <v>-210700</v>
       </c>
       <c r="E23" s="3">
-        <v>-228600</v>
+        <v>-226500</v>
       </c>
       <c r="F23" s="3">
-        <v>-259700</v>
+        <v>-257400</v>
       </c>
       <c r="G23" s="3">
-        <v>-171500</v>
+        <v>-170000</v>
       </c>
       <c r="H23" s="3">
-        <v>-143900</v>
+        <v>-142600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-16500</v>
+        <v>-16400</v>
       </c>
       <c r="E24" s="3">
-        <v>-20200</v>
+        <v>-20000</v>
       </c>
       <c r="F24" s="3">
-        <v>-11000</v>
+        <v>-10900</v>
       </c>
       <c r="G24" s="3">
         <v>3900</v>
       </c>
       <c r="H24" s="3">
-        <v>-54500</v>
+        <v>-54000</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-196100</v>
+        <v>-194300</v>
       </c>
       <c r="E26" s="3">
-        <v>-208400</v>
+        <v>-206500</v>
       </c>
       <c r="F26" s="3">
-        <v>-248700</v>
+        <v>-246400</v>
       </c>
       <c r="G26" s="3">
-        <v>-175400</v>
+        <v>-173800</v>
       </c>
       <c r="H26" s="3">
-        <v>-89400</v>
+        <v>-88600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-188900</v>
+        <v>-187200</v>
       </c>
       <c r="E27" s="3">
-        <v>-199500</v>
+        <v>-197700</v>
       </c>
       <c r="F27" s="3">
-        <v>-244700</v>
+        <v>-242500</v>
       </c>
       <c r="G27" s="3">
-        <v>-176200</v>
+        <v>-174600</v>
       </c>
       <c r="H27" s="3">
-        <v>-89400</v>
+        <v>-88600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1525,13 +1525,13 @@
         <v>-5400</v>
       </c>
       <c r="E32" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="F32" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="G32" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-188900</v>
+        <v>-187200</v>
       </c>
       <c r="E33" s="3">
-        <v>-199500</v>
+        <v>-197700</v>
       </c>
       <c r="F33" s="3">
-        <v>-244700</v>
+        <v>-242500</v>
       </c>
       <c r="G33" s="3">
-        <v>-176200</v>
+        <v>-174600</v>
       </c>
       <c r="H33" s="3">
-        <v>-89400</v>
+        <v>-88600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-188900</v>
+        <v>-187200</v>
       </c>
       <c r="E35" s="3">
-        <v>-199500</v>
+        <v>-197700</v>
       </c>
       <c r="F35" s="3">
-        <v>-244700</v>
+        <v>-242500</v>
       </c>
       <c r="G35" s="3">
-        <v>-176200</v>
+        <v>-174600</v>
       </c>
       <c r="H35" s="3">
-        <v>-89400</v>
+        <v>-88600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>206200</v>
+        <v>204400</v>
       </c>
       <c r="E41" s="3">
-        <v>450200</v>
+        <v>446100</v>
       </c>
       <c r="F41" s="3">
-        <v>158800</v>
+        <v>157400</v>
       </c>
       <c r="G41" s="3">
-        <v>83300</v>
+        <v>82500</v>
       </c>
       <c r="H41" s="3">
-        <v>124900</v>
+        <v>123800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>378300</v>
+        <v>374800</v>
       </c>
       <c r="E42" s="3">
-        <v>304200</v>
+        <v>301400</v>
       </c>
       <c r="F42" s="3">
-        <v>249200</v>
+        <v>246900</v>
       </c>
       <c r="G42" s="3">
-        <v>374400</v>
+        <v>371100</v>
       </c>
       <c r="H42" s="3">
-        <v>127200</v>
+        <v>126100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>173400</v>
+        <v>171800</v>
       </c>
       <c r="E43" s="3">
-        <v>178900</v>
+        <v>177300</v>
       </c>
       <c r="F43" s="3">
-        <v>168700</v>
+        <v>167200</v>
       </c>
       <c r="G43" s="3">
-        <v>89400</v>
+        <v>88500</v>
       </c>
       <c r="H43" s="3">
-        <v>38100</v>
+        <v>37700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>258700</v>
+        <v>256400</v>
       </c>
       <c r="E45" s="3">
-        <v>384100</v>
+        <v>380600</v>
       </c>
       <c r="F45" s="3">
-        <v>551900</v>
+        <v>546900</v>
       </c>
       <c r="G45" s="3">
-        <v>611000</v>
+        <v>605500</v>
       </c>
       <c r="H45" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1016500</v>
+        <v>1007400</v>
       </c>
       <c r="E46" s="3">
-        <v>1317400</v>
+        <v>1305500</v>
       </c>
       <c r="F46" s="3">
-        <v>1128600</v>
+        <v>1118400</v>
       </c>
       <c r="G46" s="3">
-        <v>1158000</v>
+        <v>1147600</v>
       </c>
       <c r="H46" s="3">
-        <v>304300</v>
+        <v>301500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,16 +1955,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>121900</v>
+        <v>120800</v>
       </c>
       <c r="E47" s="3">
-        <v>35300</v>
+        <v>35000</v>
       </c>
       <c r="F47" s="3">
-        <v>81500</v>
+        <v>80800</v>
       </c>
       <c r="G47" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="H47" s="3">
         <v>7700</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36000</v>
+        <v>35700</v>
       </c>
       <c r="E48" s="3">
-        <v>33100</v>
+        <v>32800</v>
       </c>
       <c r="F48" s="3">
-        <v>46300</v>
+        <v>45900</v>
       </c>
       <c r="G48" s="3">
-        <v>47100</v>
+        <v>46700</v>
       </c>
       <c r="H48" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>101300</v>
+        <v>100400</v>
       </c>
       <c r="E49" s="3">
-        <v>135100</v>
+        <v>133900</v>
       </c>
       <c r="F49" s="3">
-        <v>144000</v>
+        <v>142700</v>
       </c>
       <c r="G49" s="3">
-        <v>111700</v>
+        <v>110700</v>
       </c>
       <c r="H49" s="3">
-        <v>54100</v>
+        <v>53600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100700</v>
+        <v>99800</v>
       </c>
       <c r="E52" s="3">
-        <v>83200</v>
+        <v>82400</v>
       </c>
       <c r="F52" s="3">
-        <v>62400</v>
+        <v>61900</v>
       </c>
       <c r="G52" s="3">
-        <v>51400</v>
+        <v>50900</v>
       </c>
       <c r="H52" s="3">
-        <v>54500</v>
+        <v>54000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1376400</v>
+        <v>1364000</v>
       </c>
       <c r="E54" s="3">
-        <v>1604100</v>
+        <v>1589600</v>
       </c>
       <c r="F54" s="3">
-        <v>1462900</v>
+        <v>1449700</v>
       </c>
       <c r="G54" s="3">
-        <v>1382600</v>
+        <v>1370100</v>
       </c>
       <c r="H54" s="3">
-        <v>444400</v>
+        <v>440400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>162400</v>
+        <v>160900</v>
       </c>
       <c r="E57" s="3">
-        <v>135600</v>
+        <v>134400</v>
       </c>
       <c r="F57" s="3">
-        <v>51100</v>
+        <v>50700</v>
       </c>
       <c r="G57" s="3">
-        <v>46600</v>
+        <v>46200</v>
       </c>
       <c r="H57" s="3">
-        <v>30700</v>
+        <v>30400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>128600</v>
+        <v>127400</v>
       </c>
       <c r="E58" s="3">
-        <v>349200</v>
+        <v>346000</v>
       </c>
       <c r="F58" s="3">
-        <v>489300</v>
+        <v>484900</v>
       </c>
       <c r="G58" s="3">
-        <v>499000</v>
+        <v>494500</v>
       </c>
       <c r="H58" s="3">
-        <v>221400</v>
+        <v>219400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>469800</v>
+        <v>465500</v>
       </c>
       <c r="E59" s="3">
-        <v>276600</v>
+        <v>274100</v>
       </c>
       <c r="F59" s="3">
-        <v>187500</v>
+        <v>185800</v>
       </c>
       <c r="G59" s="3">
-        <v>209200</v>
+        <v>207300</v>
       </c>
       <c r="H59" s="3">
-        <v>169600</v>
+        <v>168000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>760700</v>
+        <v>753900</v>
       </c>
       <c r="E60" s="3">
-        <v>761400</v>
+        <v>754500</v>
       </c>
       <c r="F60" s="3">
-        <v>727900</v>
+        <v>721400</v>
       </c>
       <c r="G60" s="3">
-        <v>754800</v>
+        <v>748000</v>
       </c>
       <c r="H60" s="3">
-        <v>421700</v>
+        <v>417900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,13 +2419,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="E61" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="F61" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>36200</v>
+        <v>35900</v>
       </c>
       <c r="E62" s="3">
-        <v>56800</v>
+        <v>56200</v>
       </c>
       <c r="F62" s="3">
-        <v>55900</v>
+        <v>55400</v>
       </c>
       <c r="G62" s="3">
-        <v>63200</v>
+        <v>62700</v>
       </c>
       <c r="H62" s="3">
-        <v>27800</v>
+        <v>27600</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>817400</v>
+        <v>810000</v>
       </c>
       <c r="E66" s="3">
-        <v>838500</v>
+        <v>830900</v>
       </c>
       <c r="F66" s="3">
-        <v>818900</v>
+        <v>811500</v>
       </c>
       <c r="G66" s="3">
-        <v>834400</v>
+        <v>826800</v>
       </c>
       <c r="H66" s="3">
-        <v>449500</v>
+        <v>445500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2795,16 +2795,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>559100</v>
+        <v>554000</v>
       </c>
       <c r="E72" s="3">
-        <v>765600</v>
+        <v>758700</v>
       </c>
       <c r="F72" s="3">
-        <v>644000</v>
+        <v>638200</v>
       </c>
       <c r="G72" s="3">
-        <v>548200</v>
+        <v>543300</v>
       </c>
       <c r="H72" s="3">
         <v>-5100</v>
@@ -2939,16 +2939,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>559100</v>
+        <v>554000</v>
       </c>
       <c r="E76" s="3">
-        <v>765600</v>
+        <v>758700</v>
       </c>
       <c r="F76" s="3">
-        <v>644000</v>
+        <v>638200</v>
       </c>
       <c r="G76" s="3">
-        <v>548300</v>
+        <v>543300</v>
       </c>
       <c r="H76" s="3">
         <v>-5100</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-188900</v>
+        <v>-187200</v>
       </c>
       <c r="E81" s="3">
-        <v>-199500</v>
+        <v>-197700</v>
       </c>
       <c r="F81" s="3">
-        <v>-244700</v>
+        <v>-242500</v>
       </c>
       <c r="G81" s="3">
-        <v>-176200</v>
+        <v>-174600</v>
       </c>
       <c r="H81" s="3">
-        <v>-89400</v>
+        <v>-88600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>64700</v>
+        <v>64100</v>
       </c>
       <c r="E83" s="3">
-        <v>62100</v>
+        <v>61500</v>
       </c>
       <c r="F83" s="3">
-        <v>67800</v>
+        <v>67200</v>
       </c>
       <c r="G83" s="3">
-        <v>52200</v>
+        <v>51700</v>
       </c>
       <c r="H83" s="3">
-        <v>42400</v>
+        <v>42000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-59600</v>
+        <v>-59000</v>
       </c>
       <c r="E89" s="3">
-        <v>-103800</v>
+        <v>-102800</v>
       </c>
       <c r="F89" s="3">
-        <v>-267800</v>
+        <v>-265400</v>
       </c>
       <c r="G89" s="3">
-        <v>-72100</v>
+        <v>-71400</v>
       </c>
       <c r="H89" s="3">
-        <v>-33700</v>
+        <v>-33400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3378,10 +3378,10 @@
         <v>-2500</v>
       </c>
       <c r="F91" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="G91" s="3">
-        <v>-12500</v>
+        <v>-12400</v>
       </c>
       <c r="H91" s="3">
         <v>-2300</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>57200</v>
+        <v>56700</v>
       </c>
       <c r="E94" s="3">
-        <v>193900</v>
+        <v>192100</v>
       </c>
       <c r="F94" s="3">
-        <v>84100</v>
+        <v>83400</v>
       </c>
       <c r="G94" s="3">
-        <v>-855500</v>
+        <v>-847800</v>
       </c>
       <c r="H94" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-237500</v>
+        <v>-235400</v>
       </c>
       <c r="E100" s="3">
-        <v>226000</v>
+        <v>224000</v>
       </c>
       <c r="F100" s="3">
-        <v>258600</v>
+        <v>256200</v>
       </c>
       <c r="G100" s="3">
-        <v>884100</v>
+        <v>876100</v>
       </c>
       <c r="H100" s="3">
-        <v>165800</v>
+        <v>164300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3715,13 +3715,13 @@
         <v>-4100</v>
       </c>
       <c r="E101" s="3">
-        <v>-24800</v>
+        <v>-24500</v>
       </c>
       <c r="F101" s="3">
         <v>700</v>
       </c>
       <c r="G101" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-244000</v>
+        <v>-241800</v>
       </c>
       <c r="E102" s="3">
-        <v>291400</v>
+        <v>288700</v>
       </c>
       <c r="F102" s="3">
-        <v>75600</v>
+        <v>74900</v>
       </c>
       <c r="G102" s="3">
-        <v>-41700</v>
+        <v>-41300</v>
       </c>
       <c r="H102" s="3">
-        <v>113400</v>
+        <v>112400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>603400</v>
+        <v>575200</v>
       </c>
       <c r="E8" s="3">
-        <v>483700</v>
+        <v>461100</v>
       </c>
       <c r="F8" s="3">
-        <v>339900</v>
+        <v>324000</v>
       </c>
       <c r="G8" s="3">
-        <v>206400</v>
+        <v>196800</v>
       </c>
       <c r="H8" s="3">
-        <v>85000</v>
+        <v>81000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>393700</v>
+        <v>375200</v>
       </c>
       <c r="E9" s="3">
-        <v>302100</v>
+        <v>288000</v>
       </c>
       <c r="F9" s="3">
-        <v>228000</v>
+        <v>217300</v>
       </c>
       <c r="G9" s="3">
-        <v>149700</v>
+        <v>142700</v>
       </c>
       <c r="H9" s="3">
-        <v>70500</v>
+        <v>67200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>209800</v>
+        <v>200000</v>
       </c>
       <c r="E10" s="3">
-        <v>181600</v>
+        <v>173100</v>
       </c>
       <c r="F10" s="3">
-        <v>112000</v>
+        <v>106700</v>
       </c>
       <c r="G10" s="3">
-        <v>56800</v>
+        <v>54100</v>
       </c>
       <c r="H10" s="3">
-        <v>14500</v>
+        <v>13800</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>194900</v>
+        <v>185800</v>
       </c>
       <c r="E12" s="3">
-        <v>165100</v>
+        <v>157400</v>
       </c>
       <c r="F12" s="3">
-        <v>134800</v>
+        <v>128500</v>
       </c>
       <c r="G12" s="3">
-        <v>61300</v>
+        <v>58500</v>
       </c>
       <c r="H12" s="3">
-        <v>73500</v>
+        <v>70000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -917,13 +917,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11400</v>
+        <v>10800</v>
       </c>
       <c r="E14" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="F14" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -953,19 +953,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>20100</v>
+        <v>19200</v>
       </c>
       <c r="E15" s="3">
-        <v>64900</v>
+        <v>61800</v>
       </c>
       <c r="F15" s="3">
-        <v>21800</v>
+        <v>20700</v>
       </c>
       <c r="G15" s="3">
-        <v>18400</v>
+        <v>17600</v>
       </c>
       <c r="H15" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>808600</v>
+        <v>770800</v>
       </c>
       <c r="E17" s="3">
-        <v>698400</v>
+        <v>665700</v>
       </c>
       <c r="F17" s="3">
-        <v>588300</v>
+        <v>560800</v>
       </c>
       <c r="G17" s="3">
-        <v>369100</v>
+        <v>351900</v>
       </c>
       <c r="H17" s="3">
-        <v>215000</v>
+        <v>204900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-205100</v>
+        <v>-195500</v>
       </c>
       <c r="E18" s="3">
-        <v>-214700</v>
+        <v>-204700</v>
       </c>
       <c r="F18" s="3">
-        <v>-248400</v>
+        <v>-236800</v>
       </c>
       <c r="G18" s="3">
-        <v>-162700</v>
+        <v>-155100</v>
       </c>
       <c r="H18" s="3">
-        <v>-130000</v>
+        <v>-123900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="E20" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="F20" s="3">
-        <v>16200</v>
+        <v>15500</v>
       </c>
       <c r="G20" s="3">
-        <v>16200</v>
+        <v>15500</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-135800</v>
+        <v>-129800</v>
       </c>
       <c r="E21" s="3">
-        <v>-143300</v>
+        <v>-136900</v>
       </c>
       <c r="F21" s="3">
-        <v>-165100</v>
+        <v>-157800</v>
       </c>
       <c r="G21" s="3">
-        <v>-94900</v>
+        <v>-90700</v>
       </c>
       <c r="H21" s="3">
-        <v>-88200</v>
+        <v>-84300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,19 +1162,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="E22" s="3">
-        <v>21900</v>
+        <v>20800</v>
       </c>
       <c r="F22" s="3">
-        <v>25200</v>
+        <v>24000</v>
       </c>
       <c r="G22" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="H22" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-210700</v>
+        <v>-200800</v>
       </c>
       <c r="E23" s="3">
-        <v>-226500</v>
+        <v>-215900</v>
       </c>
       <c r="F23" s="3">
-        <v>-257400</v>
+        <v>-245300</v>
       </c>
       <c r="G23" s="3">
-        <v>-170000</v>
+        <v>-162000</v>
       </c>
       <c r="H23" s="3">
-        <v>-142600</v>
+        <v>-135900</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-16400</v>
+        <v>-15600</v>
       </c>
       <c r="E24" s="3">
-        <v>-20000</v>
+        <v>-19100</v>
       </c>
       <c r="F24" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="G24" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="H24" s="3">
-        <v>-54000</v>
+        <v>-51500</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-194300</v>
+        <v>-185200</v>
       </c>
       <c r="E26" s="3">
-        <v>-206500</v>
+        <v>-196800</v>
       </c>
       <c r="F26" s="3">
-        <v>-246400</v>
+        <v>-234900</v>
       </c>
       <c r="G26" s="3">
-        <v>-173800</v>
+        <v>-165700</v>
       </c>
       <c r="H26" s="3">
-        <v>-88600</v>
+        <v>-84500</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-187200</v>
+        <v>-178400</v>
       </c>
       <c r="E27" s="3">
-        <v>-197700</v>
+        <v>-188400</v>
       </c>
       <c r="F27" s="3">
-        <v>-242500</v>
+        <v>-231200</v>
       </c>
       <c r="G27" s="3">
-        <v>-174600</v>
+        <v>-166400</v>
       </c>
       <c r="H27" s="3">
-        <v>-88600</v>
+        <v>-84500</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="E32" s="3">
-        <v>-10000</v>
+        <v>-9600</v>
       </c>
       <c r="F32" s="3">
-        <v>-16200</v>
+        <v>-15500</v>
       </c>
       <c r="G32" s="3">
-        <v>-16200</v>
+        <v>-15500</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-187200</v>
+        <v>-178400</v>
       </c>
       <c r="E33" s="3">
-        <v>-197700</v>
+        <v>-188400</v>
       </c>
       <c r="F33" s="3">
-        <v>-242500</v>
+        <v>-231200</v>
       </c>
       <c r="G33" s="3">
-        <v>-174600</v>
+        <v>-166400</v>
       </c>
       <c r="H33" s="3">
-        <v>-88600</v>
+        <v>-84500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-187200</v>
+        <v>-178400</v>
       </c>
       <c r="E35" s="3">
-        <v>-197700</v>
+        <v>-188400</v>
       </c>
       <c r="F35" s="3">
-        <v>-242500</v>
+        <v>-231200</v>
       </c>
       <c r="G35" s="3">
-        <v>-174600</v>
+        <v>-166400</v>
       </c>
       <c r="H35" s="3">
-        <v>-88600</v>
+        <v>-84500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>204400</v>
+        <v>194800</v>
       </c>
       <c r="E41" s="3">
-        <v>446100</v>
+        <v>425300</v>
       </c>
       <c r="F41" s="3">
-        <v>157400</v>
+        <v>150000</v>
       </c>
       <c r="G41" s="3">
-        <v>82500</v>
+        <v>78700</v>
       </c>
       <c r="H41" s="3">
-        <v>123800</v>
+        <v>118000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>374800</v>
+        <v>357300</v>
       </c>
       <c r="E42" s="3">
-        <v>301400</v>
+        <v>287300</v>
       </c>
       <c r="F42" s="3">
-        <v>246900</v>
+        <v>235400</v>
       </c>
       <c r="G42" s="3">
-        <v>371100</v>
+        <v>353700</v>
       </c>
       <c r="H42" s="3">
-        <v>126100</v>
+        <v>120200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>171800</v>
+        <v>163800</v>
       </c>
       <c r="E43" s="3">
-        <v>177300</v>
+        <v>169000</v>
       </c>
       <c r="F43" s="3">
-        <v>167200</v>
+        <v>159300</v>
       </c>
       <c r="G43" s="3">
-        <v>88500</v>
+        <v>84400</v>
       </c>
       <c r="H43" s="3">
-        <v>37700</v>
+        <v>35900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>256400</v>
+        <v>244400</v>
       </c>
       <c r="E45" s="3">
-        <v>380600</v>
+        <v>362800</v>
       </c>
       <c r="F45" s="3">
-        <v>546900</v>
+        <v>521300</v>
       </c>
       <c r="G45" s="3">
-        <v>605500</v>
+        <v>577200</v>
       </c>
       <c r="H45" s="3">
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1007400</v>
+        <v>960300</v>
       </c>
       <c r="E46" s="3">
-        <v>1305500</v>
+        <v>1244400</v>
       </c>
       <c r="F46" s="3">
-        <v>1118400</v>
+        <v>1066100</v>
       </c>
       <c r="G46" s="3">
-        <v>1147600</v>
+        <v>1093900</v>
       </c>
       <c r="H46" s="3">
-        <v>301500</v>
+        <v>287400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>120800</v>
+        <v>115200</v>
       </c>
       <c r="E47" s="3">
-        <v>35000</v>
+        <v>33400</v>
       </c>
       <c r="F47" s="3">
-        <v>80800</v>
+        <v>77000</v>
       </c>
       <c r="G47" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="H47" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35700</v>
+        <v>34000</v>
       </c>
       <c r="E48" s="3">
-        <v>32800</v>
+        <v>31200</v>
       </c>
       <c r="F48" s="3">
-        <v>45900</v>
+        <v>43800</v>
       </c>
       <c r="G48" s="3">
-        <v>46700</v>
+        <v>44500</v>
       </c>
       <c r="H48" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100400</v>
+        <v>95700</v>
       </c>
       <c r="E49" s="3">
-        <v>133900</v>
+        <v>127700</v>
       </c>
       <c r="F49" s="3">
-        <v>142700</v>
+        <v>136000</v>
       </c>
       <c r="G49" s="3">
-        <v>110700</v>
+        <v>105500</v>
       </c>
       <c r="H49" s="3">
-        <v>53600</v>
+        <v>51100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>99800</v>
+        <v>95100</v>
       </c>
       <c r="E52" s="3">
-        <v>82400</v>
+        <v>78600</v>
       </c>
       <c r="F52" s="3">
-        <v>61900</v>
+        <v>59000</v>
       </c>
       <c r="G52" s="3">
-        <v>50900</v>
+        <v>48500</v>
       </c>
       <c r="H52" s="3">
-        <v>54000</v>
+        <v>51500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1364000</v>
+        <v>1300200</v>
       </c>
       <c r="E54" s="3">
-        <v>1589600</v>
+        <v>1515200</v>
       </c>
       <c r="F54" s="3">
-        <v>1449700</v>
+        <v>1381900</v>
       </c>
       <c r="G54" s="3">
-        <v>1370100</v>
+        <v>1306100</v>
       </c>
       <c r="H54" s="3">
-        <v>440400</v>
+        <v>419800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>160900</v>
+        <v>153400</v>
       </c>
       <c r="E57" s="3">
-        <v>134400</v>
+        <v>128100</v>
       </c>
       <c r="F57" s="3">
-        <v>50700</v>
+        <v>48300</v>
       </c>
       <c r="G57" s="3">
-        <v>46200</v>
+        <v>44100</v>
       </c>
       <c r="H57" s="3">
-        <v>30400</v>
+        <v>29000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>127400</v>
+        <v>121500</v>
       </c>
       <c r="E58" s="3">
-        <v>346000</v>
+        <v>329800</v>
       </c>
       <c r="F58" s="3">
-        <v>484900</v>
+        <v>462200</v>
       </c>
       <c r="G58" s="3">
-        <v>494500</v>
+        <v>471300</v>
       </c>
       <c r="H58" s="3">
-        <v>219400</v>
+        <v>209100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>465500</v>
+        <v>443800</v>
       </c>
       <c r="E59" s="3">
-        <v>274100</v>
+        <v>261300</v>
       </c>
       <c r="F59" s="3">
-        <v>185800</v>
+        <v>177100</v>
       </c>
       <c r="G59" s="3">
-        <v>207300</v>
+        <v>197600</v>
       </c>
       <c r="H59" s="3">
-        <v>168000</v>
+        <v>160200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>753900</v>
+        <v>718600</v>
       </c>
       <c r="E60" s="3">
-        <v>754500</v>
+        <v>719200</v>
       </c>
       <c r="F60" s="3">
-        <v>721400</v>
+        <v>687600</v>
       </c>
       <c r="G60" s="3">
-        <v>748000</v>
+        <v>713000</v>
       </c>
       <c r="H60" s="3">
-        <v>417900</v>
+        <v>398300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,13 +2419,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="E61" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="F61" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>35900</v>
+        <v>34200</v>
       </c>
       <c r="E62" s="3">
-        <v>56200</v>
+        <v>53600</v>
       </c>
       <c r="F62" s="3">
-        <v>55400</v>
+        <v>52800</v>
       </c>
       <c r="G62" s="3">
-        <v>62700</v>
+        <v>59700</v>
       </c>
       <c r="H62" s="3">
-        <v>27600</v>
+        <v>26300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>810000</v>
+        <v>772100</v>
       </c>
       <c r="E66" s="3">
-        <v>830900</v>
+        <v>792000</v>
       </c>
       <c r="F66" s="3">
-        <v>811500</v>
+        <v>773600</v>
       </c>
       <c r="G66" s="3">
-        <v>826800</v>
+        <v>788200</v>
       </c>
       <c r="H66" s="3">
-        <v>445500</v>
+        <v>424600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>554000</v>
+        <v>528100</v>
       </c>
       <c r="E72" s="3">
-        <v>758700</v>
+        <v>723200</v>
       </c>
       <c r="F72" s="3">
-        <v>638200</v>
+        <v>608300</v>
       </c>
       <c r="G72" s="3">
-        <v>543300</v>
+        <v>517900</v>
       </c>
       <c r="H72" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>554000</v>
+        <v>528100</v>
       </c>
       <c r="E76" s="3">
-        <v>758700</v>
+        <v>723200</v>
       </c>
       <c r="F76" s="3">
-        <v>638200</v>
+        <v>608300</v>
       </c>
       <c r="G76" s="3">
-        <v>543300</v>
+        <v>517900</v>
       </c>
       <c r="H76" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-187200</v>
+        <v>-178400</v>
       </c>
       <c r="E81" s="3">
-        <v>-197700</v>
+        <v>-188400</v>
       </c>
       <c r="F81" s="3">
-        <v>-242500</v>
+        <v>-231200</v>
       </c>
       <c r="G81" s="3">
-        <v>-174600</v>
+        <v>-166400</v>
       </c>
       <c r="H81" s="3">
-        <v>-88600</v>
+        <v>-84500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>64100</v>
+        <v>61100</v>
       </c>
       <c r="E83" s="3">
-        <v>61500</v>
+        <v>58600</v>
       </c>
       <c r="F83" s="3">
-        <v>67200</v>
+        <v>64000</v>
       </c>
       <c r="G83" s="3">
-        <v>51700</v>
+        <v>49300</v>
       </c>
       <c r="H83" s="3">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-59000</v>
+        <v>-56300</v>
       </c>
       <c r="E89" s="3">
-        <v>-102800</v>
+        <v>-98000</v>
       </c>
       <c r="F89" s="3">
-        <v>-265400</v>
+        <v>-253000</v>
       </c>
       <c r="G89" s="3">
-        <v>-71400</v>
+        <v>-68100</v>
       </c>
       <c r="H89" s="3">
-        <v>-33400</v>
+        <v>-31800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6700</v>
+        <v>-6300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="F91" s="3">
-        <v>-14300</v>
+        <v>-13600</v>
       </c>
       <c r="G91" s="3">
-        <v>-12400</v>
+        <v>-11800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>56700</v>
+        <v>54100</v>
       </c>
       <c r="E94" s="3">
-        <v>192100</v>
+        <v>183100</v>
       </c>
       <c r="F94" s="3">
-        <v>83400</v>
+        <v>79500</v>
       </c>
       <c r="G94" s="3">
-        <v>-847800</v>
+        <v>-808100</v>
       </c>
       <c r="H94" s="3">
-        <v>-18500</v>
+        <v>-17700</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-235400</v>
+        <v>-224400</v>
       </c>
       <c r="E100" s="3">
-        <v>224000</v>
+        <v>213500</v>
       </c>
       <c r="F100" s="3">
-        <v>256200</v>
+        <v>244200</v>
       </c>
       <c r="G100" s="3">
-        <v>876100</v>
+        <v>835100</v>
       </c>
       <c r="H100" s="3">
-        <v>164300</v>
+        <v>156600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,10 +3712,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="E101" s="3">
-        <v>-24500</v>
+        <v>-23400</v>
       </c>
       <c r="F101" s="3">
         <v>700</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-241800</v>
+        <v>-230500</v>
       </c>
       <c r="E102" s="3">
-        <v>288700</v>
+        <v>275200</v>
       </c>
       <c r="F102" s="3">
-        <v>74900</v>
+        <v>71400</v>
       </c>
       <c r="G102" s="3">
-        <v>-41300</v>
+        <v>-39400</v>
       </c>
       <c r="H102" s="3">
-        <v>112400</v>
+        <v>107100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>575200</v>
+        <v>593500</v>
       </c>
       <c r="E8" s="3">
-        <v>461100</v>
+        <v>475700</v>
       </c>
       <c r="F8" s="3">
-        <v>324000</v>
+        <v>334300</v>
       </c>
       <c r="G8" s="3">
-        <v>196800</v>
+        <v>203000</v>
       </c>
       <c r="H8" s="3">
-        <v>81000</v>
+        <v>83600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>375200</v>
+        <v>387200</v>
       </c>
       <c r="E9" s="3">
-        <v>288000</v>
+        <v>297100</v>
       </c>
       <c r="F9" s="3">
-        <v>217300</v>
+        <v>224200</v>
       </c>
       <c r="G9" s="3">
-        <v>142700</v>
+        <v>147200</v>
       </c>
       <c r="H9" s="3">
-        <v>67200</v>
+        <v>69300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200000</v>
+        <v>206300</v>
       </c>
       <c r="E10" s="3">
-        <v>173100</v>
+        <v>178600</v>
       </c>
       <c r="F10" s="3">
-        <v>106700</v>
+        <v>110100</v>
       </c>
       <c r="G10" s="3">
-        <v>54100</v>
+        <v>55800</v>
       </c>
       <c r="H10" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>185800</v>
+        <v>191700</v>
       </c>
       <c r="E12" s="3">
-        <v>157400</v>
+        <v>162400</v>
       </c>
       <c r="F12" s="3">
-        <v>128500</v>
+        <v>132600</v>
       </c>
       <c r="G12" s="3">
-        <v>58500</v>
+        <v>60300</v>
       </c>
       <c r="H12" s="3">
-        <v>70000</v>
+        <v>72200</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -917,13 +917,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="E14" s="3">
-        <v>18700</v>
+        <v>19300</v>
       </c>
       <c r="F14" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -953,19 +953,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="E15" s="3">
-        <v>61800</v>
+        <v>63800</v>
       </c>
       <c r="F15" s="3">
-        <v>20700</v>
+        <v>21400</v>
       </c>
       <c r="G15" s="3">
-        <v>17600</v>
+        <v>18100</v>
       </c>
       <c r="H15" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>770800</v>
+        <v>795200</v>
       </c>
       <c r="E17" s="3">
-        <v>665700</v>
+        <v>686900</v>
       </c>
       <c r="F17" s="3">
-        <v>560800</v>
+        <v>578600</v>
       </c>
       <c r="G17" s="3">
-        <v>351900</v>
+        <v>363100</v>
       </c>
       <c r="H17" s="3">
-        <v>204900</v>
+        <v>211400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-195500</v>
+        <v>-201700</v>
       </c>
       <c r="E18" s="3">
-        <v>-204700</v>
+        <v>-211200</v>
       </c>
       <c r="F18" s="3">
-        <v>-236800</v>
+        <v>-244300</v>
       </c>
       <c r="G18" s="3">
-        <v>-155100</v>
+        <v>-160000</v>
       </c>
       <c r="H18" s="3">
-        <v>-123900</v>
+        <v>-127900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E20" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="F20" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="G20" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-129800</v>
+        <v>-133300</v>
       </c>
       <c r="E21" s="3">
-        <v>-136900</v>
+        <v>-140700</v>
       </c>
       <c r="F21" s="3">
-        <v>-157800</v>
+        <v>-162200</v>
       </c>
       <c r="G21" s="3">
-        <v>-90700</v>
+        <v>-93100</v>
       </c>
       <c r="H21" s="3">
-        <v>-84300</v>
+        <v>-86600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,19 +1162,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="E22" s="3">
-        <v>20800</v>
+        <v>21500</v>
       </c>
       <c r="F22" s="3">
-        <v>24000</v>
+        <v>24800</v>
       </c>
       <c r="G22" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="H22" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200800</v>
+        <v>-207200</v>
       </c>
       <c r="E23" s="3">
-        <v>-215900</v>
+        <v>-222800</v>
       </c>
       <c r="F23" s="3">
-        <v>-245300</v>
+        <v>-253100</v>
       </c>
       <c r="G23" s="3">
-        <v>-162000</v>
+        <v>-167100</v>
       </c>
       <c r="H23" s="3">
-        <v>-135900</v>
+        <v>-140300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-15600</v>
+        <v>-16100</v>
       </c>
       <c r="E24" s="3">
-        <v>-19100</v>
+        <v>-19700</v>
       </c>
       <c r="F24" s="3">
-        <v>-10400</v>
+        <v>-10800</v>
       </c>
       <c r="G24" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H24" s="3">
-        <v>-51500</v>
+        <v>-53100</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-185200</v>
+        <v>-191100</v>
       </c>
       <c r="E26" s="3">
-        <v>-196800</v>
+        <v>-203100</v>
       </c>
       <c r="F26" s="3">
-        <v>-234900</v>
+        <v>-242400</v>
       </c>
       <c r="G26" s="3">
-        <v>-165700</v>
+        <v>-170900</v>
       </c>
       <c r="H26" s="3">
-        <v>-84500</v>
+        <v>-87200</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-178400</v>
+        <v>-184100</v>
       </c>
       <c r="E27" s="3">
-        <v>-188400</v>
+        <v>-194400</v>
       </c>
       <c r="F27" s="3">
-        <v>-231200</v>
+        <v>-238500</v>
       </c>
       <c r="G27" s="3">
-        <v>-166400</v>
+        <v>-171700</v>
       </c>
       <c r="H27" s="3">
-        <v>-84500</v>
+        <v>-87200</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="E32" s="3">
-        <v>-9600</v>
+        <v>-9900</v>
       </c>
       <c r="F32" s="3">
-        <v>-15500</v>
+        <v>-16000</v>
       </c>
       <c r="G32" s="3">
-        <v>-15500</v>
+        <v>-16000</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-178400</v>
+        <v>-184100</v>
       </c>
       <c r="E33" s="3">
-        <v>-188400</v>
+        <v>-194400</v>
       </c>
       <c r="F33" s="3">
-        <v>-231200</v>
+        <v>-238500</v>
       </c>
       <c r="G33" s="3">
-        <v>-166400</v>
+        <v>-171700</v>
       </c>
       <c r="H33" s="3">
-        <v>-84500</v>
+        <v>-87200</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-178400</v>
+        <v>-184100</v>
       </c>
       <c r="E35" s="3">
-        <v>-188400</v>
+        <v>-194400</v>
       </c>
       <c r="F35" s="3">
-        <v>-231200</v>
+        <v>-238500</v>
       </c>
       <c r="G35" s="3">
-        <v>-166400</v>
+        <v>-171700</v>
       </c>
       <c r="H35" s="3">
-        <v>-84500</v>
+        <v>-87200</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>194800</v>
+        <v>201000</v>
       </c>
       <c r="E41" s="3">
-        <v>425300</v>
+        <v>438800</v>
       </c>
       <c r="F41" s="3">
-        <v>150000</v>
+        <v>154800</v>
       </c>
       <c r="G41" s="3">
-        <v>78700</v>
+        <v>81100</v>
       </c>
       <c r="H41" s="3">
-        <v>118000</v>
+        <v>121800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>357300</v>
+        <v>368700</v>
       </c>
       <c r="E42" s="3">
-        <v>287300</v>
+        <v>296500</v>
       </c>
       <c r="F42" s="3">
-        <v>235400</v>
+        <v>242900</v>
       </c>
       <c r="G42" s="3">
-        <v>353700</v>
+        <v>364900</v>
       </c>
       <c r="H42" s="3">
-        <v>120200</v>
+        <v>124000</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>163800</v>
+        <v>169000</v>
       </c>
       <c r="E43" s="3">
-        <v>169000</v>
+        <v>174400</v>
       </c>
       <c r="F43" s="3">
-        <v>159300</v>
+        <v>164400</v>
       </c>
       <c r="G43" s="3">
-        <v>84400</v>
+        <v>87100</v>
       </c>
       <c r="H43" s="3">
-        <v>35900</v>
+        <v>37100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>244400</v>
+        <v>252200</v>
       </c>
       <c r="E45" s="3">
-        <v>362800</v>
+        <v>374300</v>
       </c>
       <c r="F45" s="3">
-        <v>521300</v>
+        <v>537900</v>
       </c>
       <c r="G45" s="3">
-        <v>577200</v>
+        <v>595500</v>
       </c>
       <c r="H45" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>960300</v>
+        <v>990700</v>
       </c>
       <c r="E46" s="3">
-        <v>1244400</v>
+        <v>1283900</v>
       </c>
       <c r="F46" s="3">
-        <v>1066100</v>
+        <v>1100000</v>
       </c>
       <c r="G46" s="3">
-        <v>1093900</v>
+        <v>1128700</v>
       </c>
       <c r="H46" s="3">
-        <v>287400</v>
+        <v>296600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>115200</v>
+        <v>118800</v>
       </c>
       <c r="E47" s="3">
-        <v>33400</v>
+        <v>34400</v>
       </c>
       <c r="F47" s="3">
-        <v>77000</v>
+        <v>79500</v>
       </c>
       <c r="G47" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="H47" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34000</v>
+        <v>35100</v>
       </c>
       <c r="E48" s="3">
-        <v>31200</v>
+        <v>32200</v>
       </c>
       <c r="F48" s="3">
-        <v>43800</v>
+        <v>45200</v>
       </c>
       <c r="G48" s="3">
-        <v>44500</v>
+        <v>45900</v>
       </c>
       <c r="H48" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>95700</v>
+        <v>98700</v>
       </c>
       <c r="E49" s="3">
-        <v>127700</v>
+        <v>131700</v>
       </c>
       <c r="F49" s="3">
-        <v>136000</v>
+        <v>140300</v>
       </c>
       <c r="G49" s="3">
-        <v>105500</v>
+        <v>108900</v>
       </c>
       <c r="H49" s="3">
-        <v>51100</v>
+        <v>52700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>95100</v>
+        <v>98100</v>
       </c>
       <c r="E52" s="3">
-        <v>78600</v>
+        <v>81100</v>
       </c>
       <c r="F52" s="3">
-        <v>59000</v>
+        <v>60900</v>
       </c>
       <c r="G52" s="3">
-        <v>48500</v>
+        <v>50100</v>
       </c>
       <c r="H52" s="3">
-        <v>51500</v>
+        <v>53100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1300200</v>
+        <v>1341500</v>
       </c>
       <c r="E54" s="3">
-        <v>1515200</v>
+        <v>1563300</v>
       </c>
       <c r="F54" s="3">
-        <v>1381900</v>
+        <v>1425800</v>
       </c>
       <c r="G54" s="3">
-        <v>1306100</v>
+        <v>1347500</v>
       </c>
       <c r="H54" s="3">
-        <v>419800</v>
+        <v>433100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>153400</v>
+        <v>158200</v>
       </c>
       <c r="E57" s="3">
-        <v>128100</v>
+        <v>132200</v>
       </c>
       <c r="F57" s="3">
-        <v>48300</v>
+        <v>49800</v>
       </c>
       <c r="G57" s="3">
-        <v>44100</v>
+        <v>45500</v>
       </c>
       <c r="H57" s="3">
-        <v>29000</v>
+        <v>29900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>121500</v>
+        <v>125300</v>
       </c>
       <c r="E58" s="3">
-        <v>329800</v>
+        <v>340300</v>
       </c>
       <c r="F58" s="3">
-        <v>462200</v>
+        <v>476900</v>
       </c>
       <c r="G58" s="3">
-        <v>471300</v>
+        <v>486300</v>
       </c>
       <c r="H58" s="3">
-        <v>209100</v>
+        <v>215800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>443800</v>
+        <v>457900</v>
       </c>
       <c r="E59" s="3">
-        <v>261300</v>
+        <v>269600</v>
       </c>
       <c r="F59" s="3">
-        <v>177100</v>
+        <v>182800</v>
       </c>
       <c r="G59" s="3">
-        <v>197600</v>
+        <v>203900</v>
       </c>
       <c r="H59" s="3">
-        <v>160200</v>
+        <v>165300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>718600</v>
+        <v>741400</v>
       </c>
       <c r="E60" s="3">
-        <v>719200</v>
+        <v>742000</v>
       </c>
       <c r="F60" s="3">
-        <v>687600</v>
+        <v>709500</v>
       </c>
       <c r="G60" s="3">
-        <v>713000</v>
+        <v>735700</v>
       </c>
       <c r="H60" s="3">
-        <v>398300</v>
+        <v>411000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,13 +2419,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="E61" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="F61" s="3">
-        <v>12200</v>
+        <v>12600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34200</v>
+        <v>35300</v>
       </c>
       <c r="E62" s="3">
-        <v>53600</v>
+        <v>55300</v>
       </c>
       <c r="F62" s="3">
-        <v>52800</v>
+        <v>54400</v>
       </c>
       <c r="G62" s="3">
-        <v>59700</v>
+        <v>61600</v>
       </c>
       <c r="H62" s="3">
-        <v>26300</v>
+        <v>27100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>772100</v>
+        <v>796600</v>
       </c>
       <c r="E66" s="3">
-        <v>792000</v>
+        <v>817200</v>
       </c>
       <c r="F66" s="3">
-        <v>773600</v>
+        <v>798100</v>
       </c>
       <c r="G66" s="3">
-        <v>788200</v>
+        <v>813200</v>
       </c>
       <c r="H66" s="3">
-        <v>424600</v>
+        <v>438100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>528100</v>
+        <v>544900</v>
       </c>
       <c r="E72" s="3">
-        <v>723200</v>
+        <v>746100</v>
       </c>
       <c r="F72" s="3">
-        <v>608300</v>
+        <v>627600</v>
       </c>
       <c r="G72" s="3">
-        <v>517900</v>
+        <v>534300</v>
       </c>
       <c r="H72" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>528100</v>
+        <v>544900</v>
       </c>
       <c r="E76" s="3">
-        <v>723200</v>
+        <v>746200</v>
       </c>
       <c r="F76" s="3">
-        <v>608300</v>
+        <v>627600</v>
       </c>
       <c r="G76" s="3">
-        <v>517900</v>
+        <v>534300</v>
       </c>
       <c r="H76" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-178400</v>
+        <v>-184100</v>
       </c>
       <c r="E81" s="3">
-        <v>-188400</v>
+        <v>-194400</v>
       </c>
       <c r="F81" s="3">
-        <v>-231200</v>
+        <v>-238500</v>
       </c>
       <c r="G81" s="3">
-        <v>-166400</v>
+        <v>-171700</v>
       </c>
       <c r="H81" s="3">
-        <v>-84500</v>
+        <v>-87200</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>61100</v>
+        <v>63000</v>
       </c>
       <c r="E83" s="3">
-        <v>58600</v>
+        <v>60500</v>
       </c>
       <c r="F83" s="3">
-        <v>64000</v>
+        <v>66000</v>
       </c>
       <c r="G83" s="3">
-        <v>49300</v>
+        <v>50800</v>
       </c>
       <c r="H83" s="3">
-        <v>40000</v>
+        <v>41300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-56300</v>
+        <v>-58100</v>
       </c>
       <c r="E89" s="3">
-        <v>-98000</v>
+        <v>-101100</v>
       </c>
       <c r="F89" s="3">
-        <v>-253000</v>
+        <v>-261000</v>
       </c>
       <c r="G89" s="3">
-        <v>-68100</v>
+        <v>-70300</v>
       </c>
       <c r="H89" s="3">
-        <v>-31800</v>
+        <v>-32800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="E91" s="3">
         <v>-2400</v>
       </c>
       <c r="F91" s="3">
-        <v>-13600</v>
+        <v>-14000</v>
       </c>
       <c r="G91" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>54100</v>
+        <v>55800</v>
       </c>
       <c r="E94" s="3">
-        <v>183100</v>
+        <v>189000</v>
       </c>
       <c r="F94" s="3">
-        <v>79500</v>
+        <v>82000</v>
       </c>
       <c r="G94" s="3">
-        <v>-808100</v>
+        <v>-833800</v>
       </c>
       <c r="H94" s="3">
-        <v>-17700</v>
+        <v>-18200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-224400</v>
+        <v>-231500</v>
       </c>
       <c r="E100" s="3">
-        <v>213500</v>
+        <v>220300</v>
       </c>
       <c r="F100" s="3">
-        <v>244200</v>
+        <v>252000</v>
       </c>
       <c r="G100" s="3">
-        <v>835100</v>
+        <v>861600</v>
       </c>
       <c r="H100" s="3">
-        <v>156600</v>
+        <v>161600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,10 +3712,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="E101" s="3">
-        <v>-23400</v>
+        <v>-24100</v>
       </c>
       <c r="F101" s="3">
         <v>700</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-230500</v>
+        <v>-237800</v>
       </c>
       <c r="E102" s="3">
-        <v>275200</v>
+        <v>284000</v>
       </c>
       <c r="F102" s="3">
-        <v>71400</v>
+        <v>73700</v>
       </c>
       <c r="G102" s="3">
-        <v>-39400</v>
+        <v>-40600</v>
       </c>
       <c r="H102" s="3">
-        <v>107100</v>
+        <v>110500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,29 +714,32 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>593500</v>
+        <v>634600</v>
       </c>
       <c r="E8" s="3">
-        <v>475700</v>
+        <v>587400</v>
       </c>
       <c r="F8" s="3">
-        <v>334300</v>
+        <v>470800</v>
       </c>
       <c r="G8" s="3">
-        <v>203000</v>
+        <v>330900</v>
       </c>
       <c r="H8" s="3">
-        <v>83600</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>200900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>82700</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -750,29 +753,32 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>387200</v>
+        <v>402100</v>
       </c>
       <c r="E9" s="3">
-        <v>297100</v>
+        <v>383200</v>
       </c>
       <c r="F9" s="3">
-        <v>224200</v>
+        <v>294100</v>
       </c>
       <c r="G9" s="3">
-        <v>147200</v>
+        <v>221900</v>
       </c>
       <c r="H9" s="3">
-        <v>69300</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>145700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>68600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -786,29 +792,32 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>206300</v>
+        <v>232400</v>
       </c>
       <c r="E10" s="3">
-        <v>178600</v>
+        <v>204200</v>
       </c>
       <c r="F10" s="3">
-        <v>110100</v>
+        <v>176800</v>
       </c>
       <c r="G10" s="3">
-        <v>55800</v>
+        <v>109000</v>
       </c>
       <c r="H10" s="3">
-        <v>14300</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>55200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>14100</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,28 +851,29 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>191700</v>
+        <v>198100</v>
       </c>
       <c r="E12" s="3">
-        <v>162400</v>
+        <v>189700</v>
       </c>
       <c r="F12" s="3">
-        <v>132600</v>
+        <v>160700</v>
       </c>
       <c r="G12" s="3">
-        <v>60300</v>
+        <v>131200</v>
       </c>
       <c r="H12" s="3">
-        <v>72200</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>59700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>71500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,23 +926,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11200</v>
+        <v>7800</v>
       </c>
       <c r="E14" s="3">
-        <v>19300</v>
+        <v>11100</v>
       </c>
       <c r="F14" s="3">
-        <v>6500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>19100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -943,32 +962,35 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19800</v>
+        <v>18800</v>
       </c>
       <c r="E15" s="3">
-        <v>63800</v>
+        <v>19600</v>
       </c>
       <c r="F15" s="3">
-        <v>21400</v>
+        <v>63100</v>
       </c>
       <c r="G15" s="3">
-        <v>18100</v>
+        <v>21200</v>
       </c>
       <c r="H15" s="3">
-        <v>12900</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+        <v>17900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>12700</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,28 +1021,29 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>795200</v>
+        <v>775700</v>
       </c>
       <c r="E17" s="3">
-        <v>686900</v>
+        <v>787100</v>
       </c>
       <c r="F17" s="3">
-        <v>578600</v>
+        <v>679800</v>
       </c>
       <c r="G17" s="3">
-        <v>363100</v>
+        <v>572700</v>
       </c>
       <c r="H17" s="3">
-        <v>211400</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>359300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>209300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1031,29 +1057,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-201700</v>
+        <v>-141100</v>
       </c>
       <c r="E18" s="3">
-        <v>-211200</v>
+        <v>-199700</v>
       </c>
       <c r="F18" s="3">
-        <v>-244300</v>
+        <v>-209000</v>
       </c>
       <c r="G18" s="3">
-        <v>-160000</v>
+        <v>-241800</v>
       </c>
       <c r="H18" s="3">
-        <v>-127900</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-158400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-126600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,8 +1116,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1093,20 +1126,20 @@
         <v>5300</v>
       </c>
       <c r="E20" s="3">
-        <v>9900</v>
+        <v>5200</v>
       </c>
       <c r="F20" s="3">
-        <v>16000</v>
+        <v>9800</v>
       </c>
       <c r="G20" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="H20" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,29 +1152,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-133300</v>
+        <v>-95500</v>
       </c>
       <c r="E21" s="3">
-        <v>-140700</v>
+        <v>-131700</v>
       </c>
       <c r="F21" s="3">
-        <v>-162200</v>
+        <v>-139000</v>
       </c>
       <c r="G21" s="3">
-        <v>-93100</v>
+        <v>-160300</v>
       </c>
       <c r="H21" s="3">
-        <v>-86600</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-92000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-85600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1155,29 +1191,32 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10700</v>
+        <v>5000</v>
       </c>
       <c r="E22" s="3">
-        <v>21500</v>
+        <v>10600</v>
       </c>
       <c r="F22" s="3">
-        <v>24800</v>
+        <v>21300</v>
       </c>
       <c r="G22" s="3">
-        <v>23100</v>
+        <v>24500</v>
       </c>
       <c r="H22" s="3">
-        <v>12300</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>22800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>12200</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1191,29 +1230,32 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-207200</v>
+        <v>-140800</v>
       </c>
       <c r="E23" s="3">
-        <v>-222800</v>
+        <v>-205100</v>
       </c>
       <c r="F23" s="3">
-        <v>-253100</v>
+        <v>-220500</v>
       </c>
       <c r="G23" s="3">
-        <v>-167100</v>
+        <v>-250500</v>
       </c>
       <c r="H23" s="3">
-        <v>-140300</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-165400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-138800</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1227,29 +1269,32 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-16100</v>
+        <v>-8800</v>
       </c>
       <c r="E24" s="3">
-        <v>-19700</v>
+        <v>-15900</v>
       </c>
       <c r="F24" s="3">
-        <v>-10800</v>
+        <v>-19500</v>
       </c>
       <c r="G24" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="H24" s="3">
         <v>3800</v>
       </c>
-      <c r="H24" s="3">
-        <v>-53100</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>-52500</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,29 +1347,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-191100</v>
+        <v>-131900</v>
       </c>
       <c r="E26" s="3">
-        <v>-203100</v>
+        <v>-189100</v>
       </c>
       <c r="F26" s="3">
-        <v>-242400</v>
+        <v>-201000</v>
       </c>
       <c r="G26" s="3">
-        <v>-170900</v>
+        <v>-239900</v>
       </c>
       <c r="H26" s="3">
-        <v>-87200</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-169200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-86300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1335,29 +1386,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-184100</v>
+        <v>-124000</v>
       </c>
       <c r="E27" s="3">
-        <v>-194400</v>
+        <v>-182200</v>
       </c>
       <c r="F27" s="3">
-        <v>-238500</v>
+        <v>-192400</v>
       </c>
       <c r="G27" s="3">
-        <v>-171700</v>
+        <v>-236000</v>
       </c>
       <c r="H27" s="3">
-        <v>-87200</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-170000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-86300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,9 +1581,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1525,20 +1594,20 @@
         <v>-5300</v>
       </c>
       <c r="E32" s="3">
-        <v>-9900</v>
+        <v>-5200</v>
       </c>
       <c r="F32" s="3">
-        <v>-16000</v>
+        <v>-9800</v>
       </c>
       <c r="G32" s="3">
-        <v>-16000</v>
+        <v>-15800</v>
       </c>
       <c r="H32" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,29 +1620,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-184100</v>
+        <v>-124000</v>
       </c>
       <c r="E33" s="3">
-        <v>-194400</v>
+        <v>-182200</v>
       </c>
       <c r="F33" s="3">
-        <v>-238500</v>
+        <v>-192400</v>
       </c>
       <c r="G33" s="3">
-        <v>-171700</v>
+        <v>-236000</v>
       </c>
       <c r="H33" s="3">
-        <v>-87200</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-170000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-86300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,29 +1698,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-184100</v>
+        <v>-124000</v>
       </c>
       <c r="E35" s="3">
-        <v>-194400</v>
+        <v>-182200</v>
       </c>
       <c r="F35" s="3">
-        <v>-238500</v>
+        <v>-192400</v>
       </c>
       <c r="G35" s="3">
-        <v>-171700</v>
+        <v>-236000</v>
       </c>
       <c r="H35" s="3">
-        <v>-87200</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-170000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-86300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1659,35 +1737,38 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,28 +1818,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>201000</v>
+        <v>271200</v>
       </c>
       <c r="E41" s="3">
-        <v>438800</v>
+        <v>198900</v>
       </c>
       <c r="F41" s="3">
-        <v>154800</v>
+        <v>434300</v>
       </c>
       <c r="G41" s="3">
-        <v>81100</v>
+        <v>153200</v>
       </c>
       <c r="H41" s="3">
-        <v>121800</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>80300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>120500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1768,29 +1854,32 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>368700</v>
+        <v>273500</v>
       </c>
       <c r="E42" s="3">
-        <v>296500</v>
+        <v>364900</v>
       </c>
       <c r="F42" s="3">
-        <v>242900</v>
+        <v>293400</v>
       </c>
       <c r="G42" s="3">
-        <v>364900</v>
+        <v>240400</v>
       </c>
       <c r="H42" s="3">
-        <v>124000</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>361200</v>
+      </c>
+      <c r="I42" s="3">
+        <v>122700</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1804,29 +1893,32 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>169000</v>
+        <v>170600</v>
       </c>
       <c r="E43" s="3">
-        <v>174400</v>
+        <v>167200</v>
       </c>
       <c r="F43" s="3">
-        <v>164400</v>
+        <v>172600</v>
       </c>
       <c r="G43" s="3">
-        <v>87100</v>
+        <v>162700</v>
       </c>
       <c r="H43" s="3">
-        <v>37100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>86200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>36700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1840,9 +1932,12 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,29 +1971,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>252200</v>
+        <v>190800</v>
       </c>
       <c r="E45" s="3">
-        <v>374300</v>
+        <v>249600</v>
       </c>
       <c r="F45" s="3">
-        <v>537900</v>
+        <v>370500</v>
       </c>
       <c r="G45" s="3">
-        <v>595500</v>
+        <v>532400</v>
       </c>
       <c r="H45" s="3">
-        <v>13700</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>589400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>13600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1912,29 +2010,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>990700</v>
+        <v>906100</v>
       </c>
       <c r="E46" s="3">
-        <v>1283900</v>
+        <v>980600</v>
       </c>
       <c r="F46" s="3">
-        <v>1100000</v>
+        <v>1270800</v>
       </c>
       <c r="G46" s="3">
-        <v>1128700</v>
+        <v>1088700</v>
       </c>
       <c r="H46" s="3">
-        <v>296600</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>1117100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>293500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1948,30 +2049,33 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>118800</v>
+        <v>145000</v>
       </c>
       <c r="E47" s="3">
-        <v>34400</v>
+        <v>117600</v>
       </c>
       <c r="F47" s="3">
-        <v>79500</v>
+        <v>34100</v>
       </c>
       <c r="G47" s="3">
-        <v>14000</v>
+        <v>78600</v>
       </c>
       <c r="H47" s="3">
+        <v>13900</v>
+      </c>
+      <c r="I47" s="3">
         <v>7500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,29 +2088,32 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35100</v>
+        <v>21500</v>
       </c>
       <c r="E48" s="3">
-        <v>32200</v>
+        <v>34700</v>
       </c>
       <c r="F48" s="3">
-        <v>45200</v>
+        <v>31900</v>
       </c>
       <c r="G48" s="3">
-        <v>45900</v>
+        <v>44700</v>
       </c>
       <c r="H48" s="3">
-        <v>23100</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>45400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>22900</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2020,29 +2127,32 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>98700</v>
+        <v>81100</v>
       </c>
       <c r="E49" s="3">
-        <v>131700</v>
+        <v>97700</v>
       </c>
       <c r="F49" s="3">
-        <v>140300</v>
+        <v>130400</v>
       </c>
       <c r="G49" s="3">
-        <v>108900</v>
+        <v>138900</v>
       </c>
       <c r="H49" s="3">
-        <v>52700</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>107800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>52200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,29 +2244,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98100</v>
+        <v>108900</v>
       </c>
       <c r="E52" s="3">
-        <v>81100</v>
+        <v>97100</v>
       </c>
       <c r="F52" s="3">
-        <v>60900</v>
+        <v>80300</v>
       </c>
       <c r="G52" s="3">
-        <v>50100</v>
+        <v>60200</v>
       </c>
       <c r="H52" s="3">
-        <v>53100</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>49600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>52600</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,29 +2322,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1341500</v>
+        <v>1262600</v>
       </c>
       <c r="E54" s="3">
-        <v>1563300</v>
+        <v>1327800</v>
       </c>
       <c r="F54" s="3">
-        <v>1425800</v>
+        <v>1547300</v>
       </c>
       <c r="G54" s="3">
-        <v>1347500</v>
+        <v>1411200</v>
       </c>
       <c r="H54" s="3">
-        <v>433100</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>1333700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>428700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,28 +2398,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>158200</v>
+        <v>107100</v>
       </c>
       <c r="E57" s="3">
-        <v>132200</v>
+        <v>156600</v>
       </c>
       <c r="F57" s="3">
-        <v>49800</v>
+        <v>130800</v>
       </c>
       <c r="G57" s="3">
-        <v>45500</v>
+        <v>49300</v>
       </c>
       <c r="H57" s="3">
-        <v>29900</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>45000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>29600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2304,29 +2434,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>125300</v>
+        <v>47800</v>
       </c>
       <c r="E58" s="3">
-        <v>340300</v>
+        <v>124100</v>
       </c>
       <c r="F58" s="3">
-        <v>476900</v>
+        <v>336800</v>
       </c>
       <c r="G58" s="3">
-        <v>486300</v>
+        <v>472000</v>
       </c>
       <c r="H58" s="3">
-        <v>215800</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>481300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>213500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2340,29 +2473,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>457900</v>
+        <v>619300</v>
       </c>
       <c r="E59" s="3">
-        <v>269600</v>
+        <v>453200</v>
       </c>
       <c r="F59" s="3">
-        <v>182800</v>
+        <v>266800</v>
       </c>
       <c r="G59" s="3">
-        <v>203900</v>
+        <v>180900</v>
       </c>
       <c r="H59" s="3">
-        <v>165300</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>201800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>163600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2376,29 +2512,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>741400</v>
+        <v>774200</v>
       </c>
       <c r="E60" s="3">
-        <v>742000</v>
+        <v>733800</v>
       </c>
       <c r="F60" s="3">
-        <v>709500</v>
+        <v>734400</v>
       </c>
       <c r="G60" s="3">
-        <v>735700</v>
+        <v>702200</v>
       </c>
       <c r="H60" s="3">
-        <v>411000</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>728100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>406800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2412,23 +2551,26 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14000</v>
+        <v>6300</v>
       </c>
       <c r="E61" s="3">
-        <v>6900</v>
+        <v>13900</v>
       </c>
       <c r="F61" s="3">
-        <v>12600</v>
+        <v>6800</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2448,29 +2590,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>35300</v>
+        <v>16100</v>
       </c>
       <c r="E62" s="3">
-        <v>55300</v>
+        <v>34900</v>
       </c>
       <c r="F62" s="3">
-        <v>54400</v>
+        <v>54800</v>
       </c>
       <c r="G62" s="3">
-        <v>61600</v>
+        <v>53900</v>
       </c>
       <c r="H62" s="3">
-        <v>27100</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>61000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>26900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,29 +2746,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>796600</v>
+        <v>794600</v>
       </c>
       <c r="E66" s="3">
-        <v>817200</v>
+        <v>788500</v>
       </c>
       <c r="F66" s="3">
-        <v>798100</v>
+        <v>808800</v>
       </c>
       <c r="G66" s="3">
-        <v>813200</v>
+        <v>790000</v>
       </c>
       <c r="H66" s="3">
-        <v>438100</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>804900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>433600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,30 +2958,33 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>544900</v>
+        <v>468000</v>
       </c>
       <c r="E72" s="3">
-        <v>746100</v>
+        <v>539300</v>
       </c>
       <c r="F72" s="3">
-        <v>627600</v>
+        <v>738500</v>
       </c>
       <c r="G72" s="3">
-        <v>534300</v>
+        <v>621200</v>
       </c>
       <c r="H72" s="3">
+        <v>528900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-5000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,30 +3114,33 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>544900</v>
+        <v>468100</v>
       </c>
       <c r="E76" s="3">
-        <v>746200</v>
+        <v>539300</v>
       </c>
       <c r="F76" s="3">
-        <v>627600</v>
+        <v>738500</v>
       </c>
       <c r="G76" s="3">
-        <v>534300</v>
+        <v>621200</v>
       </c>
       <c r="H76" s="3">
+        <v>528900</v>
+      </c>
+      <c r="I76" s="3">
         <v>-5000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,35 +3192,38 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,29 +3236,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-184100</v>
+        <v>-124000</v>
       </c>
       <c r="E81" s="3">
-        <v>-194400</v>
+        <v>-182200</v>
       </c>
       <c r="F81" s="3">
-        <v>-238500</v>
+        <v>-192400</v>
       </c>
       <c r="G81" s="3">
-        <v>-171700</v>
+        <v>-236000</v>
       </c>
       <c r="H81" s="3">
-        <v>-87200</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-170000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-86300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,28 +3295,29 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>63000</v>
+        <v>40000</v>
       </c>
       <c r="E83" s="3">
-        <v>60500</v>
+        <v>62400</v>
       </c>
       <c r="F83" s="3">
-        <v>66000</v>
+        <v>59900</v>
       </c>
       <c r="G83" s="3">
-        <v>50800</v>
+        <v>65400</v>
       </c>
       <c r="H83" s="3">
-        <v>41300</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>50300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>40900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,29 +3526,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-58100</v>
+        <v>-106000</v>
       </c>
       <c r="E89" s="3">
-        <v>-101100</v>
+        <v>-57500</v>
       </c>
       <c r="F89" s="3">
-        <v>-261000</v>
+        <v>-100100</v>
       </c>
       <c r="G89" s="3">
-        <v>-70300</v>
+        <v>-258400</v>
       </c>
       <c r="H89" s="3">
-        <v>-32800</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-69500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-32500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,28 +3585,29 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-14000</v>
-      </c>
       <c r="G91" s="3">
-        <v>-12200</v>
+        <v>-13900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-12100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,29 +3699,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>55800</v>
+        <v>266300</v>
       </c>
       <c r="E94" s="3">
-        <v>189000</v>
+        <v>55200</v>
       </c>
       <c r="F94" s="3">
-        <v>82000</v>
+        <v>187000</v>
       </c>
       <c r="G94" s="3">
-        <v>-833800</v>
+        <v>81100</v>
       </c>
       <c r="H94" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-825200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-18000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,29 +3911,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-231500</v>
+        <v>-98700</v>
       </c>
       <c r="E100" s="3">
-        <v>220300</v>
+        <v>-229100</v>
       </c>
       <c r="F100" s="3">
-        <v>252000</v>
+        <v>218000</v>
       </c>
       <c r="G100" s="3">
-        <v>861600</v>
+        <v>249400</v>
       </c>
       <c r="H100" s="3">
-        <v>161600</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>852800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>159900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3705,29 +3950,32 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
-        <v>-24100</v>
-      </c>
       <c r="F101" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1800</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3741,29 +3989,32 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-237800</v>
+        <v>72300</v>
       </c>
       <c r="E102" s="3">
-        <v>284000</v>
+        <v>-235400</v>
       </c>
       <c r="F102" s="3">
-        <v>73700</v>
+        <v>281100</v>
       </c>
       <c r="G102" s="3">
-        <v>-40600</v>
+        <v>72900</v>
       </c>
       <c r="H102" s="3">
-        <v>110500</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>-40200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>109400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>634600</v>
+        <v>615100</v>
       </c>
       <c r="E8" s="3">
-        <v>587400</v>
+        <v>569400</v>
       </c>
       <c r="F8" s="3">
-        <v>470800</v>
+        <v>456400</v>
       </c>
       <c r="G8" s="3">
-        <v>330900</v>
+        <v>320700</v>
       </c>
       <c r="H8" s="3">
-        <v>200900</v>
+        <v>194800</v>
       </c>
       <c r="I8" s="3">
-        <v>82700</v>
+        <v>80200</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>402100</v>
+        <v>389800</v>
       </c>
       <c r="E9" s="3">
-        <v>383200</v>
+        <v>371400</v>
       </c>
       <c r="F9" s="3">
-        <v>294100</v>
+        <v>285000</v>
       </c>
       <c r="G9" s="3">
-        <v>221900</v>
+        <v>215100</v>
       </c>
       <c r="H9" s="3">
-        <v>145700</v>
+        <v>141200</v>
       </c>
       <c r="I9" s="3">
-        <v>68600</v>
+        <v>66500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>232400</v>
+        <v>225300</v>
       </c>
       <c r="E10" s="3">
-        <v>204200</v>
+        <v>197900</v>
       </c>
       <c r="F10" s="3">
-        <v>176800</v>
+        <v>171300</v>
       </c>
       <c r="G10" s="3">
-        <v>109000</v>
+        <v>105700</v>
       </c>
       <c r="H10" s="3">
-        <v>55200</v>
+        <v>53500</v>
       </c>
       <c r="I10" s="3">
-        <v>14100</v>
+        <v>13700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>198100</v>
+        <v>192000</v>
       </c>
       <c r="E12" s="3">
-        <v>189700</v>
+        <v>183900</v>
       </c>
       <c r="F12" s="3">
-        <v>160700</v>
+        <v>155800</v>
       </c>
       <c r="G12" s="3">
-        <v>131200</v>
+        <v>127200</v>
       </c>
       <c r="H12" s="3">
-        <v>59700</v>
+        <v>57900</v>
       </c>
       <c r="I12" s="3">
-        <v>71500</v>
+        <v>69300</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -936,16 +936,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="E14" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="F14" s="3">
-        <v>19100</v>
+        <v>18500</v>
       </c>
       <c r="G14" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -975,22 +975,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="E15" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="F15" s="3">
-        <v>63100</v>
+        <v>61200</v>
       </c>
       <c r="G15" s="3">
-        <v>21200</v>
+        <v>20500</v>
       </c>
       <c r="H15" s="3">
-        <v>17900</v>
+        <v>17400</v>
       </c>
       <c r="I15" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>775700</v>
+        <v>751800</v>
       </c>
       <c r="E17" s="3">
-        <v>787100</v>
+        <v>762900</v>
       </c>
       <c r="F17" s="3">
-        <v>679800</v>
+        <v>658900</v>
       </c>
       <c r="G17" s="3">
-        <v>572700</v>
+        <v>555100</v>
       </c>
       <c r="H17" s="3">
-        <v>359300</v>
+        <v>348300</v>
       </c>
       <c r="I17" s="3">
-        <v>209300</v>
+        <v>202800</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-141100</v>
+        <v>-136800</v>
       </c>
       <c r="E18" s="3">
-        <v>-199700</v>
+        <v>-193500</v>
       </c>
       <c r="F18" s="3">
-        <v>-209000</v>
+        <v>-202600</v>
       </c>
       <c r="G18" s="3">
-        <v>-241800</v>
+        <v>-234400</v>
       </c>
       <c r="H18" s="3">
-        <v>-158400</v>
+        <v>-153500</v>
       </c>
       <c r="I18" s="3">
-        <v>-126600</v>
+        <v>-122700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="E20" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="F20" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="G20" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="H20" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-95500</v>
+        <v>-92800</v>
       </c>
       <c r="E21" s="3">
-        <v>-131700</v>
+        <v>-128000</v>
       </c>
       <c r="F21" s="3">
-        <v>-139000</v>
+        <v>-135100</v>
       </c>
       <c r="G21" s="3">
-        <v>-160300</v>
+        <v>-155700</v>
       </c>
       <c r="H21" s="3">
-        <v>-92000</v>
+        <v>-89400</v>
       </c>
       <c r="I21" s="3">
-        <v>-85600</v>
+        <v>-83100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1201,22 +1201,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E22" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="F22" s="3">
-        <v>21300</v>
+        <v>20600</v>
       </c>
       <c r="G22" s="3">
-        <v>24500</v>
+        <v>23800</v>
       </c>
       <c r="H22" s="3">
-        <v>22800</v>
+        <v>22100</v>
       </c>
       <c r="I22" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-140800</v>
+        <v>-136400</v>
       </c>
       <c r="E23" s="3">
-        <v>-205100</v>
+        <v>-198800</v>
       </c>
       <c r="F23" s="3">
-        <v>-220500</v>
+        <v>-213700</v>
       </c>
       <c r="G23" s="3">
-        <v>-250500</v>
+        <v>-242800</v>
       </c>
       <c r="H23" s="3">
-        <v>-165400</v>
+        <v>-160400</v>
       </c>
       <c r="I23" s="3">
-        <v>-138800</v>
+        <v>-134600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1279,22 +1279,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-8800</v>
+        <v>-8600</v>
       </c>
       <c r="E24" s="3">
-        <v>-15900</v>
+        <v>-15400</v>
       </c>
       <c r="F24" s="3">
-        <v>-19500</v>
+        <v>-18900</v>
       </c>
       <c r="G24" s="3">
-        <v>-10700</v>
+        <v>-10300</v>
       </c>
       <c r="H24" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="I24" s="3">
-        <v>-52500</v>
+        <v>-50900</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-131900</v>
+        <v>-127900</v>
       </c>
       <c r="E26" s="3">
-        <v>-189100</v>
+        <v>-183300</v>
       </c>
       <c r="F26" s="3">
-        <v>-201000</v>
+        <v>-194800</v>
       </c>
       <c r="G26" s="3">
-        <v>-239900</v>
+        <v>-232500</v>
       </c>
       <c r="H26" s="3">
-        <v>-169200</v>
+        <v>-164000</v>
       </c>
       <c r="I26" s="3">
-        <v>-86300</v>
+        <v>-83600</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-124000</v>
+        <v>-120200</v>
       </c>
       <c r="E27" s="3">
-        <v>-182200</v>
+        <v>-176600</v>
       </c>
       <c r="F27" s="3">
-        <v>-192400</v>
+        <v>-186500</v>
       </c>
       <c r="G27" s="3">
-        <v>-236000</v>
+        <v>-228800</v>
       </c>
       <c r="H27" s="3">
-        <v>-170000</v>
+        <v>-164700</v>
       </c>
       <c r="I27" s="3">
-        <v>-86300</v>
+        <v>-83600</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1591,19 +1591,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="E32" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="F32" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="G32" s="3">
-        <v>-15800</v>
+        <v>-15300</v>
       </c>
       <c r="H32" s="3">
-        <v>-15800</v>
+        <v>-15300</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-124000</v>
+        <v>-120200</v>
       </c>
       <c r="E33" s="3">
-        <v>-182200</v>
+        <v>-176600</v>
       </c>
       <c r="F33" s="3">
-        <v>-192400</v>
+        <v>-186500</v>
       </c>
       <c r="G33" s="3">
-        <v>-236000</v>
+        <v>-228800</v>
       </c>
       <c r="H33" s="3">
-        <v>-170000</v>
+        <v>-164700</v>
       </c>
       <c r="I33" s="3">
-        <v>-86300</v>
+        <v>-83600</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-124000</v>
+        <v>-120200</v>
       </c>
       <c r="E35" s="3">
-        <v>-182200</v>
+        <v>-176600</v>
       </c>
       <c r="F35" s="3">
-        <v>-192400</v>
+        <v>-186500</v>
       </c>
       <c r="G35" s="3">
-        <v>-236000</v>
+        <v>-228800</v>
       </c>
       <c r="H35" s="3">
-        <v>-170000</v>
+        <v>-164700</v>
       </c>
       <c r="I35" s="3">
-        <v>-86300</v>
+        <v>-83600</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>271200</v>
+        <v>262900</v>
       </c>
       <c r="E41" s="3">
-        <v>198900</v>
+        <v>192800</v>
       </c>
       <c r="F41" s="3">
-        <v>434300</v>
+        <v>420900</v>
       </c>
       <c r="G41" s="3">
-        <v>153200</v>
+        <v>148500</v>
       </c>
       <c r="H41" s="3">
-        <v>80300</v>
+        <v>77800</v>
       </c>
       <c r="I41" s="3">
-        <v>120500</v>
+        <v>116800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>273500</v>
+        <v>265100</v>
       </c>
       <c r="E42" s="3">
-        <v>364900</v>
+        <v>353700</v>
       </c>
       <c r="F42" s="3">
-        <v>293400</v>
+        <v>284400</v>
       </c>
       <c r="G42" s="3">
-        <v>240400</v>
+        <v>233000</v>
       </c>
       <c r="H42" s="3">
-        <v>361200</v>
+        <v>350100</v>
       </c>
       <c r="I42" s="3">
-        <v>122700</v>
+        <v>118900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>170600</v>
+        <v>165400</v>
       </c>
       <c r="E43" s="3">
-        <v>167200</v>
+        <v>162100</v>
       </c>
       <c r="F43" s="3">
-        <v>172600</v>
+        <v>167300</v>
       </c>
       <c r="G43" s="3">
-        <v>162700</v>
+        <v>157700</v>
       </c>
       <c r="H43" s="3">
-        <v>86200</v>
+        <v>83500</v>
       </c>
       <c r="I43" s="3">
-        <v>36700</v>
+        <v>35600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>190800</v>
+        <v>184900</v>
       </c>
       <c r="E45" s="3">
-        <v>249600</v>
+        <v>241900</v>
       </c>
       <c r="F45" s="3">
-        <v>370500</v>
+        <v>359100</v>
       </c>
       <c r="G45" s="3">
-        <v>532400</v>
+        <v>516000</v>
       </c>
       <c r="H45" s="3">
-        <v>589400</v>
+        <v>571300</v>
       </c>
       <c r="I45" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>906100</v>
+        <v>878200</v>
       </c>
       <c r="E46" s="3">
-        <v>980600</v>
+        <v>950500</v>
       </c>
       <c r="F46" s="3">
-        <v>1270800</v>
+        <v>1231700</v>
       </c>
       <c r="G46" s="3">
-        <v>1088700</v>
+        <v>1055200</v>
       </c>
       <c r="H46" s="3">
-        <v>1117100</v>
+        <v>1082800</v>
       </c>
       <c r="I46" s="3">
-        <v>293500</v>
+        <v>284500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,22 +2059,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>145000</v>
+        <v>140600</v>
       </c>
       <c r="E47" s="3">
-        <v>117600</v>
+        <v>114000</v>
       </c>
       <c r="F47" s="3">
-        <v>34100</v>
+        <v>33000</v>
       </c>
       <c r="G47" s="3">
-        <v>78600</v>
+        <v>76200</v>
       </c>
       <c r="H47" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="I47" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21500</v>
+        <v>20900</v>
       </c>
       <c r="E48" s="3">
-        <v>34700</v>
+        <v>33700</v>
       </c>
       <c r="F48" s="3">
-        <v>31900</v>
+        <v>30900</v>
       </c>
       <c r="G48" s="3">
-        <v>44700</v>
+        <v>43300</v>
       </c>
       <c r="H48" s="3">
-        <v>45400</v>
+        <v>44000</v>
       </c>
       <c r="I48" s="3">
-        <v>22900</v>
+        <v>22200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2137,22 +2137,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>81100</v>
+        <v>78600</v>
       </c>
       <c r="E49" s="3">
-        <v>97700</v>
+        <v>94700</v>
       </c>
       <c r="F49" s="3">
-        <v>130400</v>
+        <v>126400</v>
       </c>
       <c r="G49" s="3">
-        <v>138900</v>
+        <v>134600</v>
       </c>
       <c r="H49" s="3">
-        <v>107800</v>
+        <v>104400</v>
       </c>
       <c r="I49" s="3">
-        <v>52200</v>
+        <v>50600</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>108900</v>
+        <v>105500</v>
       </c>
       <c r="E52" s="3">
-        <v>97100</v>
+        <v>94100</v>
       </c>
       <c r="F52" s="3">
-        <v>80300</v>
+        <v>77800</v>
       </c>
       <c r="G52" s="3">
-        <v>60200</v>
+        <v>58400</v>
       </c>
       <c r="H52" s="3">
-        <v>49600</v>
+        <v>48000</v>
       </c>
       <c r="I52" s="3">
-        <v>52600</v>
+        <v>51000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1262600</v>
+        <v>1223800</v>
       </c>
       <c r="E54" s="3">
-        <v>1327800</v>
+        <v>1286900</v>
       </c>
       <c r="F54" s="3">
-        <v>1547300</v>
+        <v>1499800</v>
       </c>
       <c r="G54" s="3">
-        <v>1411200</v>
+        <v>1367800</v>
       </c>
       <c r="H54" s="3">
-        <v>1333700</v>
+        <v>1292700</v>
       </c>
       <c r="I54" s="3">
-        <v>428700</v>
+        <v>415500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>107100</v>
+        <v>103800</v>
       </c>
       <c r="E57" s="3">
-        <v>156600</v>
+        <v>151800</v>
       </c>
       <c r="F57" s="3">
-        <v>130800</v>
+        <v>126800</v>
       </c>
       <c r="G57" s="3">
-        <v>49300</v>
+        <v>47800</v>
       </c>
       <c r="H57" s="3">
-        <v>45000</v>
+        <v>43600</v>
       </c>
       <c r="I57" s="3">
-        <v>29600</v>
+        <v>28700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2444,22 +2444,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>47800</v>
+        <v>46300</v>
       </c>
       <c r="E58" s="3">
-        <v>124100</v>
+        <v>120200</v>
       </c>
       <c r="F58" s="3">
-        <v>336800</v>
+        <v>326500</v>
       </c>
       <c r="G58" s="3">
-        <v>472000</v>
+        <v>457500</v>
       </c>
       <c r="H58" s="3">
-        <v>481300</v>
+        <v>466500</v>
       </c>
       <c r="I58" s="3">
-        <v>213500</v>
+        <v>207000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>619300</v>
+        <v>600300</v>
       </c>
       <c r="E59" s="3">
-        <v>453200</v>
+        <v>439200</v>
       </c>
       <c r="F59" s="3">
-        <v>266800</v>
+        <v>258600</v>
       </c>
       <c r="G59" s="3">
-        <v>180900</v>
+        <v>175300</v>
       </c>
       <c r="H59" s="3">
-        <v>201800</v>
+        <v>195600</v>
       </c>
       <c r="I59" s="3">
-        <v>163600</v>
+        <v>158500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>774200</v>
+        <v>750400</v>
       </c>
       <c r="E60" s="3">
-        <v>733800</v>
+        <v>711300</v>
       </c>
       <c r="F60" s="3">
-        <v>734400</v>
+        <v>711900</v>
       </c>
       <c r="G60" s="3">
-        <v>702200</v>
+        <v>680600</v>
       </c>
       <c r="H60" s="3">
-        <v>728100</v>
+        <v>705800</v>
       </c>
       <c r="I60" s="3">
-        <v>406800</v>
+        <v>394300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,16 +2561,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="E61" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="F61" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="G61" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="E62" s="3">
-        <v>34900</v>
+        <v>33800</v>
       </c>
       <c r="F62" s="3">
-        <v>54800</v>
+        <v>53100</v>
       </c>
       <c r="G62" s="3">
-        <v>53900</v>
+        <v>52200</v>
       </c>
       <c r="H62" s="3">
-        <v>61000</v>
+        <v>59100</v>
       </c>
       <c r="I62" s="3">
-        <v>26900</v>
+        <v>26000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>794600</v>
+        <v>770100</v>
       </c>
       <c r="E66" s="3">
-        <v>788500</v>
+        <v>764200</v>
       </c>
       <c r="F66" s="3">
-        <v>808800</v>
+        <v>784000</v>
       </c>
       <c r="G66" s="3">
-        <v>790000</v>
+        <v>765700</v>
       </c>
       <c r="H66" s="3">
-        <v>804900</v>
+        <v>780100</v>
       </c>
       <c r="I66" s="3">
-        <v>433600</v>
+        <v>420300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>468000</v>
+        <v>453700</v>
       </c>
       <c r="E72" s="3">
-        <v>539300</v>
+        <v>522700</v>
       </c>
       <c r="F72" s="3">
-        <v>738500</v>
+        <v>715800</v>
       </c>
       <c r="G72" s="3">
-        <v>621200</v>
+        <v>602100</v>
       </c>
       <c r="H72" s="3">
-        <v>528900</v>
+        <v>512600</v>
       </c>
       <c r="I72" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>468100</v>
+        <v>453700</v>
       </c>
       <c r="E76" s="3">
-        <v>539300</v>
+        <v>522700</v>
       </c>
       <c r="F76" s="3">
-        <v>738500</v>
+        <v>715800</v>
       </c>
       <c r="G76" s="3">
-        <v>621200</v>
+        <v>602100</v>
       </c>
       <c r="H76" s="3">
-        <v>528900</v>
+        <v>512600</v>
       </c>
       <c r="I76" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-124000</v>
+        <v>-120200</v>
       </c>
       <c r="E81" s="3">
-        <v>-182200</v>
+        <v>-176600</v>
       </c>
       <c r="F81" s="3">
-        <v>-192400</v>
+        <v>-186500</v>
       </c>
       <c r="G81" s="3">
-        <v>-236000</v>
+        <v>-228800</v>
       </c>
       <c r="H81" s="3">
-        <v>-170000</v>
+        <v>-164700</v>
       </c>
       <c r="I81" s="3">
-        <v>-86300</v>
+        <v>-83600</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3302,22 +3302,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>40000</v>
+        <v>38800</v>
       </c>
       <c r="E83" s="3">
-        <v>62400</v>
+        <v>60500</v>
       </c>
       <c r="F83" s="3">
-        <v>59900</v>
+        <v>58000</v>
       </c>
       <c r="G83" s="3">
-        <v>65400</v>
+        <v>63400</v>
       </c>
       <c r="H83" s="3">
-        <v>50300</v>
+        <v>48800</v>
       </c>
       <c r="I83" s="3">
-        <v>40900</v>
+        <v>39600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-106000</v>
+        <v>-102800</v>
       </c>
       <c r="E89" s="3">
-        <v>-57500</v>
+        <v>-55700</v>
       </c>
       <c r="F89" s="3">
-        <v>-100100</v>
+        <v>-97000</v>
       </c>
       <c r="G89" s="3">
-        <v>-258400</v>
+        <v>-250400</v>
       </c>
       <c r="H89" s="3">
-        <v>-69500</v>
+        <v>-67400</v>
       </c>
       <c r="I89" s="3">
-        <v>-32500</v>
+        <v>-31500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,19 +3592,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="E91" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="G91" s="3">
-        <v>-13900</v>
+        <v>-13500</v>
       </c>
       <c r="H91" s="3">
-        <v>-12100</v>
+        <v>-11700</v>
       </c>
       <c r="I91" s="3">
         <v>-2200</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>266300</v>
+        <v>258100</v>
       </c>
       <c r="E94" s="3">
-        <v>55200</v>
+        <v>53500</v>
       </c>
       <c r="F94" s="3">
-        <v>187000</v>
+        <v>181300</v>
       </c>
       <c r="G94" s="3">
-        <v>81100</v>
+        <v>78700</v>
       </c>
       <c r="H94" s="3">
-        <v>-825200</v>
+        <v>-799900</v>
       </c>
       <c r="I94" s="3">
-        <v>-18000</v>
+        <v>-17500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-98700</v>
+        <v>-95600</v>
       </c>
       <c r="E100" s="3">
-        <v>-229100</v>
+        <v>-222100</v>
       </c>
       <c r="F100" s="3">
-        <v>218000</v>
+        <v>211300</v>
       </c>
       <c r="G100" s="3">
-        <v>249400</v>
+        <v>241700</v>
       </c>
       <c r="H100" s="3">
-        <v>852800</v>
+        <v>826600</v>
       </c>
       <c r="I100" s="3">
-        <v>159900</v>
+        <v>155000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3960,19 +3960,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="E101" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="F101" s="3">
-        <v>-23900</v>
+        <v>-23200</v>
       </c>
       <c r="G101" s="3">
         <v>700</v>
       </c>
       <c r="H101" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>72300</v>
+        <v>70000</v>
       </c>
       <c r="E102" s="3">
-        <v>-235400</v>
+        <v>-228100</v>
       </c>
       <c r="F102" s="3">
-        <v>281100</v>
+        <v>272400</v>
       </c>
       <c r="G102" s="3">
-        <v>72900</v>
+        <v>70700</v>
       </c>
       <c r="H102" s="3">
-        <v>-40200</v>
+        <v>-39000</v>
       </c>
       <c r="I102" s="3">
-        <v>109400</v>
+        <v>106000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OCFT_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>615100</v>
+        <v>616400</v>
       </c>
       <c r="E8" s="3">
-        <v>569400</v>
+        <v>570600</v>
       </c>
       <c r="F8" s="3">
-        <v>456400</v>
+        <v>457400</v>
       </c>
       <c r="G8" s="3">
-        <v>320700</v>
+        <v>321400</v>
       </c>
       <c r="H8" s="3">
-        <v>194800</v>
+        <v>195200</v>
       </c>
       <c r="I8" s="3">
-        <v>80200</v>
+        <v>80400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>389800</v>
+        <v>390600</v>
       </c>
       <c r="E9" s="3">
-        <v>371400</v>
+        <v>372200</v>
       </c>
       <c r="F9" s="3">
-        <v>285000</v>
+        <v>285700</v>
       </c>
       <c r="G9" s="3">
-        <v>215100</v>
+        <v>215500</v>
       </c>
       <c r="H9" s="3">
-        <v>141200</v>
+        <v>141500</v>
       </c>
       <c r="I9" s="3">
-        <v>66500</v>
+        <v>66600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,19 +802,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>225300</v>
+        <v>225800</v>
       </c>
       <c r="E10" s="3">
-        <v>197900</v>
+        <v>198400</v>
       </c>
       <c r="F10" s="3">
-        <v>171300</v>
+        <v>171700</v>
       </c>
       <c r="G10" s="3">
-        <v>105700</v>
+        <v>105900</v>
       </c>
       <c r="H10" s="3">
-        <v>53500</v>
+        <v>53700</v>
       </c>
       <c r="I10" s="3">
         <v>13700</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>192000</v>
+        <v>192400</v>
       </c>
       <c r="E12" s="3">
-        <v>183900</v>
+        <v>184300</v>
       </c>
       <c r="F12" s="3">
-        <v>155800</v>
+        <v>156100</v>
       </c>
       <c r="G12" s="3">
-        <v>127200</v>
+        <v>127500</v>
       </c>
       <c r="H12" s="3">
-        <v>57900</v>
+        <v>58000</v>
       </c>
       <c r="I12" s="3">
-        <v>69300</v>
+        <v>69500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>7600</v>
       </c>
       <c r="E14" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="F14" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="G14" s="3">
         <v>6200</v>
@@ -975,22 +975,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="E15" s="3">
         <v>19000</v>
       </c>
       <c r="F15" s="3">
-        <v>61200</v>
+        <v>61300</v>
       </c>
       <c r="G15" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="H15" s="3">
         <v>17400</v>
       </c>
       <c r="I15" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>751800</v>
+        <v>753400</v>
       </c>
       <c r="E17" s="3">
-        <v>762900</v>
+        <v>764600</v>
       </c>
       <c r="F17" s="3">
-        <v>658900</v>
+        <v>660400</v>
       </c>
       <c r="G17" s="3">
-        <v>555100</v>
+        <v>556300</v>
       </c>
       <c r="H17" s="3">
-        <v>348300</v>
+        <v>349000</v>
       </c>
       <c r="I17" s="3">
-        <v>202800</v>
+        <v>203300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-136800</v>
+        <v>-137100</v>
       </c>
       <c r="E18" s="3">
-        <v>-193500</v>
+        <v>-194000</v>
       </c>
       <c r="F18" s="3">
-        <v>-202600</v>
+        <v>-203000</v>
       </c>
       <c r="G18" s="3">
-        <v>-234400</v>
+        <v>-234900</v>
       </c>
       <c r="H18" s="3">
-        <v>-153500</v>
+        <v>-153900</v>
       </c>
       <c r="I18" s="3">
-        <v>-122700</v>
+        <v>-122900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1132,10 +1132,10 @@
         <v>9500</v>
       </c>
       <c r="G20" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="H20" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-92800</v>
+        <v>-93000</v>
       </c>
       <c r="E21" s="3">
-        <v>-128000</v>
+        <v>-128300</v>
       </c>
       <c r="F21" s="3">
-        <v>-135100</v>
+        <v>-135400</v>
       </c>
       <c r="G21" s="3">
-        <v>-155700</v>
+        <v>-156100</v>
       </c>
       <c r="H21" s="3">
-        <v>-89400</v>
+        <v>-89700</v>
       </c>
       <c r="I21" s="3">
-        <v>-83100</v>
+        <v>-83400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1201,19 +1201,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="E22" s="3">
         <v>10300</v>
       </c>
       <c r="F22" s="3">
-        <v>20600</v>
+        <v>20700</v>
       </c>
       <c r="G22" s="3">
         <v>23800</v>
       </c>
       <c r="H22" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="I22" s="3">
         <v>11800</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-136400</v>
+        <v>-136700</v>
       </c>
       <c r="E23" s="3">
-        <v>-198800</v>
+        <v>-199200</v>
       </c>
       <c r="F23" s="3">
-        <v>-213700</v>
+        <v>-214200</v>
       </c>
       <c r="G23" s="3">
-        <v>-242800</v>
+        <v>-243400</v>
       </c>
       <c r="H23" s="3">
-        <v>-160400</v>
+        <v>-160700</v>
       </c>
       <c r="I23" s="3">
-        <v>-134600</v>
+        <v>-134900</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1282,7 +1282,7 @@
         <v>-8600</v>
       </c>
       <c r="E24" s="3">
-        <v>-15400</v>
+        <v>-15500</v>
       </c>
       <c r="F24" s="3">
         <v>-18900</v>
@@ -1291,10 +1291,10 @@
         <v>-10300</v>
       </c>
       <c r="H24" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I24" s="3">
-        <v>-50900</v>
+        <v>-51000</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-127900</v>
+        <v>-128100</v>
       </c>
       <c r="E26" s="3">
-        <v>-183300</v>
+        <v>-183700</v>
       </c>
       <c r="F26" s="3">
-        <v>-194800</v>
+        <v>-195300</v>
       </c>
       <c r="G26" s="3">
-        <v>-232500</v>
+        <v>-233000</v>
       </c>
       <c r="H26" s="3">
-        <v>-164000</v>
+        <v>-164400</v>
       </c>
       <c r="I26" s="3">
-        <v>-83600</v>
+        <v>-83800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-120200</v>
+        <v>-120400</v>
       </c>
       <c r="E27" s="3">
-        <v>-176600</v>
+        <v>-177000</v>
       </c>
       <c r="F27" s="3">
-        <v>-186500</v>
+        <v>-186900</v>
       </c>
       <c r="G27" s="3">
-        <v>-228800</v>
+        <v>-229300</v>
       </c>
       <c r="H27" s="3">
-        <v>-164700</v>
+        <v>-165100</v>
       </c>
       <c r="I27" s="3">
-        <v>-83600</v>
+        <v>-83800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1600,10 +1600,10 @@
         <v>-9500</v>
       </c>
       <c r="G32" s="3">
-        <v>-15300</v>
+        <v>-15400</v>
       </c>
       <c r="H32" s="3">
-        <v>-15300</v>
+        <v>-15400</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-120200</v>
+        <v>-120400</v>
       </c>
       <c r="E33" s="3">
-        <v>-176600</v>
+        <v>-177000</v>
       </c>
       <c r="F33" s="3">
-        <v>-186500</v>
+        <v>-186900</v>
       </c>
       <c r="G33" s="3">
-        <v>-228800</v>
+        <v>-229300</v>
       </c>
       <c r="H33" s="3">
-        <v>-164700</v>
+        <v>-165100</v>
       </c>
       <c r="I33" s="3">
-        <v>-83600</v>
+        <v>-83800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-120200</v>
+        <v>-120400</v>
       </c>
       <c r="E35" s="3">
-        <v>-176600</v>
+        <v>-177000</v>
       </c>
       <c r="F35" s="3">
-        <v>-186500</v>
+        <v>-186900</v>
       </c>
       <c r="G35" s="3">
-        <v>-228800</v>
+        <v>-229300</v>
       </c>
       <c r="H35" s="3">
-        <v>-164700</v>
+        <v>-165100</v>
       </c>
       <c r="I35" s="3">
-        <v>-83600</v>
+        <v>-83800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>262900</v>
+        <v>263400</v>
       </c>
       <c r="E41" s="3">
-        <v>192800</v>
+        <v>193200</v>
       </c>
       <c r="F41" s="3">
-        <v>420900</v>
+        <v>421900</v>
       </c>
       <c r="G41" s="3">
-        <v>148500</v>
+        <v>148800</v>
       </c>
       <c r="H41" s="3">
-        <v>77800</v>
+        <v>78000</v>
       </c>
       <c r="I41" s="3">
-        <v>116800</v>
+        <v>117100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>265100</v>
+        <v>265700</v>
       </c>
       <c r="E42" s="3">
-        <v>353700</v>
+        <v>354400</v>
       </c>
       <c r="F42" s="3">
-        <v>284400</v>
+        <v>285000</v>
       </c>
       <c r="G42" s="3">
-        <v>233000</v>
+        <v>233500</v>
       </c>
       <c r="H42" s="3">
-        <v>350100</v>
+        <v>350900</v>
       </c>
       <c r="I42" s="3">
-        <v>118900</v>
+        <v>119200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>165400</v>
+        <v>165700</v>
       </c>
       <c r="E43" s="3">
-        <v>162100</v>
+        <v>162400</v>
       </c>
       <c r="F43" s="3">
-        <v>167300</v>
+        <v>167600</v>
       </c>
       <c r="G43" s="3">
-        <v>157700</v>
+        <v>158100</v>
       </c>
       <c r="H43" s="3">
-        <v>83500</v>
+        <v>83700</v>
       </c>
       <c r="I43" s="3">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1981,19 +1981,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>184900</v>
+        <v>185300</v>
       </c>
       <c r="E45" s="3">
-        <v>241900</v>
+        <v>242400</v>
       </c>
       <c r="F45" s="3">
-        <v>359100</v>
+        <v>359900</v>
       </c>
       <c r="G45" s="3">
-        <v>516000</v>
+        <v>517100</v>
       </c>
       <c r="H45" s="3">
-        <v>571300</v>
+        <v>572500</v>
       </c>
       <c r="I45" s="3">
         <v>13200</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>878200</v>
+        <v>880200</v>
       </c>
       <c r="E46" s="3">
-        <v>950500</v>
+        <v>952500</v>
       </c>
       <c r="F46" s="3">
-        <v>1231700</v>
+        <v>1234400</v>
       </c>
       <c r="G46" s="3">
-        <v>1055200</v>
+        <v>1057500</v>
       </c>
       <c r="H46" s="3">
-        <v>1082800</v>
+        <v>1085100</v>
       </c>
       <c r="I46" s="3">
-        <v>284500</v>
+        <v>285100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,22 +2059,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>140600</v>
+        <v>140900</v>
       </c>
       <c r="E47" s="3">
-        <v>114000</v>
+        <v>114200</v>
       </c>
       <c r="F47" s="3">
-        <v>33000</v>
+        <v>33100</v>
       </c>
       <c r="G47" s="3">
-        <v>76200</v>
+        <v>76400</v>
       </c>
       <c r="H47" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="I47" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2104,13 +2104,13 @@
         <v>33700</v>
       </c>
       <c r="F48" s="3">
-        <v>30900</v>
+        <v>31000</v>
       </c>
       <c r="G48" s="3">
-        <v>43300</v>
+        <v>43400</v>
       </c>
       <c r="H48" s="3">
-        <v>44000</v>
+        <v>44100</v>
       </c>
       <c r="I48" s="3">
         <v>22200</v>
@@ -2137,22 +2137,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>78600</v>
+        <v>78800</v>
       </c>
       <c r="E49" s="3">
-        <v>94700</v>
+        <v>94900</v>
       </c>
       <c r="F49" s="3">
-        <v>126400</v>
+        <v>126600</v>
       </c>
       <c r="G49" s="3">
-        <v>134600</v>
+        <v>134900</v>
       </c>
       <c r="H49" s="3">
-        <v>104400</v>
+        <v>104700</v>
       </c>
       <c r="I49" s="3">
-        <v>50600</v>
+        <v>50700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>105500</v>
+        <v>105800</v>
       </c>
       <c r="E52" s="3">
-        <v>94100</v>
+        <v>94300</v>
       </c>
       <c r="F52" s="3">
-        <v>77800</v>
+        <v>78000</v>
       </c>
       <c r="G52" s="3">
-        <v>58400</v>
+        <v>58500</v>
       </c>
       <c r="H52" s="3">
-        <v>48000</v>
+        <v>48100</v>
       </c>
       <c r="I52" s="3">
-        <v>51000</v>
+        <v>51100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1223800</v>
+        <v>1226500</v>
       </c>
       <c r="E54" s="3">
-        <v>1286900</v>
+        <v>1289800</v>
       </c>
       <c r="F54" s="3">
-        <v>1499800</v>
+        <v>1503000</v>
       </c>
       <c r="G54" s="3">
-        <v>1367800</v>
+        <v>1370800</v>
       </c>
       <c r="H54" s="3">
-        <v>1292700</v>
+        <v>1295600</v>
       </c>
       <c r="I54" s="3">
-        <v>415500</v>
+        <v>416400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>103800</v>
+        <v>104100</v>
       </c>
       <c r="E57" s="3">
-        <v>151800</v>
+        <v>152100</v>
       </c>
       <c r="F57" s="3">
-        <v>126800</v>
+        <v>127100</v>
       </c>
       <c r="G57" s="3">
-        <v>47800</v>
+        <v>47900</v>
       </c>
       <c r="H57" s="3">
-        <v>43600</v>
+        <v>43700</v>
       </c>
       <c r="I57" s="3">
-        <v>28700</v>
+        <v>28800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2444,22 +2444,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>46300</v>
+        <v>46400</v>
       </c>
       <c r="E58" s="3">
-        <v>120200</v>
+        <v>120500</v>
       </c>
       <c r="F58" s="3">
-        <v>326500</v>
+        <v>327200</v>
       </c>
       <c r="G58" s="3">
-        <v>457500</v>
+        <v>458500</v>
       </c>
       <c r="H58" s="3">
-        <v>466500</v>
+        <v>467600</v>
       </c>
       <c r="I58" s="3">
-        <v>207000</v>
+        <v>207400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600300</v>
+        <v>601600</v>
       </c>
       <c r="E59" s="3">
-        <v>439200</v>
+        <v>440200</v>
       </c>
       <c r="F59" s="3">
-        <v>258600</v>
+        <v>259200</v>
       </c>
       <c r="G59" s="3">
-        <v>175300</v>
+        <v>175700</v>
       </c>
       <c r="H59" s="3">
-        <v>195600</v>
+        <v>196000</v>
       </c>
       <c r="I59" s="3">
-        <v>158500</v>
+        <v>158900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>750400</v>
+        <v>752000</v>
       </c>
       <c r="E60" s="3">
-        <v>711300</v>
+        <v>712800</v>
       </c>
       <c r="F60" s="3">
-        <v>711900</v>
+        <v>713400</v>
       </c>
       <c r="G60" s="3">
-        <v>680600</v>
+        <v>682100</v>
       </c>
       <c r="H60" s="3">
-        <v>705800</v>
+        <v>707300</v>
       </c>
       <c r="I60" s="3">
-        <v>394300</v>
+        <v>395100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,10 +2561,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="E61" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="F61" s="3">
         <v>6600</v>
@@ -2600,22 +2600,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="E62" s="3">
-        <v>33800</v>
+        <v>33900</v>
       </c>
       <c r="F62" s="3">
-        <v>53100</v>
+        <v>53200</v>
       </c>
       <c r="G62" s="3">
-        <v>52200</v>
+        <v>52300</v>
       </c>
       <c r="H62" s="3">
-        <v>59100</v>
+        <v>59300</v>
       </c>
       <c r="I62" s="3">
-        <v>26000</v>
+        <v>26100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>770100</v>
+        <v>771800</v>
       </c>
       <c r="E66" s="3">
-        <v>764200</v>
+        <v>765900</v>
       </c>
       <c r="F66" s="3">
-        <v>784000</v>
+        <v>785700</v>
       </c>
       <c r="G66" s="3">
-        <v>765700</v>
+        <v>767300</v>
       </c>
       <c r="H66" s="3">
-        <v>780100</v>
+        <v>781800</v>
       </c>
       <c r="I66" s="3">
-        <v>420300</v>
+        <v>421200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2968,19 +2968,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>453700</v>
+        <v>454600</v>
       </c>
       <c r="E72" s="3">
-        <v>522700</v>
+        <v>523900</v>
       </c>
       <c r="F72" s="3">
-        <v>715800</v>
+        <v>717400</v>
       </c>
       <c r="G72" s="3">
-        <v>602100</v>
+        <v>603400</v>
       </c>
       <c r="H72" s="3">
-        <v>512600</v>
+        <v>513700</v>
       </c>
       <c r="I72" s="3">
         <v>-4800</v>
@@ -3124,19 +3124,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>453700</v>
+        <v>454700</v>
       </c>
       <c r="E76" s="3">
-        <v>522700</v>
+        <v>523900</v>
       </c>
       <c r="F76" s="3">
-        <v>715800</v>
+        <v>717400</v>
       </c>
       <c r="G76" s="3">
-        <v>602100</v>
+        <v>603400</v>
       </c>
       <c r="H76" s="3">
-        <v>512600</v>
+        <v>513700</v>
       </c>
       <c r="I76" s="3">
         <v>-4800</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-120200</v>
+        <v>-120400</v>
       </c>
       <c r="E81" s="3">
-        <v>-176600</v>
+        <v>-177000</v>
       </c>
       <c r="F81" s="3">
-        <v>-186500</v>
+        <v>-186900</v>
       </c>
       <c r="G81" s="3">
-        <v>-228800</v>
+        <v>-229300</v>
       </c>
       <c r="H81" s="3">
-        <v>-164700</v>
+        <v>-165100</v>
       </c>
       <c r="I81" s="3">
-        <v>-83600</v>
+        <v>-83800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3302,22 +3302,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>38800</v>
+        <v>38900</v>
       </c>
       <c r="E83" s="3">
-        <v>60500</v>
+        <v>60600</v>
       </c>
       <c r="F83" s="3">
-        <v>58000</v>
+        <v>58200</v>
       </c>
       <c r="G83" s="3">
-        <v>63400</v>
+        <v>63500</v>
       </c>
       <c r="H83" s="3">
-        <v>48800</v>
+        <v>48900</v>
       </c>
       <c r="I83" s="3">
-        <v>39600</v>
+        <v>39700</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-102800</v>
+        <v>-103000</v>
       </c>
       <c r="E89" s="3">
-        <v>-55700</v>
+        <v>-55800</v>
       </c>
       <c r="F89" s="3">
-        <v>-97000</v>
+        <v>-97200</v>
       </c>
       <c r="G89" s="3">
-        <v>-250400</v>
+        <v>-251000</v>
       </c>
       <c r="H89" s="3">
-        <v>-67400</v>
+        <v>-67600</v>
       </c>
       <c r="I89" s="3">
-        <v>-31500</v>
+        <v>-31600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3598,7 +3598,7 @@
         <v>-6300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="G91" s="3">
         <v>-13500</v>
@@ -3709,19 +3709,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>258100</v>
+        <v>258600</v>
       </c>
       <c r="E94" s="3">
-        <v>53500</v>
+        <v>53600</v>
       </c>
       <c r="F94" s="3">
-        <v>181300</v>
+        <v>181700</v>
       </c>
       <c r="G94" s="3">
-        <v>78700</v>
+        <v>78800</v>
       </c>
       <c r="H94" s="3">
-        <v>-799900</v>
+        <v>-801600</v>
       </c>
       <c r="I94" s="3">
         <v>-17500</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-95600</v>
+        <v>-95800</v>
       </c>
       <c r="E100" s="3">
-        <v>-222100</v>
+        <v>-222600</v>
       </c>
       <c r="F100" s="3">
-        <v>211300</v>
+        <v>211800</v>
       </c>
       <c r="G100" s="3">
-        <v>241700</v>
+        <v>242300</v>
       </c>
       <c r="H100" s="3">
-        <v>826600</v>
+        <v>828400</v>
       </c>
       <c r="I100" s="3">
-        <v>155000</v>
+        <v>155400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>70000</v>
+        <v>70200</v>
       </c>
       <c r="E102" s="3">
-        <v>-228100</v>
+        <v>-228600</v>
       </c>
       <c r="F102" s="3">
-        <v>272400</v>
+        <v>273000</v>
       </c>
       <c r="G102" s="3">
-        <v>70700</v>
+        <v>70800</v>
       </c>
       <c r="H102" s="3">
         <v>-39000</v>
       </c>
       <c r="I102" s="3">
-        <v>106000</v>
+        <v>106300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
